--- a/ProblemSets/Project/Chartsv4.xlsx
+++ b/ProblemSets/Project/Chartsv4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Documents/UChicago/Structural Estimation/Class Repository/StructEst_W19/ProblemSets/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EEA367-4A23-064B-BDA1-A8FA927CA9AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617070FC-8B71-0A4B-8AC5-6394B8061C21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{392C2453-E47A-3548-8320-C75D9244874E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{392C2453-E47A-3548-8320-C75D9244874E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="165">
   <si>
     <t>print(hydroOut)</t>
   </si>
@@ -823,34 +823,6 @@
     <t>Carbon-charge</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Demand Elasticity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(Exchange Elasticity = 0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Demand Ela</t>
   </si>
   <si>
@@ -865,6 +837,91 @@
   <si>
     <t>"Peakers"</t>
   </si>
+  <si>
+    <t>External Area Gains</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import Elasticity = -0.1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Internal Demand Elasticity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import Elasticity = -0.3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Internal Demand Elasticity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import Elasticity = -0.5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Internal Demand Elasticity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Demand Elasticity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Exchange Elasticity = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Net Welfare Gain (NY only)</t>
+  </si>
 </sst>
 </file>
 
@@ -876,10 +933,10 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000000%"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -979,6 +1036,55 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -988,7 +1094,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1358,12 +1464,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,13 +1672,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,14 +1787,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1758,6 +1882,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1773,19 +1930,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1818,35 +1966,150 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1901,7 +2164,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$P$25</c:f>
+              <c:f>Summary!$P$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1963,7 +2226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$I$25:$L$25</c:f>
+              <c:f>Summary!$I$31:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1994,7 +2257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$P$27</c:f>
+              <c:f>Summary!$P$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2052,7 +2315,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$I$26:$L$26</c:f>
+              <c:f>Summary!$I$32:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11679,7 +11942,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$M$41</c:f>
+              <c:f>Summary!$M$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11716,7 +11979,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$N$40:$Q$40</c:f>
+              <c:f>Summary!$N$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11737,7 +12000,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$N$41:$Q$41</c:f>
+              <c:f>Summary!$N$47:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11768,7 +12031,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$M$42</c:f>
+              <c:f>Summary!$M$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11809,7 +12072,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$N$40:$Q$40</c:f>
+              <c:f>Summary!$N$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11830,7 +12093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$N$42:$Q$42</c:f>
+              <c:f>Summary!$N$48:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11861,7 +12124,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$M$43</c:f>
+              <c:f>Summary!$M$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11902,7 +12165,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$N$40:$Q$40</c:f>
+              <c:f>Summary!$N$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11923,7 +12186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$N$43:$Q$43</c:f>
+              <c:f>Summary!$N$49:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11954,7 +12217,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$M$44</c:f>
+              <c:f>Summary!$M$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11995,7 +12258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$N$40:$Q$40</c:f>
+              <c:f>Summary!$N$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12016,7 +12279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$N$44:$Q$44</c:f>
+              <c:f>Summary!$N$50:$Q$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -17770,7 +18033,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary (2)'!$P$25</c:f>
+              <c:f>'Summary (2)'!$P$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17832,7 +18095,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$I$25:$L$25</c:f>
+              <c:f>'Summary (2)'!$I$26:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -17863,7 +18126,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary (2)'!$P$27</c:f>
+              <c:f>'Summary (2)'!$P$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17921,7 +18184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$I$26:$L$26</c:f>
+              <c:f>'Summary (2)'!$I$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18344,7 +18607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary (2)'!$M$41</c:f>
+              <c:f>'Summary (2)'!$M$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18381,7 +18644,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$40:$Q$40</c:f>
+              <c:f>'Summary (2)'!$N$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18402,7 +18665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$41:$Q$41</c:f>
+              <c:f>'Summary (2)'!$N$42:$Q$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18433,7 +18696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary (2)'!$M$42</c:f>
+              <c:f>'Summary (2)'!$M$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18474,7 +18737,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$40:$Q$40</c:f>
+              <c:f>'Summary (2)'!$N$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18495,7 +18758,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$42:$Q$42</c:f>
+              <c:f>'Summary (2)'!$N$43:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18526,7 +18789,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary (2)'!$M$43</c:f>
+              <c:f>'Summary (2)'!$M$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18567,7 +18830,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$40:$Q$40</c:f>
+              <c:f>'Summary (2)'!$N$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18588,7 +18851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$43:$Q$43</c:f>
+              <c:f>'Summary (2)'!$N$44:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18619,7 +18882,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary (2)'!$M$44</c:f>
+              <c:f>'Summary (2)'!$M$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18660,7 +18923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$40:$Q$40</c:f>
+              <c:f>'Summary (2)'!$N$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -18681,7 +18944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary (2)'!$N$44:$Q$44</c:f>
+              <c:f>'Summary (2)'!$N$45:$Q$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -36219,13 +36482,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>617839</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>194505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22884</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>91531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -36255,13 +36518,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>205945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>605465</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>29535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -37067,13 +37330,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>617839</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>194505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22884</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>91531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -37105,13 +37368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>205945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>605465</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>29535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -37822,1283 +38085,1363 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1733B832-A496-D04D-A6BC-B280ACB1A954}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:T51"/>
+  <dimension ref="B3:U57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="68"/>
-    <col min="4" max="9" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="30" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="151" t="s">
+    <row r="3" spans="2:21" ht="30" customHeight="1">
+      <c r="B3" s="190"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="155"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="29"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="74">
+      <c r="E3" s="192" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="187" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198">
         <v>-0.1</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="199">
         <v>-0.3</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="199">
         <v>-0.5</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="200">
         <v>-1</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="198">
         <f>E4</f>
         <v>-0.1</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="199">
         <f t="shared" ref="J4:L4" si="0">F4</f>
         <v>-0.3</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="199">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="200">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="198">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="199">
         <f t="shared" ref="N4" si="1">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="O4" s="75">
+      <c r="O4" s="199">
         <f t="shared" ref="O4" si="2">K4</f>
         <v>-0.5</v>
       </c>
-      <c r="P4" s="91">
+      <c r="P4" s="200">
         <f t="shared" ref="P4" si="3">L4</f>
         <v>-1</v>
       </c>
-      <c r="Q4" s="74">
+      <c r="Q4" s="198">
         <f>M4</f>
         <v>-0.1</v>
       </c>
-      <c r="R4" s="75">
+      <c r="R4" s="199">
         <f t="shared" ref="R4" si="4">N4</f>
         <v>-0.3</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="199">
         <f t="shared" ref="S4" si="5">O4</f>
         <v>-0.5</v>
       </c>
-      <c r="T4" s="91">
+      <c r="T4" s="199">
         <f t="shared" ref="T4" si="6">P4</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" ht="10" customHeight="1">
-      <c r="C5" s="70"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="92"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="69" t="s">
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="2:21" ht="10" customHeight="1">
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="202" t="str">
         <f>'0 -0.5'!H28</f>
         <v>[$/MWh]</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="203">
         <f>'0 -0.5'!F28</f>
         <v>39.477220277561777</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="204">
         <f>'0 -0.1'!$G28</f>
         <v>54.105676644261884</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="205">
         <f>'0 -0.3'!$G28</f>
         <v>52.295135047397551</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="205">
         <f>'0 -0.5'!$G28</f>
         <v>50.270947671249203</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="206">
         <f>'0 -1'!$G28</f>
         <v>42.749462639467005</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="204">
         <f>'-0.1 -0.1'!$G28</f>
         <v>53.4426680462918</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="205">
         <f>'-0.1 -0.3'!$G28</f>
         <v>51.493267794191759</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="205">
         <f>'-0.1 -0.5'!$G28</f>
         <v>48.994502294398472</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="206">
         <f>'-0.1 -1'!$G28</f>
         <v>41.802459030988793</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="204">
         <f>'-0.3 -0.1'!$G28</f>
         <v>52.510825945231673</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="205">
         <f>'-0.3 -0.3'!$G28</f>
         <v>50.247586897695356</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="205">
         <f>'-0.3 -0.5'!$G28</f>
         <v>47.168773260575492</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="206">
         <f>'-0.3 -1'!$G28</f>
         <v>39.092088610403593</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="204">
         <f>'-0.5 -0.1'!$G28</f>
         <v>51.235865079599328</v>
       </c>
-      <c r="R6" s="82">
+      <c r="R6" s="205">
         <f>'-0.5 -0.3'!$G28</f>
         <v>48.43784454117241</v>
       </c>
-      <c r="S6" s="82">
+      <c r="S6" s="205">
         <f>'-0.5 -0.5'!$G28</f>
         <v>44.958480644765231</v>
       </c>
-      <c r="T6" s="93">
+      <c r="T6" s="205">
         <f>'-0.5 -1'!$G28</f>
         <v>35.170942347565287</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="10" customHeight="1">
-      <c r="C7" s="70"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="92"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" t="s">
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="2:21" ht="10" customHeight="1">
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="148" t="str">
+      <c r="C8" s="207" t="str">
         <f>'0 -0.5'!H31</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="208">
         <f>'0 -0.5'!F37</f>
         <v>12533.4043884767</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="209">
         <f>'0 -0.1'!$G37</f>
         <v>15677.236279381201</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="210">
         <f>'0 -0.3'!$G37</f>
         <v>14546.4153514268</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="210">
         <f>'0 -0.5'!$G37</f>
         <v>13505.8993706482</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="211">
         <f>'0 -1'!$G37</f>
         <v>10607.2657550283</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="209">
         <f>'-0.1 -0.1'!$G37</f>
         <v>16551.7651990991</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="210">
         <f>'-0.1 -0.3'!$G37</f>
         <v>15267.229362032302</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="210">
         <f>'-0.1 -0.5'!$G37</f>
         <v>13936.6109307757</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="211">
         <f>'-0.1 -1'!$G37</f>
         <v>10626.200748161</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="209">
         <f>'-0.3 -0.1'!$G37</f>
         <v>16276.0542006915</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="210">
         <f>'-0.3 -0.3'!$G37</f>
         <v>14912.115907932899</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="210">
         <f>'-0.3 -0.5'!$G37</f>
         <v>13401.8745696928</v>
       </c>
-      <c r="P8" s="94">
+      <c r="P8" s="211">
         <f>'-0.3 -1'!$G37</f>
         <v>9898.5751689183508</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="209">
         <f>'-0.5 -0.1'!$G37</f>
         <v>15889.608388786501</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="210">
         <f>'-0.5 -0.3'!$G37</f>
         <v>14366.981568699301</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="210">
         <f>'-0.5 -0.5'!$G37</f>
         <v>12751.492957468599</v>
       </c>
-      <c r="T8" s="94">
+      <c r="T8" s="210">
         <f>'-0.5 -1'!$G37</f>
         <v>8834.2241734764903</v>
       </c>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" t="s">
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="83">
+      <c r="C9" s="212"/>
+      <c r="D9" s="208">
         <f>'0 -0.5'!F30</f>
         <v>6143.604256374444</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="209">
         <f>'0 -0.1'!$G30</f>
         <v>8273.7792335883369</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="210">
         <f>'0 -0.3'!$G30</f>
         <v>7826.3922395902828</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="210">
         <f>'0 -0.5'!$G30</f>
         <v>7358.8467543958641</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="211">
         <f>'0 -1'!$G30</f>
         <v>5737.668435824372</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="209">
         <f>'-0.1 -0.1'!$G30</f>
         <v>8184.3462561460447</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="210">
         <f>'-0.1 -0.3'!$G30</f>
         <v>7729.0520125972562</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="210">
         <f>'-0.1 -0.5'!$G30</f>
         <v>7193.453879681394</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="211">
         <f>'-0.1 -1'!$G30</f>
         <v>5510.9879399218362</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="209">
         <f>'-0.3 -0.1'!$G30</f>
         <v>7982.3310258346646</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="210">
         <f>'-0.3 -0.3'!$G30</f>
         <v>7482.8515189665195</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="210">
         <f>'-0.3 -0.5'!$G30</f>
         <v>6850.3747317443267</v>
       </c>
-      <c r="P9" s="94">
+      <c r="P9" s="211">
         <f>'-0.3 -1'!$G30</f>
         <v>4979.1550339148644</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="209">
         <f>'-0.5 -0.1'!$G30</f>
         <v>7725.8460821446679</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="210">
         <f>'-0.5 -0.3'!$G30</f>
         <v>7143.4201146550768</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="210">
         <f>'-0.5 -0.5'!$G30</f>
         <v>6422.1977401399809</v>
       </c>
-      <c r="T9" s="94">
+      <c r="T9" s="210">
         <f>'-0.5 -1'!$G30</f>
         <v>4334.1448976643587</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" ht="10" customHeight="1">
-      <c r="C10" s="149"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="92"/>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" t="s">
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="2:21" ht="10" customHeight="1">
+      <c r="B10" s="175"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="212"/>
+      <c r="D11" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="209">
         <f>'0 -0.1'!$G39</f>
         <v>1309.55949683532</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="210">
         <f>'0 -0.3'!$G39</f>
         <v>1111.2539836067199</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="210">
         <f>'0 -0.5'!$G39</f>
         <v>945.97308325003803</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="211">
         <f>'0 -1'!$G39</f>
         <v>586.645929081502</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="209">
         <f>'-0.1 -0.1'!$G39</f>
         <v>1261.27336335108</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="210">
         <f>'-0.1 -0.3'!$G39</f>
         <v>1073.2790939727499</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="210">
         <f>'-0.1 -0.5'!$G39</f>
         <v>908.59002410247399</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="211">
         <f>'-0.1 -1'!$G39</f>
         <v>564.66900400892791</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="209">
         <f>'-0.3 -0.1'!$G39</f>
         <v>1170.5228127130401</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="210">
         <f>'-0.3 -0.3'!$G39</f>
         <v>998.74942357850205</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="210">
         <f>'-0.3 -0.5'!$G39</f>
         <v>840.90503534068091</v>
       </c>
-      <c r="P11" s="94">
+      <c r="P11" s="211">
         <f>'-0.3 -1'!$G39</f>
         <v>521.93956221413794</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="209">
         <f>'-0.5 -0.1'!$G39</f>
         <v>1088.043901301</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="210">
         <f>'-0.5 -0.3'!$G39</f>
         <v>927.51145558452902</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="210">
         <f>'-0.5 -0.5'!$G39</f>
         <v>779.44262921798895</v>
       </c>
-      <c r="T11" s="94">
+      <c r="T11" s="210">
         <f>'-0.5 -1'!$G39</f>
         <v>463.71866306171</v>
       </c>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" t="s">
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="213"/>
+      <c r="D12" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="209">
         <f>'0 -0.1'!$G40</f>
         <v>1204.4215865315409</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="210">
         <f>'0 -0.3'!$G40</f>
         <v>1055.3521749741678</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="210">
         <f>'0 -0.5'!$G40</f>
         <v>888.69241881784092</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="211">
         <f>'0 -1'!$G40</f>
         <v>269.4173081729374</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="209">
         <f>'-0.1 -0.1'!$G40</f>
         <v>1149.8333341942016</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="210">
         <f>'-0.1 -0.3'!$G40</f>
         <v>989.33111266356741</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="210">
         <f>'-0.1 -0.5'!$G40</f>
         <v>783.59736795471213</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="211">
         <f>'-0.1 -1'!$G40</f>
         <v>191.44656676437432</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="209">
         <f>'-0.3 -0.1'!$G40</f>
         <v>1073.110902679789</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="210">
         <f>'-0.3 -0.3'!$G40</f>
         <v>886.76902927891626</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="210">
         <f>'-0.3 -0.5'!$G40</f>
         <v>633.27751161639026</v>
       </c>
-      <c r="P12" s="94">
+      <c r="P12" s="211">
         <f>'-0.3 -1'!$G40</f>
         <v>-31.709490185042359</v>
       </c>
-      <c r="Q12" s="84">
+      <c r="Q12" s="209">
         <f>'-0.5 -0.1'!$G40</f>
         <v>968.13807779266574</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="210">
         <f>'-0.5 -0.3'!$G40</f>
         <v>737.76542249929037</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="210">
         <f>'-0.5 -0.5'!$G40</f>
         <v>451.2949379052539</v>
       </c>
-      <c r="T12" s="94">
+      <c r="T12" s="210">
         <f>'-0.5 -1'!$G40</f>
         <v>-354.55375239035709</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" ht="10" customHeight="1">
-      <c r="C13" s="70"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="92"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" t="s">
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="2:21" ht="10" customHeight="1">
+      <c r="B13" s="175"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="70" t="str">
+      <c r="C14" s="176" t="str">
         <f>'0 -0.5'!H42</f>
         <v>[000 ton CO2]</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="208">
         <f>'0 -0.5'!F42</f>
         <v>39764.703681774801</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="209">
         <f>'0 -0.1'!$G42</f>
         <v>36376.6526898702</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="210">
         <f>'0 -0.3'!$G42</f>
         <v>30868.166211297797</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="210">
         <f>'0 -0.5'!$G42</f>
         <v>26277.0300902788</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="211">
         <f>'0 -1'!$G42</f>
         <v>16295.7202522639</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="209">
         <f>'-0.1 -0.1'!$G42</f>
         <v>36981.840347387551</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="210">
         <f>'-0.1 -0.3'!$G42</f>
         <v>31515.300720462106</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="210">
         <f>'-0.1 -0.5'!$G42</f>
         <v>26752.690810328389</v>
       </c>
-      <c r="L14" s="94">
+      <c r="L14" s="211">
         <f>'-0.1 -1'!$G42</f>
         <v>17134.046600581518</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="209">
         <f>'-0.3 -0.1'!$G42</f>
         <v>38196.104424497542</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="210">
         <f>'-0.3 -0.3'!$G42</f>
         <v>32770.468116800148</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="210">
         <f>'-0.3 -0.5'!$G42</f>
         <v>27921.750485729426</v>
       </c>
-      <c r="P14" s="94">
+      <c r="P14" s="211">
         <f>'-0.3 -1'!$G42</f>
         <v>18894.654189590285</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="209">
         <f>'-0.5 -0.1'!$G42</f>
         <v>39457.863108776975</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="210">
         <f>'-0.5 -0.3'!$G42</f>
         <v>34063.741416933684</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="210">
         <f>'-0.5 -0.5'!$G42</f>
         <v>29555.527316013759</v>
       </c>
-      <c r="T14" s="94">
+      <c r="T14" s="210">
         <f>'-0.5 -1'!$G42</f>
         <v>21017.478277815229</v>
       </c>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" t="s">
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="70" t="str">
+      <c r="C15" s="176" t="str">
         <f>C8</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="208">
         <f>'0 -0.5'!F43</f>
         <v>1431.5293325438927</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="209">
         <f>'0 -0.1'!$G43</f>
         <v>1309.5594968353273</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="210">
         <f>'0 -0.3'!$G43</f>
         <v>1111.2539836067208</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="210">
         <f>'0 -0.5'!$G43</f>
         <v>945.97308325003678</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="211">
         <f>'0 -1'!$G43</f>
         <v>586.64592908150041</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="209">
         <f>'-0.1 -0.1'!$G43</f>
         <v>1331.3462525059517</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="210">
         <f>'-0.1 -0.3'!$G43</f>
         <v>1134.5508259366356</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="210">
         <f>'-0.1 -0.5'!$G43</f>
         <v>963.09686917182194</v>
       </c>
-      <c r="L15" s="94">
+      <c r="L15" s="211">
         <f>'-0.1 -1'!$G43</f>
         <v>616.8256776209347</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="209">
         <f>'-0.3 -0.1'!$G43</f>
         <v>1375.0597592819115</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="210">
         <f>'-0.3 -0.3'!$G43</f>
         <v>1179.7368522048052</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="210">
         <f>'-0.3 -0.5'!$G43</f>
         <v>1005.1830174862594</v>
       </c>
-      <c r="P15" s="94">
+      <c r="P15" s="211">
         <f>'-0.3 -1'!$G43</f>
         <v>680.20755082525022</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="209">
         <f>'-0.5 -0.1'!$G43</f>
         <v>1420.4830719159711</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="210">
         <f>'-0.5 -0.3'!$G43</f>
         <v>1226.2946910096127</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="210">
         <f>'-0.5 -0.5'!$G43</f>
         <v>1063.9989833764953</v>
       </c>
-      <c r="T15" s="94">
+      <c r="T15" s="210">
         <f>'-0.5 -1'!$G43</f>
         <v>756.62921800134825</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" ht="10" customHeight="1">
-      <c r="C16" s="70"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="92"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="77" t="str">
+      <c r="U15" s="26"/>
+    </row>
+    <row r="16" spans="2:21" ht="10" customHeight="1">
+      <c r="B16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="26"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="215" t="str">
         <f>C15</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="217">
         <f>($D$8-E8)-($D$9-E9)+E11+E12+($D$15-E15)</f>
         <v>1622.2940053848181</v>
       </c>
-      <c r="F17" s="87">
-        <f t="shared" ref="F17:L17" si="7">($D$8-F8)-($D$9-F9)+F11+F12+($D$15-F15)</f>
+      <c r="F17" s="218">
+        <f t="shared" ref="F17:H17" si="7">($D$8-F8)-($D$9-F9)+F11+F12+($D$15-F15)</f>
         <v>2156.658527783798</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="218">
         <f t="shared" si="7"/>
         <v>2562.9692672116553</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="219">
         <f t="shared" si="7"/>
         <v>3221.149453615159</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="217">
         <f>($D$8-I8)-($D$9-I9)+I11+I12+($D$15-I15)</f>
         <v>533.67096673242304</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="218">
         <f t="shared" ref="J17:L17" si="8">($D$8-J8)-($D$9-J9)+J11+J12+($D$15-J15)</f>
         <v>1211.2114959107846</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="218">
         <f t="shared" si="8"/>
         <v>1807.2629364372069</v>
       </c>
-      <c r="L17" s="95">
+      <c r="L17" s="219">
         <f t="shared" si="8"/>
         <v>2845.4065495593522</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="217">
         <f>($D$8-M8)-($D$9-M9)+M11+M12+($D$15-M15)</f>
         <v>396.18024590023037</v>
       </c>
-      <c r="N17" s="87">
+      <c r="N17" s="218">
         <f t="shared" ref="N17:P17" si="9">($D$8-N8)-($D$9-N9)+N11+N12+($D$15-N15)</f>
         <v>1097.8466763323818</v>
       </c>
-      <c r="O17" s="87">
+      <c r="O17" s="218">
         <f t="shared" si="9"/>
         <v>1738.8291561684871</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P17" s="219">
         <f t="shared" si="9"/>
         <v>2711.9318508465071</v>
       </c>
-      <c r="Q17" s="86">
+      <c r="Q17" s="217">
         <f>($D$8-Q8)-($D$9-Q9)+Q11+Q12+($D$15-Q15)</f>
         <v>293.26606518201027</v>
       </c>
-      <c r="R17" s="87">
+      <c r="R17" s="218">
         <f t="shared" ref="R17:T17" si="10">($D$8-R8)-($D$9-R9)+R11+R12+($D$15-R15)</f>
         <v>1036.7501976761312</v>
       </c>
-      <c r="S17" s="87">
+      <c r="S17" s="218">
         <f t="shared" si="10"/>
         <v>1658.7728310642774</v>
       </c>
-      <c r="T17" s="95">
+      <c r="T17" s="218">
         <f t="shared" si="10"/>
         <v>2673.7858815040213</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="10" customHeight="1">
-      <c r="C18" s="70"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="92"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" t="s">
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="2:21" ht="10" customHeight="1">
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="26"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="70" t="str">
+      <c r="C19" s="176" t="str">
         <f>'0 -0.5'!H45</f>
         <v>[TWh/year]</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="208">
         <f>'0 -0.5'!F45</f>
         <v>158.74223539999963</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="209">
         <f>'0 -0.1'!$G45</f>
         <v>154.78475253968548</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="210">
         <f>'0 -0.3'!$G45</f>
         <v>148.11365318646099</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="210">
         <f>'0 -0.5'!$G45</f>
         <v>142.31180000861048</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="211">
         <f>'0 -1'!$G45</f>
         <v>127.3466021721015</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="209">
         <f>'-0.1 -0.1'!$G45</f>
         <v>154.855341286124</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="210">
         <f>'-0.1 -0.3'!$G45</f>
         <v>148.24490672307249</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="210">
         <f>'-0.1 -0.5'!$G45</f>
         <v>142.22627313400702</v>
       </c>
-      <c r="L19" s="94">
+      <c r="L19" s="211">
         <f>'-0.1 -1'!$G45</f>
         <v>127.10018733926199</v>
       </c>
-      <c r="M19" s="84">
+      <c r="M19" s="209">
         <f>'-0.3 -0.1'!$G45</f>
         <v>154.97808221172602</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="210">
         <f>'-0.3 -0.3'!$G45</f>
         <v>148.38638856721749</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="210">
         <f>'-0.3 -0.5'!$G45</f>
         <v>142.06299680147001</v>
       </c>
-      <c r="P19" s="94">
+      <c r="P19" s="211">
         <f>'-0.3 -1'!$G45</f>
         <v>126.6058622189355</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="209">
         <f>'-0.5 -0.1'!$G45</f>
         <v>155.06333663050899</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="210">
         <f>'-0.5 -0.3'!$G45</f>
         <v>148.30327097324999</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="210">
         <f>'-0.5 -0.5'!$G45</f>
         <v>141.81410019416799</v>
       </c>
-      <c r="T19" s="94">
+      <c r="T19" s="210">
         <f>'-0.5 -1'!$G45</f>
         <v>125.589813405839</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="M21">
-        <f>D19*D6</f>
-        <v>6266.7021942383499</v>
-      </c>
-      <c r="N21">
-        <f>H19*H6</f>
-        <v>5443.9988118193205</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1">
-      <c r="B22" s="26"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="151" t="s">
+      <c r="U19" s="26"/>
+    </row>
+    <row r="20" spans="2:21" ht="10" customHeight="1">
+      <c r="B20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="179"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="2:21" ht="3" customHeight="1">
+      <c r="B21" s="220"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="224"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="226" t="str">
+        <f>C15</f>
+        <v>[MMUSD]</v>
+      </c>
+      <c r="D22" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="184" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="184" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="185" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="183">
+        <v>1121.6060964645501</v>
+      </c>
+      <c r="J22" s="184">
+        <v>941.04224488716989</v>
+      </c>
+      <c r="K22" s="184">
+        <v>713.12139931798981</v>
+      </c>
+      <c r="L22" s="185">
+        <v>-50.284689952189922</v>
+      </c>
+      <c r="M22" s="183">
+        <v>1338.6081486806402</v>
+      </c>
+      <c r="N22" s="184">
+        <v>1063.5809295096201</v>
+      </c>
+      <c r="O22" s="184">
+        <v>727.67814866144988</v>
+      </c>
+      <c r="P22" s="185">
+        <v>-245.57756873094988</v>
+      </c>
+      <c r="Q22" s="183">
+        <v>1460.4528167706899</v>
+      </c>
+      <c r="R22" s="184">
+        <v>1061.04072978367</v>
+      </c>
+      <c r="S22" s="184">
+        <v>627.73444477622991</v>
+      </c>
+      <c r="T22" s="184">
+        <v>-566.75855870477005</v>
+      </c>
+      <c r="U22" s="26"/>
+    </row>
+    <row r="23" spans="2:21" ht="5" customHeight="1">
+      <c r="B23" s="190"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="210"/>
+      <c r="O23" s="210"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="210"/>
+      <c r="S23" s="210"/>
+      <c r="T23" s="210"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="190" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="212"/>
+      <c r="D24" s="177" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="209" t="e">
+        <f>($D$8-E15)-($D$9-E16)+E18+E19+($D$15-E22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="210" t="e">
+        <f t="shared" ref="F24:H24" si="11">($D$8-F15)-($D$9-F16)+F18+F19+($D$15-F22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="210" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="211" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="209">
+        <f>I22+I17</f>
+        <v>1655.2770631969731</v>
+      </c>
+      <c r="J24" s="210">
+        <f t="shared" ref="J24:L24" si="12">($D$8-J15)-($D$9-J16)+J18+J19+($D$15-J22)</f>
+        <v>5893.9813005454153</v>
+      </c>
+      <c r="K24" s="210">
+        <f t="shared" si="12"/>
+        <v>6287.3374692903426</v>
+      </c>
+      <c r="L24" s="211">
+        <f t="shared" si="12"/>
+        <v>7381.8886643166661</v>
+      </c>
+      <c r="M24" s="209">
+        <f>($D$8-M15)-($D$9-M16)+M18+M19+($D$15-M22)</f>
+        <v>5262.6396388953226</v>
+      </c>
+      <c r="N24" s="210">
+        <f t="shared" ref="N24:P24" si="13">($D$8-N15)-($D$9-N16)+N18+N19+($D$15-N22)</f>
+        <v>5726.3980714989402</v>
+      </c>
+      <c r="O24" s="210">
+        <f t="shared" si="13"/>
+        <v>6230.5312952999093</v>
+      </c>
+      <c r="P24" s="211">
+        <f t="shared" si="13"/>
+        <v>7513.3053447707825</v>
+      </c>
+      <c r="Q24" s="209">
+        <f>($D$8-Q15)-($D$9-Q16)+Q18+Q19+($D$15-Q22)</f>
+        <v>5095.456912589997</v>
+      </c>
+      <c r="R24" s="210">
+        <f t="shared" ref="R24:T24" si="14">($D$8-R15)-($D$9-R16)+R18+R19+($D$15-R22)</f>
+        <v>5682.2973148261153</v>
+      </c>
+      <c r="S24" s="210">
+        <f t="shared" si="14"/>
+        <v>6271.4101366875902</v>
+      </c>
+      <c r="T24" s="210">
+        <f t="shared" si="14"/>
+        <v>7757.0486187554088</v>
+      </c>
+      <c r="U24" s="26"/>
+    </row>
+    <row r="25" spans="2:21" ht="6" customHeight="1">
+      <c r="B25" s="190"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="209"/>
+      <c r="N25" s="210"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="26"/>
+    </row>
+    <row r="26" spans="2:21" ht="15" customHeight="1"/>
+    <row r="28" spans="2:21" ht="30" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E28" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="29"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="74">
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="29"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="72">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="F23" s="75">
-        <f t="shared" ref="F23:H23" si="11">J4</f>
+      <c r="F29" s="73">
+        <f t="shared" ref="F29:H29" si="15">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="G23" s="75">
-        <f t="shared" si="11"/>
+      <c r="G29" s="73">
+        <f t="shared" si="15"/>
         <v>-0.5</v>
       </c>
-      <c r="H23" s="75">
-        <f t="shared" si="11"/>
+      <c r="H29" s="73">
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="10" customHeight="1">
-      <c r="C24" s="73"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="1">
+    <row r="30" spans="2:21" ht="10" customHeight="1">
+      <c r="C30" s="71"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="1">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J30" s="1">
         <f>J4</f>
         <v>-0.3</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K30" s="1">
         <f>K4</f>
         <v>-0.5</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L30" s="1">
         <f>L4</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="69" t="s">
+    <row r="31" spans="2:21">
+      <c r="B31" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="88" t="str">
+      <c r="C31" s="86" t="str">
         <f>C6</f>
         <v>[$/MWh]</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D31" s="78">
         <f>D6</f>
         <v>39.477220277561777</v>
       </c>
-      <c r="E25" s="81">
-        <f t="shared" ref="E25:E38" si="12">I6</f>
+      <c r="E31" s="79">
+        <f>I6</f>
         <v>53.4426680462918</v>
       </c>
-      <c r="F25" s="82">
-        <f t="shared" ref="F25:F38" si="13">J6</f>
+      <c r="F31" s="80">
+        <f>J6</f>
         <v>51.493267794191759</v>
       </c>
-      <c r="G25" s="82">
-        <f t="shared" ref="G25:G38" si="14">K6</f>
+      <c r="G31" s="80">
+        <f>K6</f>
         <v>48.994502294398472</v>
       </c>
-      <c r="H25" s="82">
-        <f t="shared" ref="H25:H38" si="15">L6</f>
+      <c r="H31" s="80">
+        <f>L6</f>
         <v>41.802459030988793</v>
       </c>
-      <c r="I25" s="142">
+      <c r="I31" s="140">
         <f>E17/E8</f>
         <v>0.10348086719331195</v>
       </c>
-      <c r="J25" s="142">
+      <c r="J31" s="140">
         <f>F17/F8</f>
         <v>0.14826048037823009</v>
       </c>
-      <c r="K25" s="142">
+      <c r="K31" s="140">
         <f>G17/G8</f>
         <v>0.18976664914160757</v>
       </c>
-      <c r="L25" s="142">
+      <c r="L31" s="140">
         <f>H17/H8</f>
         <v>0.30367387109992938</v>
       </c>
-      <c r="M25" s="142" t="str">
-        <f>P25</f>
+      <c r="M31" s="140" t="str">
+        <f>P31</f>
         <v>100% Pass-through</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="10" customHeight="1">
-      <c r="C26" s="73"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="142">
-        <f>I17/I8</f>
-        <v>3.2242540920135232E-2</v>
-      </c>
-      <c r="J26" s="142">
-        <f>J17/J8</f>
-        <v>7.9334073471308206E-2</v>
-      </c>
-      <c r="K26" s="142">
-        <f>K17/K8</f>
-        <v>0.12967736169245389</v>
-      </c>
-      <c r="L26" s="142">
-        <f>L17/L8</f>
-        <v>0.26777270795037317</v>
-      </c>
-      <c r="M26" s="142" t="str">
-        <f>P27</f>
-        <v>80% Pass-through</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="148" t="str">
-        <f>C8</f>
-        <v>[MMUSD]</v>
-      </c>
-      <c r="D27" s="83">
-        <f t="shared" ref="D27:D38" si="16">D8</f>
-        <v>12533.4043884767</v>
-      </c>
-      <c r="E27" s="84">
-        <f t="shared" si="12"/>
-        <v>16551.7651990991</v>
-      </c>
-      <c r="F27" s="38">
-        <f t="shared" si="13"/>
-        <v>15267.229362032302</v>
-      </c>
-      <c r="G27" s="38">
-        <f t="shared" si="14"/>
-        <v>13936.6109307757</v>
-      </c>
-      <c r="H27" s="38">
-        <f t="shared" si="15"/>
-        <v>10626.200748161</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="P27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="83">
-        <f t="shared" si="16"/>
-        <v>6143.604256374444</v>
-      </c>
-      <c r="E28" s="84">
-        <f t="shared" si="12"/>
-        <v>8184.3462561460447</v>
-      </c>
-      <c r="F28" s="38">
-        <f t="shared" si="13"/>
-        <v>7729.0520125972562</v>
-      </c>
-      <c r="G28" s="38">
-        <f t="shared" si="14"/>
-        <v>7193.453879681394</v>
-      </c>
-      <c r="H28" s="38">
-        <f t="shared" si="15"/>
-        <v>5510.9879399218362</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="2:20" ht="10" customHeight="1">
-      <c r="C29" s="149"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="83" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="E30" s="84">
-        <f t="shared" si="12"/>
-        <v>1261.27336335108</v>
-      </c>
-      <c r="F30" s="38">
-        <f t="shared" si="13"/>
-        <v>1073.2790939727499</v>
-      </c>
-      <c r="G30" s="38">
-        <f t="shared" si="14"/>
-        <v>908.59002410247399</v>
-      </c>
-      <c r="H30" s="38">
-        <f t="shared" si="15"/>
-        <v>564.66900400892791</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="P30" t="str">
-        <f>P25</f>
-        <v>100% Pass-through</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="E31" s="84">
-        <f t="shared" si="12"/>
-        <v>1149.8333341942016</v>
-      </c>
-      <c r="F31" s="38">
-        <f t="shared" si="13"/>
-        <v>989.33111266356741</v>
-      </c>
-      <c r="G31" s="38">
-        <f t="shared" si="14"/>
-        <v>783.59736795471213</v>
-      </c>
-      <c r="H31" s="38">
-        <f t="shared" si="15"/>
-        <v>191.44656676437432</v>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-    </row>
-    <row r="32" spans="2:20" ht="10" customHeight="1">
-      <c r="C32" s="73"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
+    <row r="32" spans="2:21" ht="10" customHeight="1">
+      <c r="C32" s="71"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
+      <c r="I32" s="140">
+        <f>I17/I8</f>
+        <v>3.2242540920135232E-2</v>
+      </c>
+      <c r="J32" s="140">
+        <f>J17/J8</f>
+        <v>7.9334073471308206E-2</v>
+      </c>
+      <c r="K32" s="140">
+        <f>K17/K8</f>
+        <v>0.12967736169245389</v>
+      </c>
+      <c r="L32" s="140">
+        <f>L17/L8</f>
+        <v>0.26777270795037317</v>
+      </c>
+      <c r="M32" s="140" t="str">
+        <f>P33</f>
+        <v>80% Pass-through</v>
+      </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="73" t="str">
-        <f>C14</f>
-        <v>[000 ton CO2]</v>
-      </c>
-      <c r="D33" s="83">
-        <f t="shared" si="16"/>
-        <v>39764.703681774801</v>
-      </c>
-      <c r="E33" s="84">
-        <f t="shared" si="12"/>
-        <v>36981.840347387551</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="157" t="str">
+        <f>C8</f>
+        <v>[MMUSD]</v>
+      </c>
+      <c r="D33" s="81">
+        <f>D8</f>
+        <v>12533.4043884767</v>
+      </c>
+      <c r="E33" s="82">
+        <f>I8</f>
+        <v>16551.7651990991</v>
       </c>
       <c r="F33" s="38">
-        <f t="shared" si="13"/>
-        <v>31515.300720462106</v>
+        <f>J8</f>
+        <v>15267.229362032302</v>
       </c>
       <c r="G33" s="38">
-        <f t="shared" si="14"/>
-        <v>26752.690810328389</v>
+        <f>K8</f>
+        <v>13936.6109307757</v>
       </c>
       <c r="H33" s="38">
-        <f t="shared" si="15"/>
-        <v>17134.046600581518</v>
+        <f>L8</f>
+        <v>10626.200748161</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="P33" t="str">
-        <f>P27</f>
-        <v>80% Pass-through</v>
+      <c r="P33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="73" t="str">
-        <f>C27</f>
-        <v>[MMUSD]</v>
-      </c>
-      <c r="D34" s="83">
-        <f t="shared" si="16"/>
-        <v>1431.5293325438927</v>
-      </c>
-      <c r="E34" s="84">
-        <f t="shared" si="12"/>
-        <v>1331.3462525059517</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="158"/>
+      <c r="D34" s="81">
+        <f>D9</f>
+        <v>6143.604256374444</v>
+      </c>
+      <c r="E34" s="82">
+        <f>I9</f>
+        <v>8184.3462561460447</v>
       </c>
       <c r="F34" s="38">
-        <f t="shared" si="13"/>
-        <v>1134.5508259366356</v>
+        <f>J9</f>
+        <v>7729.0520125972562</v>
       </c>
       <c r="G34" s="38">
-        <f t="shared" si="14"/>
-        <v>963.09686917182194</v>
+        <f>K9</f>
+        <v>7193.453879681394</v>
       </c>
       <c r="H34" s="38">
-        <f t="shared" si="15"/>
-        <v>616.8256776209347</v>
+        <f>L9</f>
+        <v>5510.9879399218362</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
@@ -39106,9 +39449,9 @@
       <c r="L34" s="38"/>
     </row>
     <row r="35" spans="2:19" ht="10" customHeight="1">
-      <c r="C35" s="73"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -39118,307 +39461,469 @@
       <c r="L35" s="39"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="77" t="str">
-        <f>C17</f>
-        <v>[MMUSD]</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="86">
-        <f t="shared" si="12"/>
-        <v>533.67096673242304</v>
-      </c>
-      <c r="F36" s="87">
-        <f t="shared" si="13"/>
-        <v>1211.2114959107846</v>
-      </c>
-      <c r="G36" s="87">
-        <f t="shared" si="14"/>
-        <v>1807.2629364372069</v>
-      </c>
-      <c r="H36" s="87">
-        <f t="shared" si="15"/>
-        <v>2845.4065495593522</v>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="158"/>
+      <c r="D36" s="81" t="str">
+        <f>D11</f>
+        <v>-</v>
+      </c>
+      <c r="E36" s="82">
+        <f>I11</f>
+        <v>1261.27336335108</v>
+      </c>
+      <c r="F36" s="38">
+        <f>J11</f>
+        <v>1073.2790939727499</v>
+      </c>
+      <c r="G36" s="38">
+        <f>K11</f>
+        <v>908.59002410247399</v>
+      </c>
+      <c r="H36" s="38">
+        <f>L11</f>
+        <v>564.66900400892791</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-    </row>
-    <row r="37" spans="2:19" ht="10" customHeight="1">
-      <c r="C37" s="73"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" t="s">
+      <c r="P36" t="str">
+        <f>P31</f>
+        <v>100% Pass-through</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="159"/>
+      <c r="D37" s="76" t="str">
+        <f>D12</f>
+        <v>-</v>
+      </c>
+      <c r="E37" s="82">
+        <f>I12</f>
+        <v>1149.8333341942016</v>
+      </c>
+      <c r="F37" s="38">
+        <f>J12</f>
+        <v>989.33111266356741</v>
+      </c>
+      <c r="G37" s="38">
+        <f>K12</f>
+        <v>783.59736795471213</v>
+      </c>
+      <c r="H37" s="38">
+        <f>L12</f>
+        <v>191.44656676437432</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+    </row>
+    <row r="38" spans="2:19" ht="10" customHeight="1">
+      <c r="C38" s="71"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="71" t="str">
+        <f>C14</f>
+        <v>[000 ton CO2]</v>
+      </c>
+      <c r="D39" s="81">
+        <f>D14</f>
+        <v>39764.703681774801</v>
+      </c>
+      <c r="E39" s="82">
+        <f>I14</f>
+        <v>36981.840347387551</v>
+      </c>
+      <c r="F39" s="38">
+        <f>J14</f>
+        <v>31515.300720462106</v>
+      </c>
+      <c r="G39" s="38">
+        <f>K14</f>
+        <v>26752.690810328389</v>
+      </c>
+      <c r="H39" s="38">
+        <f>L14</f>
+        <v>17134.046600581518</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="P39" t="str">
+        <f>P33</f>
+        <v>80% Pass-through</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="71" t="str">
+        <f>C33</f>
+        <v>[MMUSD]</v>
+      </c>
+      <c r="D40" s="81">
+        <f>D15</f>
+        <v>1431.5293325438927</v>
+      </c>
+      <c r="E40" s="82">
+        <f>I15</f>
+        <v>1331.3462525059517</v>
+      </c>
+      <c r="F40" s="38">
+        <f>J15</f>
+        <v>1134.5508259366356</v>
+      </c>
+      <c r="G40" s="38">
+        <f>K15</f>
+        <v>963.09686917182194</v>
+      </c>
+      <c r="H40" s="38">
+        <f>L15</f>
+        <v>616.8256776209347</v>
+      </c>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+    </row>
+    <row r="41" spans="2:19" ht="10" customHeight="1">
+      <c r="C41" s="71"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="75" t="str">
+        <f>C17</f>
+        <v>[MMUSD]</v>
+      </c>
+      <c r="D42" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="84">
+        <f>I17</f>
+        <v>533.67096673242304</v>
+      </c>
+      <c r="F42" s="85">
+        <f>J17</f>
+        <v>1211.2114959107846</v>
+      </c>
+      <c r="G42" s="85">
+        <f>K17</f>
+        <v>1807.2629364372069</v>
+      </c>
+      <c r="H42" s="85">
+        <f>L17</f>
+        <v>2845.4065495593522</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+    </row>
+    <row r="43" spans="2:19" ht="10" customHeight="1">
+      <c r="C43" s="71"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="73" t="str">
+      <c r="C44" s="71" t="str">
         <f>C19</f>
         <v>[TWh/year]</v>
       </c>
-      <c r="D38" s="83">
-        <f t="shared" si="16"/>
+      <c r="D44" s="81">
+        <f>D19</f>
         <v>158.74223539999963</v>
       </c>
-      <c r="E38" s="84">
-        <f t="shared" si="12"/>
+      <c r="E44" s="82">
+        <f>I19</f>
         <v>154.855341286124</v>
       </c>
-      <c r="F38" s="38">
-        <f t="shared" si="13"/>
+      <c r="F44" s="38">
+        <f>J19</f>
         <v>148.24490672307249</v>
       </c>
-      <c r="G38" s="38">
-        <f t="shared" si="14"/>
+      <c r="G44" s="38">
+        <f>K19</f>
         <v>142.22627313400702</v>
       </c>
-      <c r="H38" s="38">
-        <f t="shared" si="15"/>
+      <c r="H44" s="38">
+        <f>L19</f>
         <v>127.10018733926199</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="N40">
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="N46">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="O40">
-        <f t="shared" ref="O40:Q40" si="17">J4</f>
+      <c r="O46">
+        <f t="shared" ref="O46:Q46" si="16">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="17"/>
+      <c r="P46">
+        <f t="shared" si="16"/>
         <v>-0.5</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="17"/>
+      <c r="Q46">
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
-      <c r="M41" t="s">
+    <row r="47" spans="2:19">
+      <c r="M47" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N47" s="49">
         <f>E17</f>
         <v>1622.2940053848181</v>
       </c>
-      <c r="O41" s="49">
-        <f t="shared" ref="O41:Q41" si="18">F17</f>
+      <c r="O47" s="49">
+        <f t="shared" ref="O47:Q47" si="17">F17</f>
         <v>2156.658527783798</v>
       </c>
-      <c r="P41" s="49">
-        <f t="shared" si="18"/>
+      <c r="P47" s="49">
+        <f t="shared" si="17"/>
         <v>2562.9692672116553</v>
       </c>
-      <c r="Q41" s="49">
-        <f t="shared" si="18"/>
+      <c r="Q47" s="49">
+        <f t="shared" si="17"/>
         <v>3221.149453615159</v>
       </c>
-      <c r="S41" s="22">
-        <f>(N41-N44)/N41</f>
+      <c r="S47" s="22">
+        <f>(N47-N50)/N47</f>
         <v>0.8192275480223784</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
-      <c r="M42" t="s">
+    <row r="48" spans="2:19">
+      <c r="M48" t="s">
         <v>144</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N48" s="49">
         <f>I17</f>
         <v>533.67096673242304</v>
       </c>
-      <c r="O42" s="49">
-        <f t="shared" ref="O42:Q42" si="19">J17</f>
+      <c r="O48" s="49">
+        <f t="shared" ref="O48:Q48" si="18">J17</f>
         <v>1211.2114959107846</v>
       </c>
-      <c r="P42" s="49">
-        <f t="shared" si="19"/>
+      <c r="P48" s="49">
+        <f t="shared" si="18"/>
         <v>1807.2629364372069</v>
       </c>
-      <c r="Q42" s="49">
-        <f t="shared" si="19"/>
+      <c r="Q48" s="49">
+        <f t="shared" si="18"/>
         <v>2845.4065495593522</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
-      <c r="M43" t="s">
+    <row r="49" spans="13:17">
+      <c r="M49" t="s">
         <v>145</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N49" s="49">
         <f>M17</f>
         <v>396.18024590023037</v>
       </c>
-      <c r="O43" s="49">
-        <f t="shared" ref="O43:Q43" si="20">N17</f>
+      <c r="O49" s="49">
+        <f t="shared" ref="O49:Q49" si="19">N17</f>
         <v>1097.8466763323818</v>
       </c>
-      <c r="P43" s="49">
-        <f t="shared" si="20"/>
+      <c r="P49" s="49">
+        <f t="shared" si="19"/>
         <v>1738.8291561684871</v>
       </c>
-      <c r="Q43" s="49">
-        <f t="shared" si="20"/>
+      <c r="Q49" s="49">
+        <f t="shared" si="19"/>
         <v>2711.9318508465071</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
-      <c r="M44" t="s">
+    <row r="50" spans="13:17">
+      <c r="M50" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N50" s="49">
         <f>Q17</f>
         <v>293.26606518201027</v>
       </c>
-      <c r="O44" s="49">
+      <c r="O50" s="49">
         <f>R17</f>
         <v>1036.7501976761312</v>
       </c>
-      <c r="P44" s="49">
+      <c r="P50" s="49">
         <f>S17</f>
         <v>1658.7728310642774</v>
       </c>
-      <c r="Q44" s="49">
+      <c r="Q50" s="49">
         <f>T17</f>
         <v>2673.7858815040213</v>
       </c>
     </row>
-    <row r="47" spans="2:19">
-      <c r="N47">
-        <f t="shared" ref="N47:Q47" si="21">N40</f>
+    <row r="53" spans="13:17">
+      <c r="N53">
+        <f t="shared" ref="N53:Q53" si="20">N46</f>
         <v>-0.1</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="21"/>
+      <c r="O53">
+        <f t="shared" si="20"/>
         <v>-0.3</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="21"/>
+      <c r="P53">
+        <f t="shared" si="20"/>
         <v>-0.5</v>
       </c>
-      <c r="Q47">
-        <f t="shared" si="21"/>
+      <c r="Q53">
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:19">
-      <c r="M48" t="str">
-        <f t="shared" ref="M48:Q48" si="22">M41</f>
+    <row r="54" spans="13:17">
+      <c r="M54" t="str">
+        <f t="shared" ref="M54" si="21">M47</f>
         <v>Exchange Elasticity = 0</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N54" s="21">
         <f>E17/E8</f>
         <v>0.10348086719331195</v>
       </c>
-      <c r="O48" s="21">
-        <f t="shared" ref="O48:Q48" si="23">F17/F8</f>
+      <c r="O54" s="21">
+        <f t="shared" ref="O54:Q54" si="22">F17/F8</f>
         <v>0.14826048037823009</v>
       </c>
-      <c r="P48" s="21">
-        <f t="shared" si="23"/>
+      <c r="P54" s="21">
+        <f t="shared" si="22"/>
         <v>0.18976664914160757</v>
       </c>
-      <c r="Q48" s="21">
-        <f t="shared" si="23"/>
+      <c r="Q54" s="21">
+        <f t="shared" si="22"/>
         <v>0.30367387109992938</v>
       </c>
     </row>
-    <row r="49" spans="13:17">
-      <c r="M49" t="str">
-        <f t="shared" ref="M49:Q49" si="24">M42</f>
+    <row r="55" spans="13:17">
+      <c r="M55" t="str">
+        <f t="shared" ref="M55" si="23">M48</f>
         <v>Exch. Elast. = -0.1</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N55" s="21">
         <f>I17/I8</f>
         <v>3.2242540920135232E-2</v>
       </c>
-      <c r="O49" s="21">
-        <f t="shared" ref="O49:Q49" si="25">J17/J8</f>
+      <c r="O55" s="21">
+        <f t="shared" ref="O55:Q55" si="24">J17/J8</f>
         <v>7.9334073471308206E-2</v>
       </c>
-      <c r="P49" s="22">
-        <f t="shared" si="25"/>
+      <c r="P55" s="22">
+        <f t="shared" si="24"/>
         <v>0.12967736169245389</v>
       </c>
-      <c r="Q49" s="21">
-        <f t="shared" si="25"/>
+      <c r="Q55" s="21">
+        <f t="shared" si="24"/>
         <v>0.26777270795037317</v>
       </c>
     </row>
-    <row r="50" spans="13:17">
-      <c r="M50" t="str">
-        <f t="shared" ref="M50:Q51" si="26">M43</f>
+    <row r="56" spans="13:17">
+      <c r="M56" t="str">
+        <f t="shared" ref="M56" si="25">M49</f>
         <v>Exch. Elast. = -0.3</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N56" s="21">
         <f>M17/M8</f>
         <v>2.434129556311003E-2</v>
       </c>
-      <c r="O50" s="21">
-        <f t="shared" ref="O50:Q50" si="27">N17/N8</f>
+      <c r="O56" s="21">
+        <f t="shared" ref="O56:Q56" si="26">N17/N8</f>
         <v>7.3621120108673027E-2</v>
       </c>
-      <c r="P50" s="22">
-        <f t="shared" si="27"/>
+      <c r="P56" s="22">
+        <f t="shared" si="26"/>
         <v>0.12974521938152603</v>
       </c>
-      <c r="Q50" s="21">
-        <f t="shared" si="27"/>
+      <c r="Q56" s="21">
+        <f t="shared" si="26"/>
         <v>0.27397194086700549</v>
       </c>
     </row>
-    <row r="51" spans="13:17">
-      <c r="M51" t="str">
-        <f>M44</f>
+    <row r="57" spans="13:17">
+      <c r="M57" t="str">
+        <f>M50</f>
         <v>Exch. Elast. = -0.5</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N57" s="21">
         <f>Q17/Q8</f>
         <v>1.8456469033495619E-2</v>
       </c>
-      <c r="O51" s="21">
-        <f t="shared" ref="O51:Q51" si="28">R17/R8</f>
+      <c r="O57" s="21">
+        <f t="shared" ref="O57:Q57" si="27">R17/R8</f>
         <v>7.2162005130907411E-2</v>
       </c>
-      <c r="P51" s="22">
-        <f t="shared" si="28"/>
+      <c r="P57" s="22">
+        <f t="shared" si="27"/>
         <v>0.13008459767001068</v>
       </c>
-      <c r="Q51" s="21">
-        <f t="shared" si="28"/>
+      <c r="Q57" s="21">
+        <f t="shared" si="27"/>
         <v>0.30266221786987085</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C33:C37"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C22:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I24" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -39466,7 +39971,7 @@
         <f>E3/2</f>
         <v>158742235.39999962</v>
       </c>
-      <c r="O3" s="113"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -39483,7 +39988,7 @@
         <f>F42/2</f>
         <v>19882.351840887401</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -39492,7 +39997,7 @@
       <c r="C5">
         <v>52367759.224343598</v>
       </c>
-      <c r="O5" s="113"/>
+      <c r="O5" s="111"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -39512,7 +40017,7 @@
         <f>G4-H6</f>
         <v>-11228.041361112599</v>
       </c>
-      <c r="O6" s="113"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -39525,7 +40030,7 @@
         <f>J6/H6</f>
         <v>-0.36090965768927602</v>
       </c>
-      <c r="O7" s="113"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -39534,7 +40039,7 @@
       <c r="C8">
         <v>297678605.54315799</v>
       </c>
-      <c r="O8" s="113"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -39543,7 +40048,7 @@
       <c r="C9">
         <v>7702168.4569703899</v>
       </c>
-      <c r="O9" s="113"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -39552,7 +40057,7 @@
       <c r="C10">
         <v>386257400.58314103</v>
       </c>
-      <c r="O10" s="113"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -39568,7 +40073,7 @@
         <f>(H12-H11)/H11</f>
         <v>0.17292016285616402</v>
       </c>
-      <c r="O11" s="113"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -39580,7 +40085,7 @@
       <c r="H12" s="1">
         <v>42.141114695835299</v>
       </c>
-      <c r="O12" s="113"/>
+      <c r="O12" s="111"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -39589,7 +40094,7 @@
       <c r="C13">
         <v>82334154.495839998</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -39598,7 +40103,7 @@
       <c r="C14">
         <v>4128989994.4986501</v>
       </c>
-      <c r="O14" s="113"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -39607,7 +40112,7 @@
       <c r="C15">
         <v>104587743.620995</v>
       </c>
-      <c r="O15" s="113"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -39616,7 +40121,7 @@
       <c r="C16">
         <v>634839897.48200595</v>
       </c>
-      <c r="O16" s="113"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
@@ -39625,7 +40130,7 @@
       <c r="C17">
         <v>80734303.410982803</v>
       </c>
-      <c r="O17" s="113"/>
+      <c r="O17" s="111"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
@@ -39638,7 +40143,7 @@
         <f>G19*1000000</f>
         <v>75098123.360039607</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="111"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -39651,7 +40156,7 @@
         <f>G20-F20</f>
         <v>75.098123360039608</v>
       </c>
-      <c r="O19" s="113"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -39668,7 +40173,7 @@
         <f>G37-G30-G39</f>
         <v>6464.8982554622953</v>
       </c>
-      <c r="O20" s="113"/>
+      <c r="O20" s="111"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -39677,7 +40182,7 @@
       <c r="C21">
         <v>12533404388.4767</v>
       </c>
-      <c r="O21" s="113"/>
+      <c r="O21" s="111"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -39690,7 +40195,7 @@
         <f>G28-F28</f>
         <v>12.016047516629982</v>
       </c>
-      <c r="O22" s="113"/>
+      <c r="O22" s="111"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -39699,7 +40204,7 @@
       <c r="C23">
         <v>1073279093.9727499</v>
       </c>
-      <c r="O23" s="113"/>
+      <c r="O23" s="111"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -39723,14 +40228,14 @@
         <v>73351427.858008191</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -39739,10 +40244,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -39759,11 +40264,11 @@
         <f>G37*C28/$E$4</f>
         <v>51.493267794191759</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -39775,9 +40280,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -39791,9 +40296,9 @@
         <f>SUM(G31:G34)</f>
         <v>7729.0520125972562</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="115">
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="113">
         <f>(G30-F30)*1000000/E3</f>
         <v>4.993780490200959</v>
       </c>
@@ -39817,11 +40322,11 @@
         <f>C10/C28</f>
         <v>386.25740058314102</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="116">
+      <c r="I31" s="145"/>
+      <c r="J31" s="114">
         <f>(G31-F31)*1000000/C7</f>
         <v>11.500500869962156</v>
       </c>
@@ -39849,9 +40354,9 @@
         <f>C14/C28</f>
         <v>4128.98999449865</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="116">
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
         <v>11.500500869962076</v>
       </c>
@@ -39879,9 +40384,9 @@
         <f>C6/C28</f>
         <v>2632.7335550707598</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="116">
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
         <v>11.501183091491859</v>
       </c>
@@ -39909,9 +40414,9 @@
         <f>C18/C28</f>
         <v>581.07106244470594</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="114">
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
         <v>-0.51410263933169376</v>
       </c>
@@ -39925,8 +40430,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -39940,8 +40445,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -39974,8 +40479,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -40014,8 +40519,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -40030,10 +40535,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>31515.300720462106</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.21812309639263694</v>
@@ -40385,14 +40890,14 @@
         <v>73021755.007397637</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -40401,10 +40906,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -40421,11 +40926,11 @@
         <f>G37*C28/$E$4</f>
         <v>48.994502294398472</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -40437,9 +40942,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -40453,8 +40958,8 @@
         <f>SUM(G31:G34)</f>
         <v>7193.453879681394</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>3.3067747240094381</v>
@@ -40479,10 +40984,10 @@
         <f>C10/C28</f>
         <v>364.58143016867797</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>8.6862323252581639</v>
@@ -40511,8 +41016,8 @@
         <f>C14/C28</f>
         <v>3897.2795733462099</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>8.6862323252580982</v>
@@ -40541,8 +41046,8 @@
         <f>C6/C28</f>
         <v>2484.9899660443302</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>8.6867476014174212</v>
@@ -40571,8 +41076,8 @@
         <f>C18/C28</f>
         <v>446.60291012217601</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-1.7997996786503307</v>
@@ -40587,8 +41092,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -40602,8 +41107,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -40636,8 +41141,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -40676,8 +41181,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -40692,10 +41197,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>26752.690810328389</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.11195733408148212</v>
@@ -41035,14 +41540,14 @@
         <v>72907224.234622598</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -41051,10 +41556,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -41071,11 +41576,11 @@
         <f>G37*C28/$E$4</f>
         <v>41.802459030988793</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -41087,9 +41592,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -41103,8 +41608,8 @@
         <f>SUM(G31:G34)</f>
         <v>5510.9879399218362</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>-1.992589794576527</v>
@@ -41129,10 +41634,10 @@
         <f>C10/C28</f>
         <v>285.22074335446399</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>-1.617448678030371</v>
@@ -41161,8 +41666,8 @@
         <f>C14/C28</f>
         <v>3048.93470974512</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>-1.6174486780362667</v>
@@ -41191,8 +41696,8 @@
         <f>C6/C28</f>
         <v>1944.0668851483802</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>-1.6175446274767111</v>
@@ -41221,8 +41726,8 @@
         <f>C18/C28</f>
         <v>232.765601673872</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-3.8443729818397325</v>
@@ -41237,8 +41742,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -41252,8 +41757,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -41286,8 +41791,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -41326,8 +41831,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -41342,10 +41847,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>17134.046600581518</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>-0.15216964052234652</v>
@@ -41451,7 +41956,7 @@
         <f>E3/2</f>
         <v>158742235.39999962</v>
       </c>
-      <c r="O3" s="113"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -41468,7 +41973,7 @@
         <f>F42/2</f>
         <v>19882.351840887401</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -41477,7 +41982,7 @@
       <c r="C5">
         <v>52376520.3199303</v>
       </c>
-      <c r="O5" s="113"/>
+      <c r="O5" s="111"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -41497,7 +42002,7 @@
         <f>G4-H6</f>
         <v>-11228.041361112599</v>
       </c>
-      <c r="O6" s="113"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -41510,7 +42015,7 @@
         <f>J6/H6</f>
         <v>-0.36090965768927602</v>
       </c>
-      <c r="O7" s="113"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -41519,7 +42024,7 @@
       <c r="C8">
         <v>297678605.54315799</v>
       </c>
-      <c r="O8" s="113"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -41528,7 +42033,7 @@
       <c r="C9">
         <v>7702168.4569703899</v>
       </c>
-      <c r="O9" s="113"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -41537,7 +42042,7 @@
       <c r="C10">
         <v>394649575.30335498</v>
       </c>
-      <c r="O10" s="113"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -41553,7 +42058,7 @@
         <f>(H12-H11)/H11</f>
         <v>0.17292016285616402</v>
       </c>
-      <c r="O11" s="113"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -41565,7 +42070,7 @@
       <c r="H12" s="1">
         <v>42.141114695835299</v>
       </c>
-      <c r="O12" s="113"/>
+      <c r="O12" s="111"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -41574,7 +42079,7 @@
       <c r="C13">
         <v>82334154.495839998</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -41583,7 +42088,7 @@
       <c r="C14">
         <v>4218700134.4196801</v>
       </c>
-      <c r="O14" s="113"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -41592,7 +42097,7 @@
       <c r="C15">
         <v>104587743.620995</v>
       </c>
-      <c r="O15" s="113"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -41601,7 +42106,7 @@
       <c r="C16">
         <v>634839897.48200595</v>
       </c>
-      <c r="O16" s="113"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
@@ -41610,7 +42115,7 @@
       <c r="C17">
         <v>87210157.688171297</v>
       </c>
-      <c r="O17" s="113"/>
+      <c r="O17" s="111"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
@@ -41623,7 +42128,7 @@
         <f>G19*1000000</f>
         <v>733400230.04153955</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="111"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -41636,7 +42141,7 @@
         <f>G20-F20</f>
         <v>733.40023004153954</v>
       </c>
-      <c r="O19" s="113"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -41653,7 +42158,7 @@
         <f>G37-G30-G39</f>
         <v>7123.2003621437952</v>
       </c>
-      <c r="O20" s="113"/>
+      <c r="O20" s="111"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -41662,7 +42167,7 @@
       <c r="C21">
         <v>12533404388.4767</v>
       </c>
-      <c r="O21" s="113"/>
+      <c r="O21" s="111"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -41675,7 +42180,7 @@
         <f>G28-F28</f>
         <v>13.033605667669896</v>
       </c>
-      <c r="O22" s="113"/>
+      <c r="O22" s="111"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -41684,7 +42189,7 @@
       <c r="C23">
         <v>1170522812.7130401</v>
       </c>
-      <c r="O23" s="113"/>
+      <c r="O23" s="111"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -41708,14 +42213,14 @@
         <v>80333163.462540001</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -41724,10 +42229,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -41744,11 +42249,11 @@
         <f>G37*C28/$E$4</f>
         <v>52.510825945231673</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -41760,9 +42265,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -41776,9 +42281,9 @@
         <f>SUM(G31:G34)</f>
         <v>7982.3310258346646</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="115">
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="113">
         <f>(G30-F30)*1000000/E3</f>
         <v>5.7915486852852549</v>
       </c>
@@ -41802,11 +42307,11 @@
         <f>C10/C28</f>
         <v>394.64957530335499</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="116">
+      <c r="I31" s="145"/>
+      <c r="J31" s="114">
         <f>(G31-F31)*1000000/C7</f>
         <v>12.590086843976934</v>
       </c>
@@ -41834,9 +42339,9 @@
         <f>C14/C28</f>
         <v>4218.7001344196797</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="116">
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
         <v>12.590086843976813</v>
       </c>
@@ -41864,9 +42369,9 @@
         <f>C6/C28</f>
         <v>2689.9346855930798</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="116">
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
         <v>12.590833700870235</v>
       </c>
@@ -41894,9 +42399,9 @@
         <f>C18/C28</f>
         <v>679.04663051855005</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="114">
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
         <v>0.4226760374211761</v>
       </c>
@@ -41910,8 +42415,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -41925,8 +42430,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -41959,8 +42464,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -41999,8 +42504,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -42015,10 +42520,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>38196.104424497542</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.29861398357622765</v>
@@ -42136,7 +42641,7 @@
         <f>E3/2</f>
         <v>158742235.39999962</v>
       </c>
-      <c r="O3" s="113"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -42153,7 +42658,7 @@
         <f>F42/2</f>
         <v>19882.351840887401</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -42162,7 +42667,7 @@
       <c r="C5">
         <v>52081383.8269215</v>
       </c>
-      <c r="O5" s="113"/>
+      <c r="O5" s="111"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -42182,7 +42687,7 @@
         <f>G4-H6</f>
         <v>-11228.041361112599</v>
       </c>
-      <c r="O6" s="113"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -42195,7 +42700,7 @@
         <f>J6/H6</f>
         <v>-0.36090965768927602</v>
       </c>
-      <c r="O7" s="113"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -42204,7 +42709,7 @@
       <c r="C8">
         <v>297678605.54315799</v>
       </c>
-      <c r="O8" s="113"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -42213,7 +42718,7 @@
       <c r="C9">
         <v>7702168.4569703899</v>
       </c>
-      <c r="O9" s="113"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -42222,7 +42727,7 @@
       <c r="C10">
         <v>374910369.73230302</v>
       </c>
-      <c r="O10" s="113"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -42238,7 +42743,7 @@
         <f>(H12-H11)/H11</f>
         <v>0.17292016285616402</v>
       </c>
-      <c r="O11" s="113"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -42250,7 +42755,7 @@
       <c r="H12" s="1">
         <v>42.141114695835299</v>
       </c>
-      <c r="O12" s="113"/>
+      <c r="O12" s="111"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -42259,7 +42764,7 @@
       <c r="C13">
         <v>82334154.495839998</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -42268,7 +42773,7 @@
       <c r="C14">
         <v>4007693219.9134998</v>
       </c>
-      <c r="O14" s="113"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -42277,7 +42782,7 @@
       <c r="C15">
         <v>104587743.620995</v>
       </c>
-      <c r="O15" s="113"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -42286,7 +42791,7 @@
       <c r="C16">
         <v>634839897.48200595</v>
       </c>
-      <c r="O16" s="113"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
@@ -42295,7 +42800,7 @@
       <c r="C17">
         <v>75469544.218798906</v>
       </c>
-      <c r="O17" s="113"/>
+      <c r="O17" s="111"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
@@ -42308,7 +42813,7 @@
         <f>G19*1000000</f>
         <v>40714833.285622261</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="111"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -42321,7 +42826,7 @@
         <f>G20-F20</f>
         <v>40.714833285622262</v>
       </c>
-      <c r="O19" s="113"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -42338,7 +42843,7 @@
         <f>G37-G30-G39</f>
         <v>6430.514965387878</v>
       </c>
-      <c r="O20" s="113"/>
+      <c r="O20" s="111"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -42347,7 +42852,7 @@
       <c r="C21">
         <v>12533404388.4767</v>
       </c>
-      <c r="O21" s="113"/>
+      <c r="O21" s="111"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -42360,7 +42865,7 @@
         <f>G28-F28</f>
         <v>10.770366620133579</v>
       </c>
-      <c r="O22" s="113"/>
+      <c r="O22" s="111"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -42369,7 +42874,7 @@
       <c r="C23">
         <v>998749423.57850206</v>
       </c>
-      <c r="O23" s="113"/>
+      <c r="O23" s="111"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -42393,14 +42898,14 @@
         <v>79185526.135904223</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -42409,10 +42914,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -42429,11 +42934,11 @@
         <f>G37*C28/$E$4</f>
         <v>50.247586897695356</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -42445,9 +42950,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -42461,9 +42966,9 @@
         <f>SUM(G31:G34)</f>
         <v>7482.8515189665195</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="115">
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="113">
         <f>(G30-F30)*1000000/E3</f>
         <v>4.2183079355580206</v>
       </c>
@@ -42487,11 +42992,11 @@
         <f>C10/C28</f>
         <v>374.91036973230302</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="116">
+      <c r="I31" s="145"/>
+      <c r="J31" s="114">
         <f>(G31-F31)*1000000/C7</f>
         <v>10.027275386225945</v>
       </c>
@@ -42519,9 +43024,9 @@
         <f>C14/C28</f>
         <v>4007.6932199134999</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="116">
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
         <v>10.027275386225812</v>
       </c>
@@ -42549,9 +43054,9 @@
         <f>C6/C28</f>
         <v>2555.39210134729</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="116">
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
         <v>10.02787021444821</v>
       </c>
@@ -42579,9 +43084,9 @@
         <f>C18/C28</f>
         <v>544.85582797342602</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="114">
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
         <v>-0.86036916366284943</v>
       </c>
@@ -42595,8 +43100,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -42610,8 +43115,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -42644,8 +43149,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -42684,8 +43189,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -42700,10 +43205,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>32770.468116800148</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.18978973674887595</v>
@@ -43055,14 +43560,14 @@
         <v>78371225.625147521</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -43071,10 +43576,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -43091,11 +43596,11 @@
         <f>G37*C28/$E$4</f>
         <v>47.168773260575492</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -43107,9 +43612,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -43123,8 +43628,8 @@
         <f>SUM(G31:G34)</f>
         <v>6850.3747317443267</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>2.226157624620059</v>
@@ -43149,10 +43654,10 @@
         <f>C10/C28</f>
         <v>347.621528728626</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>6.4842678350238057</v>
@@ -43181,8 +43686,8 @@
         <f>C14/C28</f>
         <v>3715.9826888129001</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>6.4842678350237319</v>
@@ -43211,8 +43716,8 @@
         <f>C6/C28</f>
         <v>2369.3911411486001</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>6.4846524882464358</v>
@@ -43241,8 +43746,8 @@
         <f>C18/C28</f>
         <v>417.37937305420002</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-2.0792161385165677</v>
@@ -43257,8 +43762,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -43272,8 +43777,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -43306,8 +43811,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -43346,8 +43851,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -43362,10 +43867,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>27921.750485729426</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>6.9292440768493654E-2</v>
@@ -43705,14 +44210,14 @@
         <v>78078340.949978679</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -43721,10 +44226,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -43741,11 +44246,11 @@
         <f>G37*C28/$E$4</f>
         <v>39.092088610403593</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -43757,9 +44262,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -43773,8 +44278,8 @@
         <f>SUM(G31:G34)</f>
         <v>4979.1550339148644</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>-3.6677359983163704</v>
@@ -43799,10 +44304,10 @@
         <f>C10/C28</f>
         <v>257.55959839255399</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>-5.2087937799252702</v>
@@ -43831,8 +44336,8 @@
         <f>C14/C28</f>
         <v>2753.2443472775403</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>-5.2087937799346502</v>
@@ -43861,8 +44366,8 @@
         <f>C6/C28</f>
         <v>1755.5282981538501</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>-5.2091027721145036</v>
@@ -43891,8 +44396,8 @@
         <f>C18/C28</f>
         <v>212.82279009091999</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-4.0350531790836923</v>
@@ -43907,8 +44412,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -43922,8 +44427,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -43956,8 +44461,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -43996,8 +44501,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -44012,10 +44517,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>18894.654189590285</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>-0.21022454377845093</v>
@@ -44355,14 +44860,14 @@
         <v>86566215.316638306</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -44371,10 +44876,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -44391,11 +44896,11 @@
         <f>G37*C28/$E$4</f>
         <v>51.235865079599328</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -44407,9 +44912,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -44423,8 +44928,8 @@
         <f>SUM(G31:G34)</f>
         <v>7725.8460821446679</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>4.9836825775549958</v>
@@ -44449,10 +44954,10 @@
         <f>C10/C28</f>
         <v>383.13688780211004</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>11.09535356651582</v>
@@ -44481,8 +44986,8 @@
         <f>C14/C28</f>
         <v>4095.63253382313</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>11.095353566515783</v>
@@ -44511,8 +45016,8 @@
         <f>C6/C28</f>
         <v>2611.4641148053497</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>11.096011754234848</v>
@@ -44541,8 +45046,8 @@
         <f>C18/C28</f>
         <v>635.6125457140779</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>7.3875600077177653E-3</v>
@@ -44557,8 +45062,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -44572,8 +45077,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -44606,8 +45111,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -44646,8 +45151,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -44662,10 +45167,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>39457.863108776975</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.26778071593983821</v>
@@ -45005,14 +45510,14 @@
         <v>84926062.529606923</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -45021,10 +45526,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -45041,11 +45546,11 @@
         <f>G37*C28/$E$4</f>
         <v>48.43784454117241</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -45057,9 +45562,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -45073,8 +45578,8 @@
         <f>SUM(G31:G34)</f>
         <v>7143.4201146550768</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>3.1491803544321106</v>
@@ -45099,10 +45604,10 @@
         <f>C10/C28</f>
         <v>358.12144049687203</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>7.8475088270776343</v>
@@ -45131,8 +45636,8 @@
         <f>C14/C28</f>
         <v>3828.2239832677201</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>7.8475088270775357</v>
@@ -45161,8 +45666,8 @@
         <f>C6/C28</f>
         <v>2440.9586243758704</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>7.8479743491638949</v>
@@ -45191,8 +45696,8 @@
         <f>C18/C28</f>
         <v>516.11606651461398</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-1.135160075712345</v>
@@ -45207,8 +45712,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -45222,8 +45727,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -45256,8 +45761,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -45296,8 +45801,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -45312,10 +45817,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>34063.741416933684</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.14629522222297436</v>
@@ -45655,14 +46160,14 @@
         <v>84232744.729091436</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -45671,10 +46176,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -45691,11 +46196,11 @@
         <f>G37*C28/$E$4</f>
         <v>44.958480644765231</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -45707,9 +46212,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -45723,8 +46228,8 @@
         <f>SUM(G31:G34)</f>
         <v>6422.1977401399809</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>0.87750271080514675</v>
@@ -45749,10 +46254,10 @@
         <f>C10/C28</f>
         <v>325.538178197891</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>3.617107676932251</v>
@@ -45781,8 +46286,8 @@
         <f>C14/C28</f>
         <v>3479.9174813917798</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>3.6171076769261878</v>
@@ -45811,8 +46316,8 @@
         <f>C6/C28</f>
         <v>2218.8708459550699</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>3.617322246977086</v>
@@ -45841,8 +46346,8 @@
         <f>C18/C28</f>
         <v>397.87123459523997</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-2.2657402739798358</v>
@@ -45857,8 +46362,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -45872,8 +46377,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -45906,8 +46411,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -45946,8 +46451,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -45962,10 +46467,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>29555.527316013759</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>1.7400585047141044E-2</v>
@@ -46031,10 +46536,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3135BE-AC02-8D49-961F-B2D9B13D952B}">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="B3:W51"/>
+  <dimension ref="B3:W52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46049,118 +46554,118 @@
   <sheetData>
     <row r="3" spans="2:23" ht="30" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="151" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="153" t="s">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="154" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="153" t="s">
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="153" t="s">
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
       <c r="U3" s="26"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="29"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="74">
+      <c r="C4" s="70"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="72">
         <v>-0.1</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="73">
         <v>-0.3</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="73">
         <v>-0.5</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="89">
         <v>-1</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="72">
         <f>E4</f>
         <v>-0.1</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="73">
         <f t="shared" ref="J4:L4" si="0">F4</f>
         <v>-0.3</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="73">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="89">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="72">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="73">
         <f t="shared" ref="N4:P4" si="1">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="O4" s="75">
+      <c r="O4" s="73">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="P4" s="91">
+      <c r="P4" s="89">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="Q4" s="74">
+      <c r="Q4" s="72">
         <f>M4</f>
         <v>-0.1</v>
       </c>
-      <c r="R4" s="75">
+      <c r="R4" s="73">
         <f t="shared" ref="R4:T4" si="2">N4</f>
         <v>-0.3</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="73">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="73">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="U4" s="26"/>
     </row>
     <row r="5" spans="2:23" ht="10" customHeight="1">
-      <c r="C5" s="143"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="79"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="79"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="77"/>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
@@ -46170,96 +46675,96 @@
       <c r="B6" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="144" t="str">
+      <c r="C6" s="142" t="str">
         <f>'0 -0.5'!H28</f>
         <v>[$/MWh]</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="78">
         <f>'0 -0.5'!F28</f>
         <v>39.477220277561777</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="79">
         <f>'0 -0.1'!$G28</f>
         <v>54.105676644261884</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="80">
         <f>'0 -0.3'!$G28</f>
         <v>52.295135047397551</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="80">
         <f>'0 -0.5'!$G28</f>
         <v>50.270947671249203</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="91">
         <f>'0 -1'!$G28</f>
         <v>42.749462639467005</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="79">
         <f>'-0.1 -0.1'!$G28</f>
         <v>53.4426680462918</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="80">
         <f>'-0.1 -0.3'!$G28</f>
         <v>51.493267794191759</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="80">
         <f>'-0.1 -0.5'!$G28</f>
         <v>48.994502294398472</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="91">
         <f>'-0.1 -1'!$G28</f>
         <v>41.802459030988793</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="79">
         <f>'-0.3 -0.1'!$G28</f>
         <v>52.510825945231673</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="80">
         <f>'-0.3 -0.3'!$G28</f>
         <v>50.247586897695356</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="80">
         <f>'-0.3 -0.5'!$G28</f>
         <v>47.168773260575492</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="91">
         <f>'-0.3 -1'!$G28</f>
         <v>39.092088610403593</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="79">
         <f>'-0.5 -0.1'!$G28</f>
         <v>51.235865079599328</v>
       </c>
-      <c r="R6" s="82">
+      <c r="R6" s="80">
         <f>'-0.5 -0.3'!$G28</f>
         <v>48.43784454117241</v>
       </c>
-      <c r="S6" s="82">
+      <c r="S6" s="80">
         <f>'-0.5 -0.5'!$G28</f>
         <v>44.958480644765231</v>
       </c>
-      <c r="T6" s="82">
+      <c r="T6" s="80">
         <f>'-0.5 -1'!$G28</f>
         <v>35.170942347565287</v>
       </c>
       <c r="U6" s="26"/>
     </row>
     <row r="7" spans="2:23" ht="10" customHeight="1">
-      <c r="C7" s="143"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="79"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="79"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="79"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="77"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
@@ -46269,15 +46774,15 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="148" t="str">
+      <c r="C8" s="157" t="str">
         <f>'0 -0.5'!H31</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="81">
         <f>'0 -0.5'!F37</f>
         <v>12533.4043884767</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="82">
         <f>'0 -0.1'!$G37</f>
         <v>15677.236279381201</v>
       </c>
@@ -46289,11 +46794,11 @@
         <f>'0 -0.5'!$G37</f>
         <v>13505.8993706482</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="92">
         <f>'0 -1'!$G37</f>
         <v>10607.2657550283</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="82">
         <f>'-0.1 -0.1'!$G37</f>
         <v>16551.7651990991</v>
       </c>
@@ -46305,11 +46810,11 @@
         <f>'-0.1 -0.5'!$G37</f>
         <v>13936.6109307757</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="92">
         <f>'-0.1 -1'!$G37</f>
         <v>10626.200748161</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="82">
         <f>'-0.3 -0.1'!$G37</f>
         <v>16276.0542006915</v>
       </c>
@@ -46321,11 +46826,11 @@
         <f>'-0.3 -0.5'!$G37</f>
         <v>13401.8745696928</v>
       </c>
-      <c r="P8" s="94">
+      <c r="P8" s="92">
         <f>'-0.3 -1'!$G37</f>
         <v>9898.5751689183508</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="82">
         <f>'-0.5 -0.1'!$G37</f>
         <v>15889.608388786501</v>
       </c>
@@ -46347,12 +46852,12 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="83">
+      <c r="C9" s="158"/>
+      <c r="D9" s="81">
         <f>'0 -0.5'!F30</f>
         <v>6143.604256374444</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="82">
         <f>'0 -0.1'!$G30</f>
         <v>8273.7792335883369</v>
       </c>
@@ -46364,11 +46869,11 @@
         <f>'0 -0.5'!$G30</f>
         <v>7358.8467543958641</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="92">
         <f>'0 -1'!$G30</f>
         <v>5737.668435824372</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="82">
         <f>'-0.1 -0.1'!$G30</f>
         <v>8184.3462561460447</v>
       </c>
@@ -46380,11 +46885,11 @@
         <f>'-0.1 -0.5'!$G30</f>
         <v>7193.453879681394</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="92">
         <f>'-0.1 -1'!$G30</f>
         <v>5510.9879399218362</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="82">
         <f>'-0.3 -0.1'!$G30</f>
         <v>7982.3310258346646</v>
       </c>
@@ -46396,11 +46901,11 @@
         <f>'-0.3 -0.5'!$G30</f>
         <v>6850.3747317443267</v>
       </c>
-      <c r="P9" s="94">
+      <c r="P9" s="92">
         <f>'-0.3 -1'!$G30</f>
         <v>4979.1550339148644</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="82">
         <f>'-0.5 -0.1'!$G30</f>
         <v>7725.8460821446679</v>
       </c>
@@ -46422,21 +46927,21 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="10" customHeight="1">
-      <c r="C10" s="149"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="79"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="79"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="77"/>
       <c r="N10" s="39"/>
       <c r="O10" s="39"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="79"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="77"/>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -46449,11 +46954,11 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <f>'0 -0.1'!$G39</f>
         <v>1309.55949683532</v>
       </c>
@@ -46465,11 +46970,11 @@
         <f>'0 -0.5'!$G39</f>
         <v>945.97308325003803</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="92">
         <f>'0 -1'!$G39</f>
         <v>586.645929081502</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="82">
         <f>'-0.1 -0.1'!$G39</f>
         <v>1261.27336335108</v>
       </c>
@@ -46481,11 +46986,11 @@
         <f>'-0.1 -0.5'!$G39</f>
         <v>908.59002410247399</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="92">
         <f>'-0.1 -1'!$G39</f>
         <v>564.66900400892791</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="82">
         <f>'-0.3 -0.1'!$G39</f>
         <v>1170.5228127130401</v>
       </c>
@@ -46497,11 +47002,11 @@
         <f>'-0.3 -0.5'!$G39</f>
         <v>840.90503534068091</v>
       </c>
-      <c r="P11" s="94">
+      <c r="P11" s="92">
         <f>'-0.3 -1'!$G39</f>
         <v>521.93956221413794</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="82">
         <f>'-0.5 -0.1'!$G39</f>
         <v>1088.043901301</v>
       </c>
@@ -46527,11 +47032,11 @@
       <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="82">
         <f>'0 -0.1'!$G40</f>
         <v>1204.4215865315409</v>
       </c>
@@ -46543,11 +47048,11 @@
         <f>'0 -0.5'!$G40</f>
         <v>888.69241881784092</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="92">
         <f>'0 -1'!$G40</f>
         <v>269.4173081729374</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="82">
         <f>'-0.1 -0.1'!$G40</f>
         <v>1149.8333341942016</v>
       </c>
@@ -46559,11 +47064,11 @@
         <f>'-0.1 -0.5'!$G40</f>
         <v>783.59736795471213</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="92">
         <f>'-0.1 -1'!$G40</f>
         <v>191.44656676437432</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="82">
         <f>'-0.3 -0.1'!$G40</f>
         <v>1073.110902679789</v>
       </c>
@@ -46575,11 +47080,11 @@
         <f>'-0.3 -0.5'!$G40</f>
         <v>633.27751161639026</v>
       </c>
-      <c r="P12" s="94">
+      <c r="P12" s="92">
         <f>'-0.3 -1'!$G40</f>
         <v>-31.709490185042359</v>
       </c>
-      <c r="Q12" s="84">
+      <c r="Q12" s="82">
         <f>'-0.5 -0.1'!$G40</f>
         <v>968.13807779266574</v>
       </c>
@@ -46598,21 +47103,21 @@
       <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:23" ht="10" customHeight="1">
-      <c r="C13" s="143"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="79"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="79"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="79"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="77"/>
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -46622,15 +47127,15 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="143" t="str">
+      <c r="C14" s="141" t="str">
         <f>'0 -0.5'!H42</f>
         <v>[000 ton CO2]</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="81">
         <f>'0 -0.5'!F42</f>
         <v>39764.703681774801</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="82">
         <f>'0 -0.1'!$G42</f>
         <v>36376.6526898702</v>
       </c>
@@ -46642,11 +47147,11 @@
         <f>'0 -0.5'!$G42</f>
         <v>26277.0300902788</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="92">
         <f>'0 -1'!$G42</f>
         <v>16295.7202522639</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="82">
         <f>'-0.1 -0.1'!$G42</f>
         <v>36981.840347387551</v>
       </c>
@@ -46658,11 +47163,11 @@
         <f>'-0.1 -0.5'!$G42</f>
         <v>26752.690810328389</v>
       </c>
-      <c r="L14" s="94">
+      <c r="L14" s="92">
         <f>'-0.1 -1'!$G42</f>
         <v>17134.046600581518</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="82">
         <f>'-0.3 -0.1'!$G42</f>
         <v>38196.104424497542</v>
       </c>
@@ -46674,11 +47179,11 @@
         <f>'-0.3 -0.5'!$G42</f>
         <v>27921.750485729426</v>
       </c>
-      <c r="P14" s="94">
+      <c r="P14" s="92">
         <f>'-0.3 -1'!$G42</f>
         <v>18894.654189590285</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="82">
         <f>'-0.5 -0.1'!$G42</f>
         <v>39457.863108776975</v>
       </c>
@@ -46700,15 +47205,15 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="143" t="str">
+      <c r="C15" s="141" t="str">
         <f>C8</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="81">
         <f>'0 -0.5'!F43</f>
         <v>1431.5293325438927</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="82">
         <f>'0 -0.1'!$G43</f>
         <v>1309.5594968353273</v>
       </c>
@@ -46720,11 +47225,11 @@
         <f>'0 -0.5'!$G43</f>
         <v>945.97308325003678</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="92">
         <f>'0 -1'!$G43</f>
         <v>586.64592908150041</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="82">
         <f>'-0.1 -0.1'!$G43</f>
         <v>1331.3462525059517</v>
       </c>
@@ -46736,11 +47241,11 @@
         <f>'-0.1 -0.5'!$G43</f>
         <v>963.09686917182194</v>
       </c>
-      <c r="L15" s="94">
+      <c r="L15" s="92">
         <f>'-0.1 -1'!$G43</f>
         <v>616.8256776209347</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="82">
         <f>'-0.3 -0.1'!$G43</f>
         <v>1375.0597592819115</v>
       </c>
@@ -46752,11 +47257,11 @@
         <f>'-0.3 -0.5'!$G43</f>
         <v>1005.1830174862594</v>
       </c>
-      <c r="P15" s="94">
+      <c r="P15" s="92">
         <f>'-0.3 -1'!$G43</f>
         <v>680.20755082525022</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="82">
         <f>'-0.5 -0.1'!$G43</f>
         <v>1420.4830719159711</v>
       </c>
@@ -46775,119 +47280,119 @@
       <c r="U15" s="26"/>
     </row>
     <row r="16" spans="2:23" ht="10" customHeight="1">
-      <c r="C16" s="143"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="79"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="79"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="77"/>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
       <c r="U16" s="26"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="77" t="str">
+      <c r="C17" s="75" t="str">
         <f>C15</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="84">
         <f>($D$8-E8)-($D$9-E9)+E11+E12+($D$15-E15)</f>
         <v>1622.2940053848181</v>
       </c>
-      <c r="F17" s="87">
-        <f t="shared" ref="F17:L17" si="3">($D$8-F8)-($D$9-F9)+F11+F12+($D$15-F15)</f>
+      <c r="F17" s="85">
+        <f t="shared" ref="F17:H17" si="3">($D$8-F8)-($D$9-F9)+F11+F12+($D$15-F15)</f>
         <v>2156.658527783798</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="85">
         <f t="shared" si="3"/>
         <v>2562.9692672116553</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="93">
         <f t="shared" si="3"/>
         <v>3221.149453615159</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="84">
         <f>($D$8-I8)-($D$9-I9)+I11+I12+($D$15-I15)</f>
         <v>533.67096673242304</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="85">
         <f t="shared" ref="J17:L17" si="4">($D$8-J8)-($D$9-J9)+J11+J12+($D$15-J15)</f>
         <v>1211.2114959107846</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="85">
         <f t="shared" si="4"/>
         <v>1807.2629364372069</v>
       </c>
-      <c r="L17" s="95">
+      <c r="L17" s="93">
         <f t="shared" si="4"/>
         <v>2845.4065495593522</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="84">
         <f>($D$8-M8)-($D$9-M9)+M11+M12+($D$15-M15)</f>
         <v>396.18024590023037</v>
       </c>
-      <c r="N17" s="87">
+      <c r="N17" s="85">
         <f t="shared" ref="N17:P17" si="5">($D$8-N8)-($D$9-N9)+N11+N12+($D$15-N15)</f>
         <v>1097.8466763323818</v>
       </c>
-      <c r="O17" s="87">
+      <c r="O17" s="85">
         <f t="shared" si="5"/>
         <v>1738.8291561684871</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P17" s="93">
         <f t="shared" si="5"/>
         <v>2711.9318508465071</v>
       </c>
-      <c r="Q17" s="86">
+      <c r="Q17" s="84">
         <f>($D$8-Q8)-($D$9-Q9)+Q11+Q12+($D$15-Q15)</f>
         <v>293.26606518201027</v>
       </c>
-      <c r="R17" s="87">
+      <c r="R17" s="85">
         <f t="shared" ref="R17:T17" si="6">($D$8-R8)-($D$9-R9)+R11+R12+($D$15-R15)</f>
         <v>1036.7501976761312</v>
       </c>
-      <c r="S17" s="87">
+      <c r="S17" s="85">
         <f t="shared" si="6"/>
         <v>1658.7728310642774</v>
       </c>
-      <c r="T17" s="87">
+      <c r="T17" s="85">
         <f t="shared" si="6"/>
         <v>2673.7858815040213</v>
       </c>
       <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" ht="10" customHeight="1">
-      <c r="C18" s="143"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="79"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="79"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="79"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="77"/>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
       <c r="T18" s="39"/>
@@ -46897,15 +47402,15 @@
       <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="143" t="str">
+      <c r="C19" s="141" t="str">
         <f>'0 -0.5'!H45</f>
         <v>[TWh/year]</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="81">
         <f>'0 -0.5'!F45</f>
         <v>158.74223539999963</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="82">
         <f>'0 -0.1'!$G45</f>
         <v>154.78475253968548</v>
       </c>
@@ -46917,11 +47422,11 @@
         <f>'0 -0.5'!$G45</f>
         <v>142.31180000861048</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="92">
         <f>'0 -1'!$G45</f>
         <v>127.3466021721015</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="82">
         <f>'-0.1 -0.1'!$G45</f>
         <v>154.855341286124</v>
       </c>
@@ -46933,11 +47438,11 @@
         <f>'-0.1 -0.5'!$G45</f>
         <v>142.22627313400702</v>
       </c>
-      <c r="L19" s="94">
+      <c r="L19" s="92">
         <f>'-0.1 -1'!$G45</f>
         <v>127.10018733926199</v>
       </c>
-      <c r="M19" s="84">
+      <c r="M19" s="82">
         <f>'-0.3 -0.1'!$G45</f>
         <v>154.97808221172602</v>
       </c>
@@ -46949,11 +47454,11 @@
         <f>'-0.3 -0.5'!$G45</f>
         <v>142.06299680147001</v>
       </c>
-      <c r="P19" s="94">
+      <c r="P19" s="92">
         <f>'-0.3 -1'!$G45</f>
         <v>126.6058622189355</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="82">
         <f>'-0.5 -0.1'!$G45</f>
         <v>155.06333663050899</v>
       </c>
@@ -46971,690 +47476,701 @@
       </c>
       <c r="U19" s="26"/>
     </row>
-    <row r="21" spans="2:21">
-      <c r="M21">
-        <f>D19*D6</f>
-        <v>6266.7021942383499</v>
-      </c>
-      <c r="N21">
-        <f>H19*H6</f>
-        <v>5443.9988118193205</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="30" customHeight="1">
-      <c r="B22" s="26"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="151" t="s">
+    <row r="20" spans="2:21">
+      <c r="C20" s="174"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="23" spans="2:21" ht="30" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E23" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="29"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="74">
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="29"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="72">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="F23" s="75">
-        <f t="shared" ref="F23:H23" si="7">J4</f>
+      <c r="F24" s="73">
+        <f t="shared" ref="F24:H24" si="7">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G24" s="73">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H24" s="73">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="10" customHeight="1">
-      <c r="C24" s="143"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="1">
+    <row r="25" spans="2:21" ht="10" customHeight="1">
+      <c r="C25" s="141"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="1">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <f>J4</f>
         <v>-0.3</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f>K4</f>
         <v>-0.5</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L25" s="1">
         <f>L4</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="69" t="s">
+    <row r="26" spans="2:21">
+      <c r="B26" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="144" t="str">
+      <c r="C26" s="142" t="str">
         <f>C6</f>
         <v>[$/MWh]</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D26" s="78">
         <f>D6</f>
         <v>39.477220277561777</v>
       </c>
-      <c r="E25" s="81">
-        <f t="shared" ref="E25:H38" si="8">I6</f>
+      <c r="E26" s="79">
+        <f>I6</f>
         <v>53.4426680462918</v>
       </c>
-      <c r="F25" s="82">
-        <f t="shared" si="8"/>
+      <c r="F26" s="80">
+        <f>J6</f>
         <v>51.493267794191759</v>
       </c>
-      <c r="G25" s="82">
-        <f t="shared" si="8"/>
+      <c r="G26" s="80">
+        <f>K6</f>
         <v>48.994502294398472</v>
       </c>
-      <c r="H25" s="82">
-        <f t="shared" si="8"/>
+      <c r="H26" s="80">
+        <f>L6</f>
         <v>41.802459030988793</v>
       </c>
-      <c r="I25" s="142">
+      <c r="I26" s="140">
         <f>E17/E8</f>
         <v>0.10348086719331195</v>
       </c>
-      <c r="J25" s="142">
+      <c r="J26" s="140">
         <f>F17/F8</f>
         <v>0.14826048037823009</v>
       </c>
-      <c r="K25" s="142">
+      <c r="K26" s="140">
         <f>G17/G8</f>
         <v>0.18976664914160757</v>
       </c>
-      <c r="L25" s="142">
+      <c r="L26" s="140">
         <f>H17/H8</f>
         <v>0.30367387109992938</v>
       </c>
-      <c r="M25" s="142" t="str">
-        <f>P25</f>
+      <c r="M26" s="140" t="str">
+        <f>P26</f>
         <v>100% Pass-through</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="10" customHeight="1">
-      <c r="C26" s="143"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="142">
+    <row r="27" spans="2:21" ht="10" customHeight="1">
+      <c r="C27" s="141"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="140">
         <f>I17/I8</f>
         <v>3.2242540920135232E-2</v>
       </c>
-      <c r="J26" s="142">
+      <c r="J27" s="140">
         <f>J17/J8</f>
         <v>7.9334073471308206E-2</v>
       </c>
-      <c r="K26" s="142">
+      <c r="K27" s="140">
         <f>K17/K8</f>
         <v>0.12967736169245389</v>
       </c>
-      <c r="L26" s="142">
+      <c r="L27" s="140">
         <f>L17/L8</f>
         <v>0.26777270795037317</v>
       </c>
-      <c r="M26" s="142" t="str">
-        <f>P27</f>
+      <c r="M27" s="140" t="str">
+        <f>P28</f>
         <v>80% Pass-through</v>
       </c>
     </row>
-    <row r="27" spans="2:21">
-      <c r="B27" t="s">
+    <row r="28" spans="2:21">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="148" t="str">
+      <c r="C28" s="157" t="str">
         <f>C8</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D27" s="83">
-        <f t="shared" ref="D27:D38" si="9">D8</f>
+      <c r="D28" s="81">
+        <f>D8</f>
         <v>12533.4043884767</v>
       </c>
-      <c r="E27" s="84">
-        <f t="shared" si="8"/>
+      <c r="E28" s="82">
+        <f>I8</f>
         <v>16551.7651990991</v>
       </c>
-      <c r="F27" s="38">
-        <f t="shared" si="8"/>
+      <c r="F28" s="38">
+        <f>J8</f>
         <v>15267.229362032302</v>
       </c>
-      <c r="G27" s="38">
-        <f t="shared" si="8"/>
+      <c r="G28" s="38">
+        <f>K8</f>
         <v>13936.6109307757</v>
       </c>
-      <c r="H27" s="38">
-        <f t="shared" si="8"/>
+      <c r="H28" s="38">
+        <f>L8</f>
         <v>10626.200748161</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="P27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="83">
-        <f t="shared" si="9"/>
-        <v>6143.604256374444</v>
-      </c>
-      <c r="E28" s="84">
-        <f t="shared" si="8"/>
-        <v>8184.3462561460447</v>
-      </c>
-      <c r="F28" s="38">
-        <f t="shared" si="8"/>
-        <v>7729.0520125972562</v>
-      </c>
-      <c r="G28" s="38">
-        <f t="shared" si="8"/>
-        <v>7193.453879681394</v>
-      </c>
-      <c r="H28" s="38">
-        <f t="shared" si="8"/>
-        <v>5510.9879399218362</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="2:21" ht="10" customHeight="1">
-      <c r="C29" s="149"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="83" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="E30" s="84">
-        <f t="shared" si="8"/>
-        <v>1261.27336335108</v>
-      </c>
-      <c r="F30" s="38">
-        <f t="shared" si="8"/>
-        <v>1073.2790939727499</v>
-      </c>
-      <c r="G30" s="38">
-        <f t="shared" si="8"/>
-        <v>908.59002410247399</v>
-      </c>
-      <c r="H30" s="38">
-        <f t="shared" si="8"/>
-        <v>564.66900400892791</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="P30" t="str">
-        <f>P25</f>
-        <v>100% Pass-through</v>
-      </c>
+      <c r="P28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="158"/>
+      <c r="D29" s="81">
+        <f>D9</f>
+        <v>6143.604256374444</v>
+      </c>
+      <c r="E29" s="82">
+        <f>I9</f>
+        <v>8184.3462561460447</v>
+      </c>
+      <c r="F29" s="38">
+        <f>J9</f>
+        <v>7729.0520125972562</v>
+      </c>
+      <c r="G29" s="38">
+        <f>K9</f>
+        <v>7193.453879681394</v>
+      </c>
+      <c r="H29" s="38">
+        <f>L9</f>
+        <v>5510.9879399218362</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="2:21" ht="10" customHeight="1">
+      <c r="C30" s="158"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="78" t="str">
-        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="158"/>
+      <c r="D31" s="81" t="str">
+        <f>D11</f>
         <v>-</v>
       </c>
-      <c r="E31" s="84">
-        <f t="shared" si="8"/>
-        <v>1149.8333341942016</v>
+      <c r="E31" s="82">
+        <f>I11</f>
+        <v>1261.27336335108</v>
       </c>
       <c r="F31" s="38">
-        <f t="shared" si="8"/>
-        <v>989.33111266356741</v>
+        <f>J11</f>
+        <v>1073.2790939727499</v>
       </c>
       <c r="G31" s="38">
-        <f t="shared" si="8"/>
-        <v>783.59736795471213</v>
+        <f>K11</f>
+        <v>908.59002410247399</v>
       </c>
       <c r="H31" s="38">
-        <f t="shared" si="8"/>
-        <v>191.44656676437432</v>
+        <f>L11</f>
+        <v>564.66900400892791</v>
       </c>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
-    </row>
-    <row r="32" spans="2:21" ht="10" customHeight="1">
-      <c r="C32" s="143"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="2:19">
-      <c r="B33" t="s">
+      <c r="P31" t="str">
+        <f>P26</f>
+        <v>100% Pass-through</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="159"/>
+      <c r="D32" s="76" t="str">
+        <f>D12</f>
+        <v>-</v>
+      </c>
+      <c r="E32" s="82">
+        <f>I12</f>
+        <v>1149.8333341942016</v>
+      </c>
+      <c r="F32" s="38">
+        <f>J12</f>
+        <v>989.33111266356741</v>
+      </c>
+      <c r="G32" s="38">
+        <f>K12</f>
+        <v>783.59736795471213</v>
+      </c>
+      <c r="H32" s="38">
+        <f>L12</f>
+        <v>191.44656676437432</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="2:19" ht="10" customHeight="1">
+      <c r="C33" s="141"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="143" t="str">
+      <c r="C34" s="141" t="str">
         <f>C14</f>
         <v>[000 ton CO2]</v>
       </c>
-      <c r="D33" s="83">
-        <f t="shared" si="9"/>
+      <c r="D34" s="81">
+        <f>D14</f>
         <v>39764.703681774801</v>
       </c>
-      <c r="E33" s="84">
-        <f t="shared" si="8"/>
+      <c r="E34" s="82">
+        <f>I14</f>
         <v>36981.840347387551</v>
       </c>
-      <c r="F33" s="38">
-        <f t="shared" si="8"/>
+      <c r="F34" s="38">
+        <f>J14</f>
         <v>31515.300720462106</v>
       </c>
-      <c r="G33" s="38">
-        <f t="shared" si="8"/>
+      <c r="G34" s="38">
+        <f>K14</f>
         <v>26752.690810328389</v>
       </c>
-      <c r="H33" s="38">
-        <f t="shared" si="8"/>
+      <c r="H34" s="38">
+        <f>L14</f>
         <v>17134.046600581518</v>
-      </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="P33" t="str">
-        <f>P27</f>
-        <v>80% Pass-through</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="143" t="str">
-        <f>C27</f>
-        <v>[MMUSD]</v>
-      </c>
-      <c r="D34" s="83">
-        <f t="shared" si="9"/>
-        <v>1431.5293325438927</v>
-      </c>
-      <c r="E34" s="84">
-        <f t="shared" si="8"/>
-        <v>1331.3462525059517</v>
-      </c>
-      <c r="F34" s="38">
-        <f t="shared" si="8"/>
-        <v>1134.5508259366356</v>
-      </c>
-      <c r="G34" s="38">
-        <f t="shared" si="8"/>
-        <v>963.09686917182194</v>
-      </c>
-      <c r="H34" s="38">
-        <f t="shared" si="8"/>
-        <v>616.8256776209347</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="2:19" ht="10" customHeight="1">
-      <c r="C35" s="143"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="B36" s="76" t="s">
+      <c r="P34" t="str">
+        <f>P28</f>
+        <v>80% Pass-through</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="141" t="str">
+        <f>C28</f>
+        <v>[MMUSD]</v>
+      </c>
+      <c r="D35" s="81">
+        <f>D15</f>
+        <v>1431.5293325438927</v>
+      </c>
+      <c r="E35" s="82">
+        <f>I15</f>
+        <v>1331.3462525059517</v>
+      </c>
+      <c r="F35" s="38">
+        <f>J15</f>
+        <v>1134.5508259366356</v>
+      </c>
+      <c r="G35" s="38">
+        <f>K15</f>
+        <v>963.09686917182194</v>
+      </c>
+      <c r="H35" s="38">
+        <f>L15</f>
+        <v>616.8256776209347</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="2:19" ht="10" customHeight="1">
+      <c r="C36" s="141"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="77" t="str">
+      <c r="C37" s="75" t="str">
         <f>C17</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D37" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="86">
-        <f t="shared" si="8"/>
+      <c r="E37" s="84">
+        <f>I17</f>
         <v>533.67096673242304</v>
       </c>
-      <c r="F36" s="87">
-        <f t="shared" si="8"/>
+      <c r="F37" s="85">
+        <f>J17</f>
         <v>1211.2114959107846</v>
       </c>
-      <c r="G36" s="87">
-        <f t="shared" si="8"/>
+      <c r="G37" s="85">
+        <f>K17</f>
         <v>1807.2629364372069</v>
       </c>
-      <c r="H36" s="87">
-        <f t="shared" si="8"/>
+      <c r="H37" s="85">
+        <f>L17</f>
         <v>2845.4065495593522</v>
       </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-    </row>
-    <row r="37" spans="2:19" ht="10" customHeight="1">
-      <c r="C37" s="143"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" t="s">
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+    </row>
+    <row r="38" spans="2:19" ht="10" customHeight="1">
+      <c r="C38" s="141"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="143" t="str">
+      <c r="C39" s="141" t="str">
         <f>C19</f>
         <v>[TWh/year]</v>
       </c>
-      <c r="D38" s="83">
-        <f t="shared" si="9"/>
+      <c r="D39" s="81">
+        <f>D19</f>
         <v>158.74223539999963</v>
       </c>
-      <c r="E38" s="84">
-        <f t="shared" si="8"/>
+      <c r="E39" s="82">
+        <f>I19</f>
         <v>154.855341286124</v>
       </c>
-      <c r="F38" s="38">
-        <f t="shared" si="8"/>
+      <c r="F39" s="38">
+        <f>J19</f>
         <v>148.24490672307249</v>
       </c>
-      <c r="G38" s="38">
-        <f t="shared" si="8"/>
+      <c r="G39" s="38">
+        <f>K19</f>
         <v>142.22627313400702</v>
       </c>
-      <c r="H38" s="38">
-        <f t="shared" si="8"/>
+      <c r="H39" s="38">
+        <f>L19</f>
         <v>127.10018733926199</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="N40">
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="N41">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="O40">
-        <f t="shared" ref="O40:Q40" si="10">J4</f>
+      <c r="O41">
+        <f t="shared" ref="O41:Q41" si="8">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="10"/>
+      <c r="P41">
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="10"/>
+      <c r="Q41">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
-      <c r="M41" t="s">
+    <row r="42" spans="2:19">
+      <c r="M42" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N42" s="49">
         <f>E17</f>
         <v>1622.2940053848181</v>
       </c>
-      <c r="O41" s="49">
-        <f t="shared" ref="O41:Q41" si="11">F17</f>
+      <c r="O42" s="49">
+        <f t="shared" ref="O42:Q42" si="9">F17</f>
         <v>2156.658527783798</v>
       </c>
-      <c r="P41" s="49">
-        <f t="shared" si="11"/>
+      <c r="P42" s="49">
+        <f t="shared" si="9"/>
         <v>2562.9692672116553</v>
       </c>
-      <c r="Q41" s="49">
-        <f t="shared" si="11"/>
+      <c r="Q42" s="49">
+        <f t="shared" si="9"/>
         <v>3221.149453615159</v>
       </c>
-      <c r="S41" s="22">
-        <f>(N41-N44)/N41</f>
+      <c r="S42" s="22">
+        <f>(N42-N45)/N42</f>
         <v>0.8192275480223784</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
-      <c r="M42" t="s">
+    <row r="43" spans="2:19">
+      <c r="M43" t="s">
         <v>144</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N43" s="49">
         <f>I17</f>
         <v>533.67096673242304</v>
       </c>
-      <c r="O42" s="49">
-        <f t="shared" ref="O42:Q42" si="12">J17</f>
+      <c r="O43" s="49">
+        <f t="shared" ref="O43:Q43" si="10">J17</f>
         <v>1211.2114959107846</v>
       </c>
-      <c r="P42" s="49">
-        <f t="shared" si="12"/>
+      <c r="P43" s="49">
+        <f t="shared" si="10"/>
         <v>1807.2629364372069</v>
       </c>
-      <c r="Q42" s="49">
-        <f t="shared" si="12"/>
+      <c r="Q43" s="49">
+        <f t="shared" si="10"/>
         <v>2845.4065495593522</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
-      <c r="M43" t="s">
+    <row r="44" spans="2:19">
+      <c r="M44" t="s">
         <v>145</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N44" s="49">
         <f>M17</f>
         <v>396.18024590023037</v>
       </c>
-      <c r="O43" s="49">
-        <f t="shared" ref="O43:Q43" si="13">N17</f>
+      <c r="O44" s="49">
+        <f t="shared" ref="O44:Q44" si="11">N17</f>
         <v>1097.8466763323818</v>
       </c>
-      <c r="P43" s="49">
-        <f t="shared" si="13"/>
+      <c r="P44" s="49">
+        <f t="shared" si="11"/>
         <v>1738.8291561684871</v>
       </c>
-      <c r="Q43" s="49">
-        <f t="shared" si="13"/>
+      <c r="Q44" s="49">
+        <f t="shared" si="11"/>
         <v>2711.9318508465071</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
-      <c r="M44" t="s">
+    <row r="45" spans="2:19">
+      <c r="M45" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N45" s="49">
         <f>Q17</f>
         <v>293.26606518201027</v>
       </c>
-      <c r="O44" s="49">
+      <c r="O45" s="49">
         <f>R17</f>
         <v>1036.7501976761312</v>
       </c>
-      <c r="P44" s="49">
+      <c r="P45" s="49">
         <f>S17</f>
         <v>1658.7728310642774</v>
       </c>
-      <c r="Q44" s="49">
+      <c r="Q45" s="49">
         <f>T17</f>
         <v>2673.7858815040213</v>
       </c>
     </row>
-    <row r="47" spans="2:19">
-      <c r="N47">
-        <f t="shared" ref="N47:Q47" si="14">N40</f>
+    <row r="48" spans="2:19">
+      <c r="N48">
+        <f t="shared" ref="N48:Q48" si="12">N41</f>
         <v>-0.1</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="14"/>
+      <c r="O48">
+        <f t="shared" si="12"/>
         <v>-0.3</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="14"/>
+      <c r="P48">
+        <f t="shared" si="12"/>
         <v>-0.5</v>
       </c>
-      <c r="Q47">
-        <f t="shared" si="14"/>
+      <c r="Q48">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:19">
-      <c r="M48" t="str">
-        <f t="shared" ref="M48:Q50" si="15">M41</f>
+    <row r="49" spans="13:17">
+      <c r="M49" t="str">
+        <f t="shared" ref="M49:M51" si="13">M42</f>
         <v>Exchange Elasticity = 0</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N49" s="21">
         <f>E17/E8</f>
         <v>0.10348086719331195</v>
       </c>
-      <c r="O48" s="21">
-        <f t="shared" ref="O48:Q48" si="16">F17/F8</f>
+      <c r="O49" s="21">
+        <f t="shared" ref="O49:Q49" si="14">F17/F8</f>
         <v>0.14826048037823009</v>
       </c>
-      <c r="P48" s="21">
-        <f t="shared" si="16"/>
+      <c r="P49" s="21">
+        <f t="shared" si="14"/>
         <v>0.18976664914160757</v>
       </c>
-      <c r="Q48" s="21">
-        <f t="shared" si="16"/>
+      <c r="Q49" s="21">
+        <f t="shared" si="14"/>
         <v>0.30367387109992938</v>
       </c>
     </row>
-    <row r="49" spans="13:17">
-      <c r="M49" t="str">
-        <f t="shared" si="15"/>
+    <row r="50" spans="13:17">
+      <c r="M50" t="str">
+        <f t="shared" si="13"/>
         <v>Exch. Elast. = -0.1</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N50" s="21">
         <f>I17/I8</f>
         <v>3.2242540920135232E-2</v>
       </c>
-      <c r="O49" s="21">
-        <f t="shared" ref="O49:Q49" si="17">J17/J8</f>
+      <c r="O50" s="21">
+        <f t="shared" ref="O50:Q50" si="15">J17/J8</f>
         <v>7.9334073471308206E-2</v>
       </c>
-      <c r="P49" s="22">
-        <f t="shared" si="17"/>
+      <c r="P50" s="22">
+        <f t="shared" si="15"/>
         <v>0.12967736169245389</v>
       </c>
-      <c r="Q49" s="21">
-        <f t="shared" si="17"/>
+      <c r="Q50" s="21">
+        <f t="shared" si="15"/>
         <v>0.26777270795037317</v>
       </c>
     </row>
-    <row r="50" spans="13:17">
-      <c r="M50" t="str">
-        <f t="shared" si="15"/>
+    <row r="51" spans="13:17">
+      <c r="M51" t="str">
+        <f t="shared" si="13"/>
         <v>Exch. Elast. = -0.3</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N51" s="21">
         <f>M17/M8</f>
         <v>2.434129556311003E-2</v>
       </c>
-      <c r="O50" s="21">
-        <f t="shared" ref="O50:Q50" si="18">N17/N8</f>
+      <c r="O51" s="21">
+        <f t="shared" ref="O51:Q51" si="16">N17/N8</f>
         <v>7.3621120108673027E-2</v>
       </c>
-      <c r="P50" s="22">
-        <f t="shared" si="18"/>
+      <c r="P51" s="22">
+        <f t="shared" si="16"/>
         <v>0.12974521938152603</v>
       </c>
-      <c r="Q50" s="21">
-        <f t="shared" si="18"/>
+      <c r="Q51" s="21">
+        <f t="shared" si="16"/>
         <v>0.27397194086700549</v>
       </c>
     </row>
-    <row r="51" spans="13:17">
-      <c r="M51" t="str">
-        <f>M44</f>
+    <row r="52" spans="13:17">
+      <c r="M52" t="str">
+        <f>M45</f>
         <v>Exch. Elast. = -0.5</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N52" s="21">
         <f>Q17/Q8</f>
         <v>1.8456469033495619E-2</v>
       </c>
-      <c r="O51" s="21">
-        <f t="shared" ref="O51:Q51" si="19">R17/R8</f>
+      <c r="O52" s="21">
+        <f t="shared" ref="O52:Q52" si="17">R17/R8</f>
         <v>7.2162005130907411E-2</v>
       </c>
-      <c r="P51" s="22">
-        <f t="shared" si="19"/>
+      <c r="P52" s="22">
+        <f t="shared" si="17"/>
         <v>0.13008459767001068</v>
       </c>
-      <c r="Q51" s="21">
-        <f t="shared" si="19"/>
+      <c r="Q52" s="21">
+        <f t="shared" si="17"/>
         <v>0.30266221786987085</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47938,14 +48454,14 @@
         <v>84639869.523493499</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="143" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -47954,10 +48470,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="146"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -47974,11 +48490,11 @@
         <f>G37*C28/$E$4</f>
         <v>35.170942347565287</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -47990,9 +48506,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -48006,8 +48522,8 @@
         <f>SUM(G31:G34)</f>
         <v>4334.1448976643587</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>-5.6993633551606449</v>
@@ -48032,10 +48548,10 @@
         <f>C10/C28</f>
         <v>223.804673687914</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>-9.5913160388473138</v>
@@ -48064,8 +48580,8 @@
         <f>C14/C28</f>
         <v>2392.4130825284801</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="147"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>-9.5913160388750942</v>
@@ -48094,8 +48610,8 @@
         <f>C6/C28</f>
         <v>1525.45445931267</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="147"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>-9.5918850074671873</v>
@@ -48124,8 +48640,8 @@
         <f>C18/C28</f>
         <v>192.47268213529398</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="147"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>-4.229627679413011</v>
@@ -48140,8 +48656,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -48155,8 +48671,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -48189,8 +48705,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -48229,8 +48745,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -48245,10 +48761,10 @@
         <f>(C20/C29)+(F1*(C26-C25)/C29)</f>
         <v>21017.478277815229</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="145"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>-0.29514568431233751</v>
@@ -48330,39 +48846,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
     </row>
     <row r="3" spans="3:14">
-      <c r="F3" s="108"/>
-      <c r="G3" s="163" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="164"/>
-      <c r="I3" s="165" t="s">
+      <c r="H3" s="170"/>
+      <c r="I3" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="171"/>
     </row>
     <row r="4" spans="3:14" ht="34">
       <c r="D4" s="1"/>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="96" t="s">
         <v>69</v>
       </c>
     </row>
@@ -48376,16 +48892,16 @@
       <c r="F5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="101">
         <v>0.637650297778806</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="99">
         <v>2.3236848825557201E-4</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="101">
         <v>0.63762592240836302</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="103">
         <v>2.2254688000648599E-8</v>
       </c>
       <c r="K5" s="26"/>
@@ -48400,16 +48916,16 @@
       <c r="F6" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="101">
         <v>1.21789301981552</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="99">
         <v>3.9447126644578303E-3</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="101">
         <v>1.2178018706353799</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="103">
         <v>2.25705845523682E-6</v>
       </c>
       <c r="K6" s="26"/>
@@ -48424,16 +48940,16 @@
       <c r="F7" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="104">
+      <c r="G7" s="102">
         <v>3.5534479497935498</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="100">
         <v>5.5266239378950798E-3</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="102">
         <v>3.55321935167817</v>
       </c>
-      <c r="J7" s="106">
+      <c r="J7" s="104">
         <v>3.3262038463098199E-7</v>
       </c>
       <c r="K7" s="26"/>
@@ -48456,7 +48972,7 @@
       <c r="D9" s="54">
         <v>8.2116499999999995E-2</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="105">
         <f>I5-G5</f>
         <v>-2.4375370442974997E-5</v>
       </c>
@@ -48468,13 +48984,13 @@
       <c r="D10" s="1">
         <v>0.54511573046643602</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="105">
         <f t="shared" ref="I10:I11" si="0">I6-G6</f>
         <v>-9.1149180140082109E-5</v>
       </c>
     </row>
     <row r="11" spans="3:14">
-      <c r="I11" s="107">
+      <c r="I11" s="105">
         <f t="shared" si="0"/>
         <v>-2.2859811537978558E-4</v>
       </c>
@@ -67201,7 +67717,7 @@
         <v>1000000</v>
       </c>
       <c r="U1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V1">
         <v>-0.1</v>
@@ -67212,7 +67728,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="U2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V2">
         <v>-0.5</v>
@@ -67248,16 +67764,16 @@
       <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="110" t="s">
         <v>141</v>
       </c>
       <c r="O4" t="s">
@@ -67550,36 +68066,36 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="N11" s="171"/>
+      <c r="N11" s="147"/>
       <c r="O11" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="P11" s="173" t="s">
         <v>157</v>
       </c>
+      <c r="P11" s="149" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="O12" s="176">
+      <c r="O12" s="152">
         <f>-(O5-O7)/O5</f>
         <v>-0.31893054134579057</v>
       </c>
-      <c r="P12" s="174">
+      <c r="P12" s="150">
         <f>-(P5-P7)/P5</f>
         <v>-0.18405780242499284</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="N13" s="172" t="s">
-        <v>159</v>
-      </c>
-      <c r="O13" s="177">
+      <c r="N13" s="148" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="153">
         <f>-(O6-O8)/O6</f>
         <v>-0.82687893503666876</v>
       </c>
-      <c r="P13" s="175">
+      <c r="P13" s="151">
         <f>-(P6-P8)/P6</f>
         <v>-0.87328096871420302</v>
       </c>
@@ -67647,7 +68163,7 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="115">
         <f>'0 -0.3'!F28</f>
         <v>39.477220277561777</v>
       </c>
@@ -67674,7 +68190,7 @@
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="115">
         <f>Summary!E$6</f>
         <v>54.105676644261884</v>
       </c>
@@ -67713,13 +68229,13 @@
         <f>Summary!$E$17</f>
         <v>1622.2940053848181</v>
       </c>
-      <c r="Q5" s="118" t="e">
+      <c r="Q5" s="116" t="e">
         <f>(M5/$Q$3)/O5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="117">
+      <c r="B6" s="115">
         <f>Summary!F$6</f>
         <v>52.295135047397551</v>
       </c>
@@ -67758,13 +68274,13 @@
         <f>Summary!$F$17</f>
         <v>2156.658527783798</v>
       </c>
-      <c r="Q6" s="118">
+      <c r="Q6" s="116">
         <f t="shared" ref="Q6:Q8" si="5">(M6/$Q$3)/O6</f>
         <v>1.9980876726452941</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="B7" s="117">
+      <c r="B7" s="115">
         <f>Summary!G$6</f>
         <v>50.270947671249203</v>
       </c>
@@ -67803,13 +68319,13 @@
         <f>Summary!$G$17</f>
         <v>2562.9692672116553</v>
       </c>
-      <c r="Q7" s="118">
+      <c r="Q7" s="116">
         <f t="shared" si="5"/>
         <v>0.50433651556824288</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="117">
+      <c r="B8" s="115">
         <f>Summary!H$6</f>
         <v>42.749462639467005</v>
       </c>
@@ -67848,7 +68364,7 @@
         <f>Summary!$H$17</f>
         <v>3221.149453615159</v>
       </c>
-      <c r="Q8" s="118">
+      <c r="Q8" s="116">
         <f t="shared" si="5"/>
         <v>-5.5365465491247844E-2</v>
       </c>
@@ -67878,61 +68394,61 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="51">
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="129" t="s">
+      <c r="E15" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="156" t="s">
+      <c r="G15" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="157"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="141" t="s">
+      <c r="C16" s="164"/>
+      <c r="D16" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="133" t="s">
+      <c r="H16" s="131" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="128">
+      <c r="D17" s="126">
         <f>B4</f>
         <v>39.477220277561777</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="125" t="s">
         <v>94</v>
       </c>
     </row>
@@ -67940,11 +68456,11 @@
       <c r="C18" s="39">
         <v>-0.1</v>
       </c>
-      <c r="D18" s="125">
+      <c r="D18" s="123">
         <f t="shared" ref="D18:D21" si="7">B5</f>
         <v>54.105676644261884</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="118">
         <f>F10</f>
         <v>0.14898016781305787</v>
       </c>
@@ -67952,11 +68468,11 @@
         <f>J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="136" t="e">
+      <c r="G18" s="134" t="e">
         <f>Q5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="121" t="e">
+      <c r="H18" s="119" t="e">
         <f>G18*O5</f>
         <v>#DIV/0!</v>
       </c>
@@ -67965,11 +68481,11 @@
       <c r="C19" s="39">
         <v>-0.3</v>
       </c>
-      <c r="D19" s="125">
+      <c r="D19" s="123">
         <f t="shared" si="7"/>
         <v>52.295135047397551</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="118">
         <f>F11</f>
         <v>0.12499170442356143</v>
       </c>
@@ -67977,11 +68493,11 @@
         <f t="shared" ref="F19:F21" si="8">J6</f>
         <v>-2.6601988420822047</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="134">
         <f t="shared" ref="G19:G21" si="9">Q6</f>
         <v>1.9980876726452941</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="119">
         <f t="shared" ref="H19:H21" si="10">G19*O6</f>
         <v>4309.1928184701555</v>
       </c>
@@ -67990,11 +68506,11 @@
       <c r="C20" s="39">
         <v>-0.5</v>
       </c>
-      <c r="D20" s="125">
+      <c r="D20" s="123">
         <f t="shared" si="7"/>
         <v>50.270947671249203</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="118">
         <f>F12</f>
         <v>0.10056160792754743</v>
       </c>
@@ -68002,11 +68518,11 @@
         <f t="shared" si="8"/>
         <v>-0.6326615674057281</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="134">
         <f t="shared" si="9"/>
         <v>0.50433651556824288</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="119">
         <f t="shared" si="10"/>
         <v>1292.5989897340191</v>
       </c>
@@ -68015,47 +68531,47 @@
       <c r="C21" s="35">
         <v>-1</v>
       </c>
-      <c r="D21" s="126">
+      <c r="D21" s="124">
         <f t="shared" si="7"/>
         <v>42.749462639467005</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="121">
         <f>F13</f>
         <v>2.6298001988229128E-2</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="120">
         <f t="shared" si="8"/>
         <v>1.2085786238819405</v>
       </c>
-      <c r="G21" s="137">
+      <c r="G21" s="135">
         <f t="shared" si="9"/>
         <v>-5.5365465491247844E-2</v>
       </c>
-      <c r="H21" s="124">
+      <c r="H21" s="122">
         <f t="shared" si="10"/>
         <v>-178.34043891628193</v>
       </c>
     </row>
     <row r="22" spans="3:18">
-      <c r="E22" s="119"/>
+      <c r="E22" s="117"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="E23" s="139" t="s">
+      <c r="E23" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="140">
+      <c r="F23" s="138">
         <f>J4</f>
         <v>0.57266301219512206</v>
       </c>
-      <c r="G23" s="138" t="str">
+      <c r="G23" s="136" t="str">
         <f>F16</f>
         <v>[CO2 ton/MWh]</v>
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="E24" s="139"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="138"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="136"/>
       <c r="L24" t="s">
         <v>24</v>
       </c>
@@ -68067,11 +68583,11 @@
       <c r="D25" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="136"/>
       <c r="J25" t="s">
         <v>130</v>
       </c>
@@ -68104,7 +68620,7 @@
       <c r="E26" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="110">
         <v>0.35</v>
       </c>
       <c r="G26" t="s">
@@ -68155,7 +68671,7 @@
       <c r="E27" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="112">
+      <c r="F27" s="110">
         <v>0.25</v>
       </c>
       <c r="G27" t="s">
@@ -68217,10 +68733,10 @@
       </c>
     </row>
     <row r="29" spans="3:18" ht="34">
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="128" t="s">
         <v>119</v>
       </c>
       <c r="K29">
@@ -68247,16 +68763,16 @@
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="160"/>
-      <c r="D30" s="141" t="s">
+      <c r="C30" s="166"/>
+      <c r="D30" s="139" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="3:18">
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="128">
+      <c r="D31" s="126">
         <f>D17</f>
         <v>39.477220277561777</v>
       </c>
@@ -68265,7 +68781,7 @@
       <c r="C32" s="39">
         <v>-0.1</v>
       </c>
-      <c r="D32" s="125">
+      <c r="D32" s="123">
         <f>D18</f>
         <v>54.105676644261884</v>
       </c>
@@ -68274,7 +68790,7 @@
       <c r="C33" s="39">
         <v>-0.3</v>
       </c>
-      <c r="D33" s="125">
+      <c r="D33" s="123">
         <f>D19</f>
         <v>52.295135047397551</v>
       </c>
@@ -68283,7 +68799,7 @@
       <c r="C34" s="39">
         <v>-0.5</v>
       </c>
-      <c r="D34" s="125">
+      <c r="D34" s="123">
         <f t="shared" ref="D34:D35" si="13">D20</f>
         <v>50.270947671249203</v>
       </c>
@@ -68292,7 +68808,7 @@
       <c r="C35" s="35">
         <v>-1</v>
       </c>
-      <c r="D35" s="125">
+      <c r="D35" s="123">
         <f t="shared" si="13"/>
         <v>42.749462639467005</v>
       </c>
@@ -68655,8 +69171,8 @@
       <c r="G26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="62" t="s">
         <v>42</v>
       </c>
@@ -68665,10 +69181,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="89"/>
+      <c r="K27" s="87"/>
     </row>
     <row r="28" spans="1:16">
       <c r="C28">
@@ -68685,11 +69201,11 @@
         <f>(C22-E1)/(E4-C26)</f>
         <v>54.105676644261884</v>
       </c>
-      <c r="H28" s="90" t="s">
+      <c r="H28" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="90"/>
-      <c r="J28" s="161"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -68701,9 +69217,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="161"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -68717,8 +69233,8 @@
         <f>SUM(G31:G34)</f>
         <v>8273.7792335883369</v>
       </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="14">
         <f>(G30-F30)*1000000/E3</f>
         <v>6.7095406961048054</v>
@@ -68743,10 +69259,10 @@
         <f>C10/C28</f>
         <v>405.54467201362598</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="90"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="16">
         <f>(G31-F31)*1000000/C7</f>
         <v>14.004636106452624</v>
@@ -68775,8 +69291,8 @@
         <f>C14/C28</f>
         <v>4335.16585193833</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="90"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="88"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
         <v>14.004636106452509</v>
@@ -68805,8 +69321,8 @@
         <f>C6/C28</f>
         <v>2764.1957525707503</v>
       </c>
-      <c r="H33" s="162"/>
-      <c r="I33" s="90"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="88"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
         <v>14.00546687588646</v>
@@ -68835,8 +69351,8 @@
         <f>C18/C28</f>
         <v>768.872957065631</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="90"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="88"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
         <v>1.2815369654529878</v>
@@ -68851,8 +69367,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
       <c r="J35" s="13"/>
       <c r="M35" t="s">
         <v>35</v>
@@ -68866,8 +69382,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
       <c r="J36" s="13"/>
       <c r="N36" s="49"/>
     </row>
@@ -68900,8 +69416,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="5:16">
@@ -68940,8 +69456,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="5:16">
@@ -68956,10 +69472,10 @@
         <f>C20/C29</f>
         <v>36376.6526898702</v>
       </c>
-      <c r="H42" s="90" t="s">
+      <c r="H42" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="90"/>
+      <c r="I42" s="88"/>
       <c r="N42" s="21">
         <f>(G37-F37)/F37</f>
         <v>0.25083622880587514</v>
@@ -69335,7 +69851,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="25"/>
@@ -69359,7 +69875,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="161"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -69373,7 +69889,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="161"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -69413,7 +69929,7 @@
         <f>C10/C28</f>
         <v>390.39384942954598</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="18"/>
@@ -69445,7 +69961,7 @@
         <f>C14/C28</f>
         <v>4173.2075444375705</v>
       </c>
-      <c r="H32" s="162"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="18"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -69475,7 +69991,7 @@
         <f>C6/C28</f>
         <v>2660.9276237425697</v>
       </c>
-      <c r="H33" s="162"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="18"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -69506,7 +70022,7 @@
         <f>C18/C28</f>
         <v>601.86322198059702</v>
       </c>
-      <c r="H34" s="162"/>
+      <c r="H34" s="168"/>
       <c r="I34" s="18"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -69558,7 +70074,7 @@
         <v>34</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="168">
+      <c r="J37" s="146">
         <f>G28/F28</f>
         <v>1.3246914215264867</v>
       </c>
@@ -69681,7 +70197,7 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="17"/>
-      <c r="N45" s="110">
+      <c r="N45" s="108">
         <f>(G28-F28)/F28</f>
         <v>0.32469142152648656</v>
       </c>
@@ -70012,7 +70528,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="8"/>
@@ -70036,7 +70552,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="161"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -70050,7 +70566,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="161"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -70090,11 +70606,11 @@
         <f>C10/C28</f>
         <v>372.013920699192</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="97">
+      <c r="J31" s="95">
         <f>(G31-F31)*1000000/C7</f>
         <v>9.6512190782793468</v>
       </c>
@@ -70122,9 +70638,9 @@
         <f>C14/C28</f>
         <v>3976.7309417558999</v>
       </c>
-      <c r="H32" s="162"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="97">
+      <c r="J32" s="95">
         <f>(G32-F32)*1000000/C11</f>
         <v>9.6512190782793414</v>
       </c>
@@ -70152,9 +70668,9 @@
         <f>C6/C28</f>
         <v>2535.64988139774</v>
       </c>
-      <c r="H33" s="162"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="97">
+      <c r="J33" s="95">
         <f>(G33-F33)*1000000/C3</f>
         <v>9.6517915984824825</v>
       </c>
@@ -70182,9 +70698,9 @@
         <f>C18/C28</f>
         <v>474.45201054303197</v>
       </c>
-      <c r="H34" s="162"/>
+      <c r="H34" s="168"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="96">
+      <c r="J34" s="94">
         <f>(G34-F34)*1000000/C15</f>
         <v>-1.5335246883247386</v>
       </c>
@@ -70349,7 +70865,7 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="17"/>
-      <c r="N45" s="110"/>
+      <c r="N45" s="108"/>
     </row>
     <row r="46" spans="3:16">
       <c r="H46" s="2"/>
@@ -70368,7 +70884,7 @@
       <c r="N49" s="26"/>
     </row>
     <row r="50" spans="14:14">
-      <c r="N50" s="111"/>
+      <c r="N50" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -70675,7 +71191,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="25"/>
@@ -70699,7 +71215,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="161"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -70713,7 +71229,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="161"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -70753,11 +71269,11 @@
         <f>C10/C28</f>
         <v>297.07428018686801</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="18"/>
-      <c r="J31" s="97">
+      <c r="J31" s="95">
         <f>(G31-F31)*1000000/C7</f>
         <v>-7.8461716290177147E-2</v>
       </c>
@@ -70785,9 +71301,9 @@
         <f>C14/C28</f>
         <v>3175.64590002061</v>
       </c>
-      <c r="H32" s="162"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="97">
+      <c r="J32" s="95">
         <f>(G32-F32)*1000000/C11</f>
         <v>-7.8461716290127548E-2</v>
       </c>
@@ -70815,9 +71331,9 @@
         <f>C6/C28</f>
         <v>2024.8606877304699</v>
       </c>
-      <c r="H33" s="162"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="97">
+      <c r="J33" s="95">
         <f>(G33-F33)*1000000/C3</f>
         <v>-7.8466371266056545E-2</v>
       </c>
@@ -70845,9 +71361,9 @@
         <f>C18/C28</f>
         <v>240.08756788642401</v>
       </c>
-      <c r="H34" s="162"/>
+      <c r="H34" s="168"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="96">
+      <c r="J34" s="94">
         <f>(G34-F34)*1000000/C15</f>
         <v>-3.7743651017664668</v>
       </c>
@@ -71074,7 +71590,7 @@
         <f>E3/2</f>
         <v>158742235.39999962</v>
       </c>
-      <c r="O3" s="113"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -71091,7 +71607,7 @@
         <f>F42/2</f>
         <v>19882.351840887401</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -71100,7 +71616,7 @@
       <c r="C5">
         <v>52479566.753457703</v>
       </c>
-      <c r="O5" s="113"/>
+      <c r="O5" s="111"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -71120,7 +71636,7 @@
         <f>G4-H6</f>
         <v>-11228.041361112599</v>
       </c>
-      <c r="O6" s="113"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -71133,7 +71649,7 @@
         <f>J6/H6</f>
         <v>-0.36090965768927602</v>
       </c>
-      <c r="O7" s="113"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -71142,7 +71658,7 @@
       <c r="C8">
         <v>297678605.54315799</v>
       </c>
-      <c r="O8" s="113"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -71151,7 +71667,7 @@
       <c r="C9">
         <v>7702168.4569703899</v>
       </c>
-      <c r="O9" s="113"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -71160,7 +71676,7 @@
       <c r="C10">
         <v>402551815.166327</v>
       </c>
-      <c r="O10" s="113"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -71176,7 +71692,7 @@
         <f>(H12-H11)/H11</f>
         <v>0.17292016285616402</v>
       </c>
-      <c r="O11" s="113"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -71188,7 +71704,7 @@
       <c r="H12" s="1">
         <v>42.141114695835299</v>
       </c>
-      <c r="O12" s="113"/>
+      <c r="O12" s="111"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -71197,7 +71713,7 @@
       <c r="C13">
         <v>82334154.495839998</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -71206,7 +71722,7 @@
       <c r="C14">
         <v>4303172999.6103096</v>
       </c>
-      <c r="O14" s="113"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -71215,7 +71731,7 @@
       <c r="C15">
         <v>104587743.620995</v>
       </c>
-      <c r="O15" s="113"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -71224,7 +71740,7 @@
       <c r="C16">
         <v>634839897.48200595</v>
       </c>
-      <c r="O16" s="113"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
@@ -71233,7 +71749,7 @@
       <c r="C17">
         <v>93414458.712114796</v>
       </c>
-      <c r="O17" s="113"/>
+      <c r="O17" s="111"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
@@ -71246,7 +71762,7 @@
         <f>G19*1000000</f>
         <v>716345447.49972069</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="111"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -71259,7 +71775,7 @@
         <f>G20-F20</f>
         <v>716.34544749972065</v>
       </c>
-      <c r="O19" s="113"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -71276,7 +71792,7 @@
         <f>G37-G30-G39</f>
         <v>7106.1455796019764</v>
       </c>
-      <c r="O20" s="113"/>
+      <c r="O20" s="111"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -71285,7 +71801,7 @@
       <c r="C21">
         <v>12533404388.4767</v>
       </c>
-      <c r="O21" s="113"/>
+      <c r="O21" s="111"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -71298,7 +71814,7 @@
         <f>G28-F28</f>
         <v>13.965447768730023</v>
       </c>
-      <c r="O22" s="113"/>
+      <c r="O22" s="111"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -71307,7 +71823,7 @@
       <c r="C23">
         <v>1261273363.3510799</v>
       </c>
-      <c r="O23" s="113"/>
+      <c r="O23" s="111"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -71347,7 +71863,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="161" t="s">
+      <c r="J27" s="167" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="64"/>
@@ -71371,7 +71887,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="63"/>
-      <c r="J28" s="161"/>
+      <c r="J28" s="167"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -71385,7 +71901,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
-      <c r="J29" s="161"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -71401,7 +71917,7 @@
       </c>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
-      <c r="J30" s="115">
+      <c r="J30" s="113">
         <f>(G30-F30)*1000000/E3</f>
         <v>6.4278482491736577</v>
       </c>
@@ -71425,11 +71941,11 @@
         <f>C10/C28</f>
         <v>402.551815166327</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="168" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="63"/>
-      <c r="J31" s="116">
+      <c r="J31" s="114">
         <f>(G31-F31)*1000000/C7</f>
         <v>13.616062828158448</v>
       </c>
@@ -71457,9 +71973,9 @@
         <f>C14/C28</f>
         <v>4303.1729996103095</v>
       </c>
-      <c r="H32" s="162"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="63"/>
-      <c r="J32" s="116">
+      <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
         <v>13.61606282815842</v>
       </c>
@@ -71487,9 +72003,9 @@
         <f>C6/C28</f>
         <v>2743.7964161811901</v>
       </c>
-      <c r="H33" s="162"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="63"/>
-      <c r="J33" s="116">
+      <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
         <v>13.616870547023252</v>
       </c>
@@ -71517,9 +72033,9 @@
         <f>C18/C28</f>
         <v>734.82502518821707</v>
       </c>
-      <c r="H34" s="162"/>
+      <c r="H34" s="168"/>
       <c r="I34" s="63"/>
-      <c r="J34" s="114">
+      <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
         <v>0.9559927793120494</v>
       </c>

--- a/ProblemSets/Project/Chartsv4.xlsx
+++ b/ProblemSets/Project/Chartsv4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Documents/UChicago/Structural Estimation/Class Repository/StructEst_W19/ProblemSets/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617070FC-8B71-0A4B-8AC5-6394B8061C21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A468A61-D20F-E74E-BED7-C0985212398C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{392C2453-E47A-3548-8320-C75D9244874E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{392C2453-E47A-3548-8320-C75D9244874E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="170">
   <si>
     <t>print(hydroOut)</t>
   </si>
@@ -835,9 +835,6 @@
     <t>∆ Output</t>
   </si>
   <si>
-    <t>"Peakers"</t>
-  </si>
-  <si>
     <t>External Area Gains</t>
   </si>
   <si>
@@ -922,6 +919,36 @@
   <si>
     <t>Net Welfare Gain (NY only)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net Welfare Gain 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Including external areas)</t>
+    </r>
+  </si>
+  <si>
+    <t>Import Elasticity = 0</t>
+  </si>
+  <si>
+    <t>Imp. Elast. = -0.1</t>
+  </si>
+  <si>
+    <t>Imp. Elast. = -0.3</t>
+  </si>
+  <si>
+    <t>Imp. Elast. = -0.5</t>
+  </si>
+  <si>
+    <t>Peaking</t>
+  </si>
 </sst>
 </file>
 
@@ -936,7 +963,7 @@
     <numFmt numFmtId="169" formatCode="0.000000000000%"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,6 +1112,12 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1094,7 +1127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1404,43 +1437,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1488,12 +1484,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1885,27 +1901,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1986,7 +1981,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1990,7 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2108,8 +2103,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11928,9 +11959,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11370833635260652"/>
+          <c:x val="0.13055371332794732"/>
           <c:y val="2.4073987272667116E-2"/>
-          <c:w val="0.83852954892987663"/>
+          <c:w val="0.82168417117844961"/>
           <c:h val="0.82355413813742473"/>
         </c:manualLayout>
       </c:layout>
@@ -11946,7 +11977,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Exchange Elasticity = 0</c:v>
+                  <c:v>Import Elasticity = 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12035,7 +12066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Exch. Elast. = -0.1</c:v>
+                  <c:v>Imp. Elast. = -0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12128,7 +12159,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Exch. Elast. = -0.3</c:v>
+                  <c:v>Imp. Elast. = -0.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12221,7 +12252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Exch. Elast. = -0.5</c:v>
+                  <c:v>Imp. Elast. = -0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12353,13 +12384,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" i="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Demand Elasticity</a:t>
                 </a:r>
               </a:p>
@@ -12385,7 +12418,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -12423,7 +12456,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -12487,25 +12520,33 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Welfare Gain</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>[Bn.USD]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400" i="1"/>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12537,7 +12578,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -12569,7 +12610,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -12587,7 +12628,9 @@
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -12600,10 +12643,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16144212442407771"/>
-          <c:y val="5.909977118139359E-2"/>
-          <c:w val="0.20205605980773145"/>
-          <c:h val="0.24329665966628009"/>
+          <c:x val="0.14216458236838042"/>
+          <c:y val="5.426029595057856E-2"/>
+          <c:w val="0.27642921395388959"/>
+          <c:h val="0.19445469884446259"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -12630,7 +12673,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -12675,6 +12718,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -36516,16 +36560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>205945</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>605465</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29535</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36575,7 +36619,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD25F91-5BDD-A04A-8567-6294845F8C4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8156B5BE-D750-5D48-AF7F-D62D185A78A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36618,7 +36662,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DEEE0A-E4FF-9E42-BD2F-46FC84E949D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD25F91-5BDD-A04A-8567-6294845F8C4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36661,7 +36705,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790D8BDD-AECF-E445-B998-F5CAD880BBAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DEEE0A-E4FF-9E42-BD2F-46FC84E949D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36704,7 +36748,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC33FA69-BC13-D847-9C3C-347E98F257B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790D8BDD-AECF-E445-B998-F5CAD880BBAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36747,7 +36791,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBC17F-9F3E-A44A-A638-6F4E4D568044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC33FA69-BC13-D847-9C3C-347E98F257B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36790,7 +36834,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAACBF61-D3D3-E142-B9F3-57662936605F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBC17F-9F3E-A44A-A638-6F4E4D568044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36833,7 +36877,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3723DE1A-48A5-A04A-916F-353F45ED2315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAACBF61-D3D3-E142-B9F3-57662936605F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36876,7 +36920,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717EAEAC-0CF0-034D-A400-23565D4B1C73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3723DE1A-48A5-A04A-916F-353F45ED2315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36919,7 +36963,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA142CB-C2A3-EA4F-A5DF-B0EB0733747E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717EAEAC-0CF0-034D-A400-23565D4B1C73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36962,7 +37006,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C596A36C-C4D1-C948-BDD9-6068060B3A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA142CB-C2A3-EA4F-A5DF-B0EB0733747E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37135,7 +37179,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E9FF2F-DA2D-7142-AC80-884E41E8A2B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C596A36C-C4D1-C948-BDD9-6068060B3A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37178,6 +37222,49 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E9FF2F-DA2D-7142-AC80-884E41E8A2B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DF9805-C223-CE40-B633-C172D9D0DF9A}"/>
             </a:ext>
           </a:extLst>
@@ -37201,7 +37288,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37242,7 +37329,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37283,7 +37370,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37325,6 +37412,195 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16362</cdr:x>
+      <cdr:y>0.47019</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16362</cdr:x>
+      <cdr:y>0.79277</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0E3F4E-A6A8-9B41-A5B5-79945087DC50}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1377616" y="1929063"/>
+          <a:ext cx="0" cy="1323473"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15775</cdr:x>
+      <cdr:y>0.47019</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17633</cdr:x>
+      <cdr:y>0.47035</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A979B3-50BD-374F-ACBE-52A58B8B40A5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="1328155" y="1929063"/>
+          <a:ext cx="156409" cy="667"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15767</cdr:x>
+      <cdr:y>0.79277</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17625</cdr:x>
+      <cdr:y>0.79293</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B94879-DD2D-BB4C-89CC-1442AFC0D3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="1327484" y="3252536"/>
+          <a:ext cx="156409" cy="667"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13941</cdr:x>
+      <cdr:y>0.51254</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19498</cdr:x>
+      <cdr:y>0.59563</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A966D8-63BD-654F-B5D6-2CE3156E0766}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1173747" y="2102852"/>
+          <a:ext cx="467895" cy="340895"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>82%</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37405,7 +37681,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -37535,7 +37811,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37578,7 +37854,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37621,7 +37897,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37664,7 +37940,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37685,49 +37961,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D32E50F-1FA6-264C-9862-937EA44FF6FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8156B5BE-D750-5D48-AF7F-D62D185A78A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38087,13 +38320,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:U57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="118" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="68"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="8" width="10" style="1" hidden="1" customWidth="1"/>
@@ -38102,1179 +38335,1205 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="30" customHeight="1">
-      <c r="B3" s="190"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="191" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="192" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="187" t="s">
+      <c r="E3" s="185" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="187" t="s">
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="187" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
       <c r="U3" s="26"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198">
+      <c r="B4" s="188"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191">
         <v>-0.1</v>
       </c>
-      <c r="F4" s="199">
+      <c r="F4" s="192">
         <v>-0.3</v>
       </c>
-      <c r="G4" s="199">
+      <c r="G4" s="192">
         <v>-0.5</v>
       </c>
-      <c r="H4" s="200">
+      <c r="H4" s="193">
         <v>-1</v>
       </c>
-      <c r="I4" s="198">
+      <c r="I4" s="191">
         <f>E4</f>
         <v>-0.1</v>
       </c>
-      <c r="J4" s="199">
+      <c r="J4" s="192">
         <f t="shared" ref="J4:L4" si="0">F4</f>
         <v>-0.3</v>
       </c>
-      <c r="K4" s="199">
+      <c r="K4" s="192">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="L4" s="200">
+      <c r="L4" s="193">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="M4" s="198">
+      <c r="M4" s="191">
         <f>I4</f>
         <v>-0.1</v>
       </c>
-      <c r="N4" s="199">
+      <c r="N4" s="192">
         <f t="shared" ref="N4" si="1">J4</f>
         <v>-0.3</v>
       </c>
-      <c r="O4" s="199">
+      <c r="O4" s="192">
         <f t="shared" ref="O4" si="2">K4</f>
         <v>-0.5</v>
       </c>
-      <c r="P4" s="200">
+      <c r="P4" s="193">
         <f t="shared" ref="P4" si="3">L4</f>
         <v>-1</v>
       </c>
-      <c r="Q4" s="198">
+      <c r="Q4" s="191">
         <f>M4</f>
         <v>-0.1</v>
       </c>
-      <c r="R4" s="199">
+      <c r="R4" s="192">
         <f t="shared" ref="R4" si="4">N4</f>
         <v>-0.3</v>
       </c>
-      <c r="S4" s="199">
+      <c r="S4" s="192">
         <f t="shared" ref="S4" si="5">O4</f>
         <v>-0.5</v>
       </c>
-      <c r="T4" s="199">
+      <c r="T4" s="192">
         <f t="shared" ref="T4" si="6">P4</f>
         <v>-1</v>
       </c>
       <c r="U4" s="26"/>
     </row>
     <row r="5" spans="2:21" ht="10" customHeight="1">
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
       <c r="U5" s="26"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="202" t="str">
+      <c r="C6" s="195" t="str">
         <f>'0 -0.5'!H28</f>
         <v>[$/MWh]</v>
       </c>
-      <c r="D6" s="203">
+      <c r="D6" s="196">
         <f>'0 -0.5'!F28</f>
         <v>39.477220277561777</v>
       </c>
-      <c r="E6" s="204">
+      <c r="E6" s="197">
         <f>'0 -0.1'!$G28</f>
         <v>54.105676644261884</v>
       </c>
-      <c r="F6" s="205">
+      <c r="F6" s="198">
         <f>'0 -0.3'!$G28</f>
         <v>52.295135047397551</v>
       </c>
-      <c r="G6" s="205">
+      <c r="G6" s="198">
         <f>'0 -0.5'!$G28</f>
         <v>50.270947671249203</v>
       </c>
-      <c r="H6" s="206">
+      <c r="H6" s="199">
         <f>'0 -1'!$G28</f>
         <v>42.749462639467005</v>
       </c>
-      <c r="I6" s="204">
+      <c r="I6" s="197">
         <f>'-0.1 -0.1'!$G28</f>
         <v>53.4426680462918</v>
       </c>
-      <c r="J6" s="205">
+      <c r="J6" s="198">
         <f>'-0.1 -0.3'!$G28</f>
         <v>51.493267794191759</v>
       </c>
-      <c r="K6" s="205">
+      <c r="K6" s="198">
         <f>'-0.1 -0.5'!$G28</f>
         <v>48.994502294398472</v>
       </c>
-      <c r="L6" s="206">
+      <c r="L6" s="199">
         <f>'-0.1 -1'!$G28</f>
         <v>41.802459030988793</v>
       </c>
-      <c r="M6" s="204">
+      <c r="M6" s="197">
         <f>'-0.3 -0.1'!$G28</f>
         <v>52.510825945231673</v>
       </c>
-      <c r="N6" s="205">
+      <c r="N6" s="198">
         <f>'-0.3 -0.3'!$G28</f>
         <v>50.247586897695356</v>
       </c>
-      <c r="O6" s="205">
+      <c r="O6" s="198">
         <f>'-0.3 -0.5'!$G28</f>
         <v>47.168773260575492</v>
       </c>
-      <c r="P6" s="206">
+      <c r="P6" s="199">
         <f>'-0.3 -1'!$G28</f>
         <v>39.092088610403593</v>
       </c>
-      <c r="Q6" s="204">
+      <c r="Q6" s="197">
         <f>'-0.5 -0.1'!$G28</f>
         <v>51.235865079599328</v>
       </c>
-      <c r="R6" s="205">
+      <c r="R6" s="198">
         <f>'-0.5 -0.3'!$G28</f>
         <v>48.43784454117241</v>
       </c>
-      <c r="S6" s="205">
+      <c r="S6" s="198">
         <f>'-0.5 -0.5'!$G28</f>
         <v>44.958480644765231</v>
       </c>
-      <c r="T6" s="205">
+      <c r="T6" s="198">
         <f>'-0.5 -1'!$G28</f>
         <v>35.170942347565287</v>
       </c>
       <c r="U6" s="26"/>
     </row>
     <row r="7" spans="2:21" ht="10" customHeight="1">
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
       <c r="U7" s="26"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="207" t="str">
+      <c r="C8" s="200" t="str">
         <f>'0 -0.5'!H31</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D8" s="208">
+      <c r="D8" s="201">
         <f>'0 -0.5'!F37</f>
         <v>12533.4043884767</v>
       </c>
-      <c r="E8" s="209">
+      <c r="E8" s="202">
         <f>'0 -0.1'!$G37</f>
         <v>15677.236279381201</v>
       </c>
-      <c r="F8" s="210">
+      <c r="F8" s="203">
         <f>'0 -0.3'!$G37</f>
         <v>14546.4153514268</v>
       </c>
-      <c r="G8" s="210">
+      <c r="G8" s="203">
         <f>'0 -0.5'!$G37</f>
         <v>13505.8993706482</v>
       </c>
-      <c r="H8" s="211">
+      <c r="H8" s="204">
         <f>'0 -1'!$G37</f>
         <v>10607.2657550283</v>
       </c>
-      <c r="I8" s="209">
+      <c r="I8" s="202">
         <f>'-0.1 -0.1'!$G37</f>
         <v>16551.7651990991</v>
       </c>
-      <c r="J8" s="210">
+      <c r="J8" s="203">
         <f>'-0.1 -0.3'!$G37</f>
         <v>15267.229362032302</v>
       </c>
-      <c r="K8" s="210">
+      <c r="K8" s="203">
         <f>'-0.1 -0.5'!$G37</f>
         <v>13936.6109307757</v>
       </c>
-      <c r="L8" s="211">
+      <c r="L8" s="204">
         <f>'-0.1 -1'!$G37</f>
         <v>10626.200748161</v>
       </c>
-      <c r="M8" s="209">
+      <c r="M8" s="202">
         <f>'-0.3 -0.1'!$G37</f>
         <v>16276.0542006915</v>
       </c>
-      <c r="N8" s="210">
+      <c r="N8" s="203">
         <f>'-0.3 -0.3'!$G37</f>
         <v>14912.115907932899</v>
       </c>
-      <c r="O8" s="210">
+      <c r="O8" s="203">
         <f>'-0.3 -0.5'!$G37</f>
         <v>13401.8745696928</v>
       </c>
-      <c r="P8" s="211">
+      <c r="P8" s="204">
         <f>'-0.3 -1'!$G37</f>
         <v>9898.5751689183508</v>
       </c>
-      <c r="Q8" s="209">
+      <c r="Q8" s="202">
         <f>'-0.5 -0.1'!$G37</f>
         <v>15889.608388786501</v>
       </c>
-      <c r="R8" s="210">
+      <c r="R8" s="203">
         <f>'-0.5 -0.3'!$G37</f>
         <v>14366.981568699301</v>
       </c>
-      <c r="S8" s="210">
+      <c r="S8" s="203">
         <f>'-0.5 -0.5'!$G37</f>
         <v>12751.492957468599</v>
       </c>
-      <c r="T8" s="210">
+      <c r="T8" s="203">
         <f>'-0.5 -1'!$G37</f>
         <v>8834.2241734764903</v>
       </c>
       <c r="U8" s="26"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="208">
+      <c r="C9" s="205"/>
+      <c r="D9" s="201">
         <f>'0 -0.5'!F30</f>
         <v>6143.604256374444</v>
       </c>
-      <c r="E9" s="209">
+      <c r="E9" s="202">
         <f>'0 -0.1'!$G30</f>
         <v>8273.7792335883369</v>
       </c>
-      <c r="F9" s="210">
+      <c r="F9" s="203">
         <f>'0 -0.3'!$G30</f>
         <v>7826.3922395902828</v>
       </c>
-      <c r="G9" s="210">
+      <c r="G9" s="203">
         <f>'0 -0.5'!$G30</f>
         <v>7358.8467543958641</v>
       </c>
-      <c r="H9" s="211">
+      <c r="H9" s="204">
         <f>'0 -1'!$G30</f>
         <v>5737.668435824372</v>
       </c>
-      <c r="I9" s="209">
+      <c r="I9" s="202">
         <f>'-0.1 -0.1'!$G30</f>
         <v>8184.3462561460447</v>
       </c>
-      <c r="J9" s="210">
+      <c r="J9" s="203">
         <f>'-0.1 -0.3'!$G30</f>
         <v>7729.0520125972562</v>
       </c>
-      <c r="K9" s="210">
+      <c r="K9" s="203">
         <f>'-0.1 -0.5'!$G30</f>
         <v>7193.453879681394</v>
       </c>
-      <c r="L9" s="211">
+      <c r="L9" s="204">
         <f>'-0.1 -1'!$G30</f>
         <v>5510.9879399218362</v>
       </c>
-      <c r="M9" s="209">
+      <c r="M9" s="202">
         <f>'-0.3 -0.1'!$G30</f>
         <v>7982.3310258346646</v>
       </c>
-      <c r="N9" s="210">
+      <c r="N9" s="203">
         <f>'-0.3 -0.3'!$G30</f>
         <v>7482.8515189665195</v>
       </c>
-      <c r="O9" s="210">
+      <c r="O9" s="203">
         <f>'-0.3 -0.5'!$G30</f>
         <v>6850.3747317443267</v>
       </c>
-      <c r="P9" s="211">
+      <c r="P9" s="204">
         <f>'-0.3 -1'!$G30</f>
         <v>4979.1550339148644</v>
       </c>
-      <c r="Q9" s="209">
+      <c r="Q9" s="202">
         <f>'-0.5 -0.1'!$G30</f>
         <v>7725.8460821446679</v>
       </c>
-      <c r="R9" s="210">
+      <c r="R9" s="203">
         <f>'-0.5 -0.3'!$G30</f>
         <v>7143.4201146550768</v>
       </c>
-      <c r="S9" s="210">
+      <c r="S9" s="203">
         <f>'-0.5 -0.5'!$G30</f>
         <v>6422.1977401399809</v>
       </c>
-      <c r="T9" s="210">
+      <c r="T9" s="203">
         <f>'-0.5 -1'!$G30</f>
         <v>4334.1448976643587</v>
       </c>
       <c r="U9" s="26"/>
     </row>
     <row r="10" spans="2:21" ht="10" customHeight="1">
-      <c r="B10" s="175"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="179"/>
       <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="175" t="s">
+      <c r="B11" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="212"/>
-      <c r="D11" s="208" t="s">
+      <c r="C11" s="205"/>
+      <c r="D11" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="209">
+      <c r="E11" s="202">
         <f>'0 -0.1'!$G39</f>
         <v>1309.55949683532</v>
       </c>
-      <c r="F11" s="210">
+      <c r="F11" s="203">
         <f>'0 -0.3'!$G39</f>
         <v>1111.2539836067199</v>
       </c>
-      <c r="G11" s="210">
+      <c r="G11" s="203">
         <f>'0 -0.5'!$G39</f>
         <v>945.97308325003803</v>
       </c>
-      <c r="H11" s="211">
+      <c r="H11" s="204">
         <f>'0 -1'!$G39</f>
         <v>586.645929081502</v>
       </c>
-      <c r="I11" s="209">
+      <c r="I11" s="202">
         <f>'-0.1 -0.1'!$G39</f>
         <v>1261.27336335108</v>
       </c>
-      <c r="J11" s="210">
+      <c r="J11" s="203">
         <f>'-0.1 -0.3'!$G39</f>
         <v>1073.2790939727499</v>
       </c>
-      <c r="K11" s="210">
+      <c r="K11" s="203">
         <f>'-0.1 -0.5'!$G39</f>
         <v>908.59002410247399</v>
       </c>
-      <c r="L11" s="211">
+      <c r="L11" s="204">
         <f>'-0.1 -1'!$G39</f>
         <v>564.66900400892791</v>
       </c>
-      <c r="M11" s="209">
+      <c r="M11" s="202">
         <f>'-0.3 -0.1'!$G39</f>
         <v>1170.5228127130401</v>
       </c>
-      <c r="N11" s="210">
+      <c r="N11" s="203">
         <f>'-0.3 -0.3'!$G39</f>
         <v>998.74942357850205</v>
       </c>
-      <c r="O11" s="210">
+      <c r="O11" s="203">
         <f>'-0.3 -0.5'!$G39</f>
         <v>840.90503534068091</v>
       </c>
-      <c r="P11" s="211">
+      <c r="P11" s="204">
         <f>'-0.3 -1'!$G39</f>
         <v>521.93956221413794</v>
       </c>
-      <c r="Q11" s="209">
+      <c r="Q11" s="202">
         <f>'-0.5 -0.1'!$G39</f>
         <v>1088.043901301</v>
       </c>
-      <c r="R11" s="210">
+      <c r="R11" s="203">
         <f>'-0.5 -0.3'!$G39</f>
         <v>927.51145558452902</v>
       </c>
-      <c r="S11" s="210">
+      <c r="S11" s="203">
         <f>'-0.5 -0.5'!$G39</f>
         <v>779.44262921798895</v>
       </c>
-      <c r="T11" s="210">
+      <c r="T11" s="203">
         <f>'-0.5 -1'!$G39</f>
         <v>463.71866306171</v>
       </c>
       <c r="U11" s="26"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="177" t="s">
+      <c r="C12" s="206"/>
+      <c r="D12" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="209">
+      <c r="E12" s="202">
         <f>'0 -0.1'!$G40</f>
         <v>1204.4215865315409</v>
       </c>
-      <c r="F12" s="210">
+      <c r="F12" s="203">
         <f>'0 -0.3'!$G40</f>
         <v>1055.3521749741678</v>
       </c>
-      <c r="G12" s="210">
+      <c r="G12" s="203">
         <f>'0 -0.5'!$G40</f>
         <v>888.69241881784092</v>
       </c>
-      <c r="H12" s="211">
+      <c r="H12" s="204">
         <f>'0 -1'!$G40</f>
         <v>269.4173081729374</v>
       </c>
-      <c r="I12" s="209">
+      <c r="I12" s="202">
         <f>'-0.1 -0.1'!$G40</f>
         <v>1149.8333341942016</v>
       </c>
-      <c r="J12" s="210">
+      <c r="J12" s="203">
         <f>'-0.1 -0.3'!$G40</f>
         <v>989.33111266356741</v>
       </c>
-      <c r="K12" s="210">
+      <c r="K12" s="203">
         <f>'-0.1 -0.5'!$G40</f>
         <v>783.59736795471213</v>
       </c>
-      <c r="L12" s="211">
+      <c r="L12" s="204">
         <f>'-0.1 -1'!$G40</f>
         <v>191.44656676437432</v>
       </c>
-      <c r="M12" s="209">
+      <c r="M12" s="202">
         <f>'-0.3 -0.1'!$G40</f>
         <v>1073.110902679789</v>
       </c>
-      <c r="N12" s="210">
+      <c r="N12" s="203">
         <f>'-0.3 -0.3'!$G40</f>
         <v>886.76902927891626</v>
       </c>
-      <c r="O12" s="210">
+      <c r="O12" s="203">
         <f>'-0.3 -0.5'!$G40</f>
         <v>633.27751161639026</v>
       </c>
-      <c r="P12" s="211">
+      <c r="P12" s="204">
         <f>'-0.3 -1'!$G40</f>
         <v>-31.709490185042359</v>
       </c>
-      <c r="Q12" s="209">
+      <c r="Q12" s="202">
         <f>'-0.5 -0.1'!$G40</f>
         <v>968.13807779266574</v>
       </c>
-      <c r="R12" s="210">
+      <c r="R12" s="203">
         <f>'-0.5 -0.3'!$G40</f>
         <v>737.76542249929037</v>
       </c>
-      <c r="S12" s="210">
+      <c r="S12" s="203">
         <f>'-0.5 -0.5'!$G40</f>
         <v>451.2949379052539</v>
       </c>
-      <c r="T12" s="210">
+      <c r="T12" s="203">
         <f>'-0.5 -1'!$G40</f>
         <v>-354.55375239035709</v>
       </c>
       <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:21" ht="10" customHeight="1">
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="179"/>
+      <c r="T13" s="179"/>
       <c r="U13" s="26"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="176" t="str">
+      <c r="C14" s="169" t="str">
         <f>'0 -0.5'!H42</f>
         <v>[000 ton CO2]</v>
       </c>
-      <c r="D14" s="208">
+      <c r="D14" s="201">
         <f>'0 -0.5'!F42</f>
         <v>39764.703681774801</v>
       </c>
-      <c r="E14" s="209">
+      <c r="E14" s="202">
         <f>'0 -0.1'!$G42</f>
         <v>36376.6526898702</v>
       </c>
-      <c r="F14" s="210">
+      <c r="F14" s="203">
         <f>'0 -0.3'!$G42</f>
         <v>30868.166211297797</v>
       </c>
-      <c r="G14" s="210">
+      <c r="G14" s="203">
         <f>'0 -0.5'!$G42</f>
         <v>26277.0300902788</v>
       </c>
-      <c r="H14" s="211">
+      <c r="H14" s="204">
         <f>'0 -1'!$G42</f>
         <v>16295.7202522639</v>
       </c>
-      <c r="I14" s="209">
+      <c r="I14" s="202">
         <f>'-0.1 -0.1'!$G42</f>
         <v>36981.840347387551</v>
       </c>
-      <c r="J14" s="210">
+      <c r="J14" s="203">
         <f>'-0.1 -0.3'!$G42</f>
         <v>31515.300720462106</v>
       </c>
-      <c r="K14" s="210">
+      <c r="K14" s="203">
         <f>'-0.1 -0.5'!$G42</f>
         <v>26752.690810328389</v>
       </c>
-      <c r="L14" s="211">
+      <c r="L14" s="204">
         <f>'-0.1 -1'!$G42</f>
         <v>17134.046600581518</v>
       </c>
-      <c r="M14" s="209">
+      <c r="M14" s="202">
         <f>'-0.3 -0.1'!$G42</f>
         <v>38196.104424497542</v>
       </c>
-      <c r="N14" s="210">
+      <c r="N14" s="203">
         <f>'-0.3 -0.3'!$G42</f>
         <v>32770.468116800148</v>
       </c>
-      <c r="O14" s="210">
+      <c r="O14" s="203">
         <f>'-0.3 -0.5'!$G42</f>
         <v>27921.750485729426</v>
       </c>
-      <c r="P14" s="211">
+      <c r="P14" s="204">
         <f>'-0.3 -1'!$G42</f>
         <v>18894.654189590285</v>
       </c>
-      <c r="Q14" s="209">
+      <c r="Q14" s="202">
         <f>'-0.5 -0.1'!$G42</f>
         <v>39457.863108776975</v>
       </c>
-      <c r="R14" s="210">
+      <c r="R14" s="203">
         <f>'-0.5 -0.3'!$G42</f>
         <v>34063.741416933684</v>
       </c>
-      <c r="S14" s="210">
+      <c r="S14" s="203">
         <f>'-0.5 -0.5'!$G42</f>
         <v>29555.527316013759</v>
       </c>
-      <c r="T14" s="210">
+      <c r="T14" s="203">
         <f>'-0.5 -1'!$G42</f>
         <v>21017.478277815229</v>
       </c>
       <c r="U14" s="26"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="176" t="str">
+      <c r="C15" s="169" t="str">
         <f>C8</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D15" s="208">
+      <c r="D15" s="201">
         <f>'0 -0.5'!F43</f>
         <v>1431.5293325438927</v>
       </c>
-      <c r="E15" s="209">
+      <c r="E15" s="202">
         <f>'0 -0.1'!$G43</f>
         <v>1309.5594968353273</v>
       </c>
-      <c r="F15" s="210">
+      <c r="F15" s="203">
         <f>'0 -0.3'!$G43</f>
         <v>1111.2539836067208</v>
       </c>
-      <c r="G15" s="210">
+      <c r="G15" s="203">
         <f>'0 -0.5'!$G43</f>
         <v>945.97308325003678</v>
       </c>
-      <c r="H15" s="211">
+      <c r="H15" s="204">
         <f>'0 -1'!$G43</f>
         <v>586.64592908150041</v>
       </c>
-      <c r="I15" s="209">
+      <c r="I15" s="202">
         <f>'-0.1 -0.1'!$G43</f>
         <v>1331.3462525059517</v>
       </c>
-      <c r="J15" s="210">
+      <c r="J15" s="203">
         <f>'-0.1 -0.3'!$G43</f>
         <v>1134.5508259366356</v>
       </c>
-      <c r="K15" s="210">
+      <c r="K15" s="203">
         <f>'-0.1 -0.5'!$G43</f>
         <v>963.09686917182194</v>
       </c>
-      <c r="L15" s="211">
+      <c r="L15" s="204">
         <f>'-0.1 -1'!$G43</f>
         <v>616.8256776209347</v>
       </c>
-      <c r="M15" s="209">
+      <c r="M15" s="202">
         <f>'-0.3 -0.1'!$G43</f>
         <v>1375.0597592819115</v>
       </c>
-      <c r="N15" s="210">
+      <c r="N15" s="203">
         <f>'-0.3 -0.3'!$G43</f>
         <v>1179.7368522048052</v>
       </c>
-      <c r="O15" s="210">
+      <c r="O15" s="203">
         <f>'-0.3 -0.5'!$G43</f>
         <v>1005.1830174862594</v>
       </c>
-      <c r="P15" s="211">
+      <c r="P15" s="204">
         <f>'-0.3 -1'!$G43</f>
         <v>680.20755082525022</v>
       </c>
-      <c r="Q15" s="209">
+      <c r="Q15" s="202">
         <f>'-0.5 -0.1'!$G43</f>
         <v>1420.4830719159711</v>
       </c>
-      <c r="R15" s="210">
+      <c r="R15" s="203">
         <f>'-0.5 -0.3'!$G43</f>
         <v>1226.2946910096127</v>
       </c>
-      <c r="S15" s="210">
+      <c r="S15" s="203">
         <f>'-0.5 -0.5'!$G43</f>
         <v>1063.9989833764953</v>
       </c>
-      <c r="T15" s="210">
+      <c r="T15" s="203">
         <f>'-0.5 -1'!$G43</f>
         <v>756.62921800134825</v>
       </c>
       <c r="U15" s="26"/>
     </row>
     <row r="16" spans="2:21" ht="10" customHeight="1">
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="179"/>
+      <c r="T16" s="179"/>
       <c r="U16" s="26"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="214" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="215" t="str">
+      <c r="B17" s="207" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="208" t="str">
         <f>C15</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D17" s="216" t="s">
+      <c r="D17" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="217">
+      <c r="E17" s="210">
         <f>($D$8-E8)-($D$9-E9)+E11+E12+($D$15-E15)</f>
         <v>1622.2940053848181</v>
       </c>
-      <c r="F17" s="218">
+      <c r="F17" s="211">
         <f t="shared" ref="F17:H17" si="7">($D$8-F8)-($D$9-F9)+F11+F12+($D$15-F15)</f>
         <v>2156.658527783798</v>
       </c>
-      <c r="G17" s="218">
+      <c r="G17" s="211">
         <f t="shared" si="7"/>
         <v>2562.9692672116553</v>
       </c>
-      <c r="H17" s="219">
+      <c r="H17" s="212">
         <f t="shared" si="7"/>
         <v>3221.149453615159</v>
       </c>
-      <c r="I17" s="217">
+      <c r="I17" s="210">
         <f>($D$8-I8)-($D$9-I9)+I11+I12+($D$15-I15)</f>
         <v>533.67096673242304</v>
       </c>
-      <c r="J17" s="218">
+      <c r="J17" s="211">
         <f t="shared" ref="J17:L17" si="8">($D$8-J8)-($D$9-J9)+J11+J12+($D$15-J15)</f>
         <v>1211.2114959107846</v>
       </c>
-      <c r="K17" s="218">
+      <c r="K17" s="211">
         <f t="shared" si="8"/>
         <v>1807.2629364372069</v>
       </c>
-      <c r="L17" s="219">
+      <c r="L17" s="212">
         <f t="shared" si="8"/>
         <v>2845.4065495593522</v>
       </c>
-      <c r="M17" s="217">
+      <c r="M17" s="210">
         <f>($D$8-M8)-($D$9-M9)+M11+M12+($D$15-M15)</f>
         <v>396.18024590023037</v>
       </c>
-      <c r="N17" s="218">
+      <c r="N17" s="211">
         <f t="shared" ref="N17:P17" si="9">($D$8-N8)-($D$9-N9)+N11+N12+($D$15-N15)</f>
         <v>1097.8466763323818</v>
       </c>
-      <c r="O17" s="218">
+      <c r="O17" s="211">
         <f t="shared" si="9"/>
         <v>1738.8291561684871</v>
       </c>
-      <c r="P17" s="219">
+      <c r="P17" s="212">
         <f t="shared" si="9"/>
         <v>2711.9318508465071</v>
       </c>
-      <c r="Q17" s="217">
+      <c r="Q17" s="210">
         <f>($D$8-Q8)-($D$9-Q9)+Q11+Q12+($D$15-Q15)</f>
         <v>293.26606518201027</v>
       </c>
-      <c r="R17" s="218">
+      <c r="R17" s="211">
         <f t="shared" ref="R17:T17" si="10">($D$8-R8)-($D$9-R9)+R11+R12+($D$15-R15)</f>
         <v>1036.7501976761312</v>
       </c>
-      <c r="S17" s="218">
+      <c r="S17" s="211">
         <f t="shared" si="10"/>
         <v>1658.7728310642774</v>
       </c>
-      <c r="T17" s="218">
+      <c r="T17" s="211">
         <f t="shared" si="10"/>
         <v>2673.7858815040213</v>
       </c>
       <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" ht="10" customHeight="1">
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
       <c r="U18" s="26"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="176" t="str">
+      <c r="C19" s="169" t="str">
         <f>'0 -0.5'!H45</f>
         <v>[TWh/year]</v>
       </c>
-      <c r="D19" s="208">
+      <c r="D19" s="201">
         <f>'0 -0.5'!F45</f>
         <v>158.74223539999963</v>
       </c>
-      <c r="E19" s="209">
+      <c r="E19" s="202">
         <f>'0 -0.1'!$G45</f>
         <v>154.78475253968548</v>
       </c>
-      <c r="F19" s="210">
+      <c r="F19" s="203">
         <f>'0 -0.3'!$G45</f>
         <v>148.11365318646099</v>
       </c>
-      <c r="G19" s="210">
+      <c r="G19" s="203">
         <f>'0 -0.5'!$G45</f>
         <v>142.31180000861048</v>
       </c>
-      <c r="H19" s="211">
+      <c r="H19" s="204">
         <f>'0 -1'!$G45</f>
         <v>127.3466021721015</v>
       </c>
-      <c r="I19" s="209">
+      <c r="I19" s="202">
         <f>'-0.1 -0.1'!$G45</f>
         <v>154.855341286124</v>
       </c>
-      <c r="J19" s="210">
+      <c r="J19" s="203">
         <f>'-0.1 -0.3'!$G45</f>
         <v>148.24490672307249</v>
       </c>
-      <c r="K19" s="210">
+      <c r="K19" s="203">
         <f>'-0.1 -0.5'!$G45</f>
         <v>142.22627313400702</v>
       </c>
-      <c r="L19" s="211">
+      <c r="L19" s="204">
         <f>'-0.1 -1'!$G45</f>
         <v>127.10018733926199</v>
       </c>
-      <c r="M19" s="209">
+      <c r="M19" s="202">
         <f>'-0.3 -0.1'!$G45</f>
         <v>154.97808221172602</v>
       </c>
-      <c r="N19" s="210">
+      <c r="N19" s="203">
         <f>'-0.3 -0.3'!$G45</f>
         <v>148.38638856721749</v>
       </c>
-      <c r="O19" s="210">
+      <c r="O19" s="203">
         <f>'-0.3 -0.5'!$G45</f>
         <v>142.06299680147001</v>
       </c>
-      <c r="P19" s="211">
+      <c r="P19" s="204">
         <f>'-0.3 -1'!$G45</f>
         <v>126.6058622189355</v>
       </c>
-      <c r="Q19" s="209">
+      <c r="Q19" s="202">
         <f>'-0.5 -0.1'!$G45</f>
         <v>155.06333663050899</v>
       </c>
-      <c r="R19" s="210">
+      <c r="R19" s="203">
         <f>'-0.5 -0.3'!$G45</f>
         <v>148.30327097324999</v>
       </c>
-      <c r="S19" s="210">
+      <c r="S19" s="203">
         <f>'-0.5 -0.5'!$G45</f>
         <v>141.81410019416799</v>
       </c>
-      <c r="T19" s="210">
+      <c r="T19" s="203">
         <f>'-0.5 -1'!$G45</f>
         <v>125.589813405839</v>
       </c>
       <c r="U19" s="26"/>
     </row>
     <row r="20" spans="2:21" ht="10" customHeight="1">
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="179"/>
+      <c r="T20" s="179"/>
       <c r="U20" s="26"/>
     </row>
     <row r="21" spans="2:21" ht="3" customHeight="1">
-      <c r="B21" s="220"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="225"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="223"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="224"/>
-      <c r="T21" s="224"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
       <c r="U21" s="26"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="226" t="str">
+      <c r="B22" s="174" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="219" t="str">
         <f>C15</f>
         <v>[MMUSD]</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="183" t="s">
+      <c r="E22" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="183">
-        <v>1121.6060964645501</v>
-      </c>
-      <c r="J22" s="184">
-        <v>941.04224488716989</v>
-      </c>
-      <c r="K22" s="184">
-        <v>713.12139931798981</v>
-      </c>
-      <c r="L22" s="185">
-        <v>-50.284689952189922</v>
-      </c>
-      <c r="M22" s="183">
-        <v>1338.6081486806402</v>
-      </c>
-      <c r="N22" s="184">
-        <v>1063.5809295096201</v>
-      </c>
-      <c r="O22" s="184">
-        <v>727.67814866144988</v>
-      </c>
-      <c r="P22" s="185">
-        <v>-245.57756873094988</v>
-      </c>
-      <c r="Q22" s="183">
-        <v>1460.4528167706899</v>
-      </c>
-      <c r="R22" s="184">
-        <v>1061.04072978367</v>
-      </c>
-      <c r="S22" s="184">
-        <v>627.73444477622991</v>
-      </c>
-      <c r="T22" s="184">
-        <v>-566.75855870477005</v>
+      <c r="I22" s="176">
+        <f>'-0.1 -0.1'!J25</f>
+        <v>1006.530391447818</v>
+      </c>
+      <c r="J22" s="177">
+        <f>'-0.1 -0.3'!J25</f>
+        <v>863.45457289794774</v>
+      </c>
+      <c r="K22" s="177">
+        <f>'-0.1 -0.5'!J25</f>
+        <v>682.32835759302952</v>
+      </c>
+      <c r="L22" s="178">
+        <f>'-0.1 -1'!J25</f>
+        <v>166.57161745604216</v>
+      </c>
+      <c r="M22" s="176">
+        <f>'-0.3 -0.1'!J25</f>
+        <v>982.07332075614272</v>
+      </c>
+      <c r="N22" s="177">
+        <f>'-0.3 -0.3'!J25</f>
+        <v>805.35956074866658</v>
+      </c>
+      <c r="O22" s="177">
+        <f>'-0.3 -0.5'!J25</f>
+        <v>572.00811056470764</v>
+      </c>
+      <c r="P22" s="178">
+        <f>'-0.3 -1'!J25</f>
+        <v>-28.585207352159269</v>
+      </c>
+      <c r="Q22" s="176">
+        <f>'-0.5 -0.1'!J25</f>
+        <v>922.65200823421958</v>
+      </c>
+      <c r="R22" s="177">
+        <f>'-0.5 -0.3'!J25</f>
+        <v>695.75456407637944</v>
+      </c>
+      <c r="S22" s="177">
+        <f>'-0.5 -0.5'!J25</f>
+        <v>423.69655008296667</v>
+      </c>
+      <c r="T22" s="177">
+        <f>'-0.5 -1'!J25</f>
+        <v>-333.7480492466957</v>
       </c>
       <c r="U22" s="26"/>
     </row>
     <row r="23" spans="2:21" ht="5" customHeight="1">
-      <c r="B23" s="190"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="210"/>
-      <c r="O23" s="210"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="210"/>
-      <c r="S23" s="210"/>
-      <c r="T23" s="210"/>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="190" t="s">
+      <c r="B23" s="183"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="224"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="224"/>
+      <c r="S23" s="224"/>
+      <c r="T23" s="224"/>
+    </row>
+    <row r="24" spans="2:21" ht="34" customHeight="1">
+      <c r="B24" s="220" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="177" t="s">
+      <c r="C24" s="205"/>
+      <c r="D24" s="222" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="209" t="e">
+      <c r="E24" s="223" t="e">
         <f>($D$8-E15)-($D$9-E16)+E18+E19+($D$15-E22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="210" t="e">
+      <c r="F24" s="224" t="e">
         <f t="shared" ref="F24:H24" si="11">($D$8-F15)-($D$9-F16)+F18+F19+($D$15-F22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G24" s="210" t="e">
+      <c r="G24" s="224" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H24" s="211" t="e">
+      <c r="H24" s="225" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" s="209">
+      <c r="I24" s="223">
         <f>I22+I17</f>
-        <v>1655.2770631969731</v>
-      </c>
-      <c r="J24" s="210">
-        <f t="shared" ref="J24:L24" si="12">($D$8-J15)-($D$9-J16)+J18+J19+($D$15-J22)</f>
-        <v>5893.9813005454153</v>
-      </c>
-      <c r="K24" s="210">
+        <v>1540.2013581802412</v>
+      </c>
+      <c r="J24" s="224">
+        <f t="shared" ref="J24:T24" si="12">J22+J17</f>
+        <v>2074.6660688087322</v>
+      </c>
+      <c r="K24" s="224">
         <f t="shared" si="12"/>
-        <v>6287.3374692903426</v>
-      </c>
-      <c r="L24" s="211">
+        <v>2489.5912940302364</v>
+      </c>
+      <c r="L24" s="225">
         <f t="shared" si="12"/>
-        <v>7381.8886643166661</v>
-      </c>
-      <c r="M24" s="209">
-        <f>($D$8-M15)-($D$9-M16)+M18+M19+($D$15-M22)</f>
-        <v>5262.6396388953226</v>
-      </c>
-      <c r="N24" s="210">
-        <f t="shared" ref="N24:P24" si="13">($D$8-N15)-($D$9-N16)+N18+N19+($D$15-N22)</f>
-        <v>5726.3980714989402</v>
-      </c>
-      <c r="O24" s="210">
-        <f t="shared" si="13"/>
-        <v>6230.5312952999093</v>
-      </c>
-      <c r="P24" s="211">
-        <f t="shared" si="13"/>
-        <v>7513.3053447707825</v>
-      </c>
-      <c r="Q24" s="209">
-        <f>($D$8-Q15)-($D$9-Q16)+Q18+Q19+($D$15-Q22)</f>
-        <v>5095.456912589997</v>
-      </c>
-      <c r="R24" s="210">
-        <f t="shared" ref="R24:T24" si="14">($D$8-R15)-($D$9-R16)+R18+R19+($D$15-R22)</f>
-        <v>5682.2973148261153</v>
-      </c>
-      <c r="S24" s="210">
-        <f t="shared" si="14"/>
-        <v>6271.4101366875902</v>
-      </c>
-      <c r="T24" s="210">
-        <f t="shared" si="14"/>
-        <v>7757.0486187554088</v>
+        <v>3011.9781670153943</v>
+      </c>
+      <c r="M24" s="223">
+        <f t="shared" si="12"/>
+        <v>1378.2535666563731</v>
+      </c>
+      <c r="N24" s="224">
+        <f t="shared" si="12"/>
+        <v>1903.2062370810484</v>
+      </c>
+      <c r="O24" s="224">
+        <f t="shared" si="12"/>
+        <v>2310.8372667331946</v>
+      </c>
+      <c r="P24" s="225">
+        <f t="shared" si="12"/>
+        <v>2683.346643494348</v>
+      </c>
+      <c r="Q24" s="223">
+        <f t="shared" si="12"/>
+        <v>1215.9180734162298</v>
+      </c>
+      <c r="R24" s="224">
+        <f t="shared" si="12"/>
+        <v>1732.5047617525106</v>
+      </c>
+      <c r="S24" s="224">
+        <f t="shared" si="12"/>
+        <v>2082.4693811472439</v>
+      </c>
+      <c r="T24" s="224">
+        <f t="shared" si="12"/>
+        <v>2340.0378322573256</v>
       </c>
       <c r="U24" s="26"/>
     </row>
     <row r="25" spans="2:21" ht="6" customHeight="1">
-      <c r="B25" s="190"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
-      <c r="P25" s="211"/>
-      <c r="Q25" s="209"/>
-      <c r="R25" s="210"/>
-      <c r="S25" s="210"/>
-      <c r="T25" s="210"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="203"/>
+      <c r="O25" s="203"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
       <c r="U25" s="26"/>
     </row>
-    <row r="26" spans="2:21" ht="15" customHeight="1"/>
+    <row r="26" spans="2:21" ht="33" customHeight="1">
+      <c r="B26" s="220"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+    </row>
     <row r="28" spans="2:21" ht="30" customHeight="1">
       <c r="B28" s="26"/>
       <c r="C28" s="71"/>
-      <c r="D28" s="160" t="s">
+      <c r="D28" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="154" t="s">
+      <c r="E28" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="29"/>
       <c r="C29" s="70"/>
-      <c r="D29" s="161"/>
+      <c r="D29" s="154"/>
       <c r="E29" s="72">
         <f>I4</f>
         <v>-0.1</v>
       </c>
       <c r="F29" s="73">
-        <f t="shared" ref="F29:H29" si="15">J4</f>
+        <f t="shared" ref="F29:H29" si="13">J4</f>
         <v>-0.3</v>
       </c>
       <c r="G29" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-0.5</v>
       </c>
       <c r="H29" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
@@ -39386,7 +39645,7 @@
       <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="157" t="str">
+      <c r="C33" s="150" t="str">
         <f>C8</f>
         <v>[MMUSD]</v>
       </c>
@@ -39422,7 +39681,7 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="158"/>
+      <c r="C34" s="151"/>
       <c r="D34" s="81">
         <f>D9</f>
         <v>6143.604256374444</v>
@@ -39449,7 +39708,7 @@
       <c r="L34" s="38"/>
     </row>
     <row r="35" spans="2:19" ht="10" customHeight="1">
-      <c r="C35" s="158"/>
+      <c r="C35" s="151"/>
       <c r="D35" s="76"/>
       <c r="E35" s="77"/>
       <c r="F35" s="39"/>
@@ -39464,7 +39723,7 @@
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="158"/>
+      <c r="C36" s="151"/>
       <c r="D36" s="81" t="str">
         <f>D11</f>
         <v>-</v>
@@ -39498,7 +39757,7 @@
       <c r="B37" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="159"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="76" t="str">
         <f>D12</f>
         <v>-</v>
@@ -39701,36 +39960,36 @@
         <v>-0.1</v>
       </c>
       <c r="O46">
-        <f t="shared" ref="O46:Q46" si="16">J4</f>
+        <f t="shared" ref="O46:Q46" si="14">J4</f>
         <v>-0.3</v>
       </c>
       <c r="P46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-0.5</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="2:19">
       <c r="M47" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="N47" s="49">
         <f>E17</f>
         <v>1622.2940053848181</v>
       </c>
       <c r="O47" s="49">
-        <f t="shared" ref="O47:Q47" si="17">F17</f>
+        <f t="shared" ref="O47:Q47" si="15">F17</f>
         <v>2156.658527783798</v>
       </c>
       <c r="P47" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2562.9692672116553</v>
       </c>
       <c r="Q47" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3221.149453615159</v>
       </c>
       <c r="S47" s="22">
@@ -39740,49 +39999,49 @@
     </row>
     <row r="48" spans="2:19">
       <c r="M48" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="N48" s="49">
         <f>I17</f>
         <v>533.67096673242304</v>
       </c>
       <c r="O48" s="49">
-        <f t="shared" ref="O48:Q48" si="18">J17</f>
+        <f t="shared" ref="O48:Q48" si="16">J17</f>
         <v>1211.2114959107846</v>
       </c>
       <c r="P48" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1807.2629364372069</v>
       </c>
       <c r="Q48" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2845.4065495593522</v>
       </c>
     </row>
     <row r="49" spans="13:17">
       <c r="M49" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="N49" s="49">
         <f>M17</f>
         <v>396.18024590023037</v>
       </c>
       <c r="O49" s="49">
-        <f t="shared" ref="O49:Q49" si="19">N17</f>
+        <f t="shared" ref="O49:Q49" si="17">N17</f>
         <v>1097.8466763323818</v>
       </c>
       <c r="P49" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1738.8291561684871</v>
       </c>
       <c r="Q49" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2711.9318508465071</v>
       </c>
     </row>
     <row r="50" spans="13:17">
       <c r="M50" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="N50" s="49">
         <f>Q17</f>
@@ -39803,107 +40062,107 @@
     </row>
     <row r="53" spans="13:17">
       <c r="N53">
-        <f t="shared" ref="N53:Q53" si="20">N46</f>
+        <f t="shared" ref="N53:Q53" si="18">N46</f>
         <v>-0.1</v>
       </c>
       <c r="O53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-0.3</v>
       </c>
       <c r="P53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-0.5</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
     </row>
     <row r="54" spans="13:17">
       <c r="M54" t="str">
-        <f t="shared" ref="M54" si="21">M47</f>
-        <v>Exchange Elasticity = 0</v>
+        <f t="shared" ref="M54" si="19">M47</f>
+        <v>Import Elasticity = 0</v>
       </c>
       <c r="N54" s="21">
         <f>E17/E8</f>
         <v>0.10348086719331195</v>
       </c>
       <c r="O54" s="21">
-        <f t="shared" ref="O54:Q54" si="22">F17/F8</f>
+        <f t="shared" ref="O54:Q54" si="20">F17/F8</f>
         <v>0.14826048037823009</v>
       </c>
       <c r="P54" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.18976664914160757</v>
       </c>
       <c r="Q54" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.30367387109992938</v>
       </c>
     </row>
     <row r="55" spans="13:17">
       <c r="M55" t="str">
-        <f t="shared" ref="M55" si="23">M48</f>
-        <v>Exch. Elast. = -0.1</v>
+        <f t="shared" ref="M55" si="21">M48</f>
+        <v>Imp. Elast. = -0.1</v>
       </c>
       <c r="N55" s="21">
         <f>I17/I8</f>
         <v>3.2242540920135232E-2</v>
       </c>
       <c r="O55" s="21">
-        <f t="shared" ref="O55:Q55" si="24">J17/J8</f>
+        <f t="shared" ref="O55:Q55" si="22">J17/J8</f>
         <v>7.9334073471308206E-2</v>
       </c>
       <c r="P55" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.12967736169245389</v>
       </c>
       <c r="Q55" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.26777270795037317</v>
       </c>
     </row>
     <row r="56" spans="13:17">
       <c r="M56" t="str">
-        <f t="shared" ref="M56" si="25">M49</f>
-        <v>Exch. Elast. = -0.3</v>
+        <f t="shared" ref="M56" si="23">M49</f>
+        <v>Imp. Elast. = -0.3</v>
       </c>
       <c r="N56" s="21">
         <f>M17/M8</f>
         <v>2.434129556311003E-2</v>
       </c>
       <c r="O56" s="21">
-        <f t="shared" ref="O56:Q56" si="26">N17/N8</f>
+        <f t="shared" ref="O56:Q56" si="24">N17/N8</f>
         <v>7.3621120108673027E-2</v>
       </c>
       <c r="P56" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.12974521938152603</v>
       </c>
       <c r="Q56" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.27397194086700549</v>
       </c>
     </row>
     <row r="57" spans="13:17">
       <c r="M57" t="str">
         <f>M50</f>
-        <v>Exch. Elast. = -0.5</v>
+        <v>Imp. Elast. = -0.5</v>
       </c>
       <c r="N57" s="21">
         <f>Q17/Q8</f>
         <v>1.8456469033495619E-2</v>
       </c>
       <c r="O57" s="21">
-        <f t="shared" ref="O57:Q57" si="27">R17/R8</f>
+        <f t="shared" ref="O57:Q57" si="25">R17/R8</f>
         <v>7.2162005130907411E-2</v>
       </c>
       <c r="P57" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.13008459767001068</v>
       </c>
       <c r="Q57" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.30266221786987085</v>
       </c>
     </row>
@@ -39933,8 +40192,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40221,6 +40480,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>863.45457289794774</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -40244,7 +40507,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -40268,7 +40531,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -40282,7 +40545,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -40322,7 +40585,7 @@
         <f>C10/C28</f>
         <v>386.25740058314102</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -40354,7 +40617,7 @@
         <f>C14/C28</f>
         <v>4128.98999449865</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
@@ -40384,7 +40647,7 @@
         <f>C6/C28</f>
         <v>2632.7335550707598</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
@@ -40414,7 +40677,7 @@
         <f>C18/C28</f>
         <v>581.07106244470594</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
@@ -40618,8 +40881,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40883,6 +41146,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>682.32835759302952</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -40906,7 +41173,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -40930,7 +41197,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -40944,7 +41211,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -40984,7 +41251,7 @@
         <f>C10/C28</f>
         <v>364.58143016867797</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -41016,7 +41283,7 @@
         <f>C14/C28</f>
         <v>3897.2795733462099</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -41046,7 +41313,7 @@
         <f>C6/C28</f>
         <v>2484.9899660443302</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -41076,7 +41343,7 @@
         <f>C18/C28</f>
         <v>446.60291012217601</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -41268,8 +41535,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -41533,6 +41800,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>166.57161745604216</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -41556,7 +41827,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -41580,7 +41851,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -41594,7 +41865,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -41634,7 +41905,7 @@
         <f>C10/C28</f>
         <v>285.22074335446399</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -41666,7 +41937,7 @@
         <f>C14/C28</f>
         <v>3048.93470974512</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -41696,7 +41967,7 @@
         <f>C6/C28</f>
         <v>1944.0668851483802</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -41726,7 +41997,7 @@
         <f>C18/C28</f>
         <v>232.765601673872</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -41918,8 +42189,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42206,6 +42477,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>982.07332075614272</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -42229,7 +42504,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -42253,7 +42528,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -42267,7 +42542,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -42307,7 +42582,7 @@
         <f>C10/C28</f>
         <v>394.64957530335499</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -42339,7 +42614,7 @@
         <f>C14/C28</f>
         <v>4218.7001344196797</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
@@ -42369,7 +42644,7 @@
         <f>C6/C28</f>
         <v>2689.9346855930798</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
@@ -42399,7 +42674,7 @@
         <f>C18/C28</f>
         <v>679.04663051855005</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
@@ -42603,8 +42878,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42891,6 +43166,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>805.35956074866658</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -42914,7 +43193,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -42938,7 +43217,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -42952,7 +43231,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -42992,7 +43271,7 @@
         <f>C10/C28</f>
         <v>374.91036973230302</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -43024,7 +43303,7 @@
         <f>C14/C28</f>
         <v>4007.6932199134999</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
@@ -43054,7 +43333,7 @@
         <f>C6/C28</f>
         <v>2555.39210134729</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
@@ -43084,7 +43363,7 @@
         <f>C18/C28</f>
         <v>544.85582797342602</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
@@ -43288,8 +43567,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43553,6 +43832,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>572.00811056470764</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -43576,7 +43859,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -43600,7 +43883,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -43614,7 +43897,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -43654,7 +43937,7 @@
         <f>C10/C28</f>
         <v>347.621528728626</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -43686,7 +43969,7 @@
         <f>C14/C28</f>
         <v>3715.9826888129001</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -43716,7 +43999,7 @@
         <f>C6/C28</f>
         <v>2369.3911411486001</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -43746,7 +44029,7 @@
         <f>C18/C28</f>
         <v>417.37937305420002</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -43938,8 +44221,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44203,6 +44486,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>-28.585207352159269</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -44226,7 +44513,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -44250,7 +44537,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -44264,7 +44551,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -44304,7 +44591,7 @@
         <f>C10/C28</f>
         <v>257.55959839255399</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -44336,7 +44623,7 @@
         <f>C14/C28</f>
         <v>2753.2443472775403</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -44366,7 +44653,7 @@
         <f>C6/C28</f>
         <v>1755.5282981538501</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -44396,7 +44683,7 @@
         <f>C18/C28</f>
         <v>212.82279009091999</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -44588,8 +44875,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44853,6 +45140,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>922.65200823421958</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -44876,7 +45167,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -44900,7 +45191,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -44914,7 +45205,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -44954,7 +45245,7 @@
         <f>C10/C28</f>
         <v>383.13688780211004</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -44986,7 +45277,7 @@
         <f>C14/C28</f>
         <v>4095.63253382313</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -45016,7 +45307,7 @@
         <f>C6/C28</f>
         <v>2611.4641148053497</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -45046,7 +45337,7 @@
         <f>C18/C28</f>
         <v>635.6125457140779</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -45238,8 +45529,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45503,6 +45794,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>695.75456407637944</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -45526,7 +45821,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -45550,7 +45845,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -45564,7 +45859,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -45604,7 +45899,7 @@
         <f>C10/C28</f>
         <v>358.12144049687203</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -45636,7 +45931,7 @@
         <f>C14/C28</f>
         <v>3828.2239832677201</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -45666,7 +45961,7 @@
         <f>C6/C28</f>
         <v>2440.9586243758704</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -45696,7 +45991,7 @@
         <f>C18/C28</f>
         <v>516.11606651461398</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -45888,8 +46183,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46153,6 +46448,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>423.69655008296667</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -46176,7 +46475,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -46200,7 +46499,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -46214,7 +46513,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -46254,7 +46553,7 @@
         <f>C10/C28</f>
         <v>325.538178197891</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -46286,7 +46585,7 @@
         <f>C14/C28</f>
         <v>3479.9174813917798</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -46316,7 +46615,7 @@
         <f>C6/C28</f>
         <v>2218.8708459550699</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -46346,7 +46645,7 @@
         <f>C18/C28</f>
         <v>397.87123459523997</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -46539,7 +46838,7 @@
   <dimension ref="B3:W52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46555,39 +46854,39 @@
     <row r="3" spans="2:23" ht="30" customHeight="1">
       <c r="B3" s="26"/>
       <c r="C3" s="141"/>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="154" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="154" t="s">
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="154" t="s">
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
       <c r="U3" s="26"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="29"/>
       <c r="C4" s="70"/>
-      <c r="D4" s="161"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="72">
         <v>-0.1</v>
       </c>
@@ -46774,7 +47073,7 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="157" t="str">
+      <c r="C8" s="150" t="str">
         <f>'0 -0.5'!H31</f>
         <v>[MMUSD]</v>
       </c>
@@ -46852,7 +47151,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="158"/>
+      <c r="C9" s="151"/>
       <c r="D9" s="81">
         <f>'0 -0.5'!F30</f>
         <v>6143.604256374444</v>
@@ -46927,7 +47226,7 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="10" customHeight="1">
-      <c r="C10" s="158"/>
+      <c r="C10" s="151"/>
       <c r="D10" s="76"/>
       <c r="E10" s="77"/>
       <c r="F10" s="39"/>
@@ -46954,7 +47253,7 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="158"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="81" t="s">
         <v>94</v>
       </c>
@@ -47032,7 +47331,7 @@
       <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="76" t="s">
         <v>94</v>
       </c>
@@ -47477,7 +47776,7 @@
       <c r="U19" s="26"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="C20" s="174"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
@@ -47500,20 +47799,20 @@
     <row r="23" spans="2:21" ht="30" customHeight="1">
       <c r="B23" s="26"/>
       <c r="C23" s="141"/>
-      <c r="D23" s="160" t="s">
+      <c r="D23" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="154" t="s">
+      <c r="E23" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="29"/>
       <c r="C24" s="70"/>
-      <c r="D24" s="161"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="72">
         <f>I4</f>
         <v>-0.1</v>
@@ -47639,7 +47938,7 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="157" t="str">
+      <c r="C28" s="150" t="str">
         <f>C8</f>
         <v>[MMUSD]</v>
       </c>
@@ -47675,7 +47974,7 @@
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="158"/>
+      <c r="C29" s="151"/>
       <c r="D29" s="81">
         <f>D9</f>
         <v>6143.604256374444</v>
@@ -47702,7 +48001,7 @@
       <c r="L29" s="38"/>
     </row>
     <row r="30" spans="2:21" ht="10" customHeight="1">
-      <c r="C30" s="158"/>
+      <c r="C30" s="151"/>
       <c r="D30" s="76"/>
       <c r="E30" s="77"/>
       <c r="F30" s="39"/>
@@ -47717,7 +48016,7 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="158"/>
+      <c r="C31" s="151"/>
       <c r="D31" s="81" t="str">
         <f>D11</f>
         <v>-</v>
@@ -47751,7 +48050,7 @@
       <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="159"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="76" t="str">
         <f>D12</f>
         <v>-</v>
@@ -48182,8 +48481,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48447,6 +48746,10 @@
       <c r="C25">
         <v>70365476.0079166</v>
       </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>-333.7480492466957</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="C26">
@@ -48470,7 +48773,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="144"/>
@@ -48494,7 +48797,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="145"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -48508,7 +48811,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="145"/>
       <c r="I29" s="145"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -48548,7 +48851,7 @@
         <f>C10/C28</f>
         <v>223.804673687914</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="145"/>
@@ -48580,7 +48883,7 @@
         <f>C14/C28</f>
         <v>2392.4130825284801</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="145"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -48610,7 +48913,7 @@
         <f>C6/C28</f>
         <v>1525.45445931267</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="145"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -48640,7 +48943,7 @@
         <f>C18/C28</f>
         <v>192.47268213529398</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="145"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -48846,23 +49149,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="3:14">
       <c r="F3" s="106"/>
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="170"/>
-      <c r="I3" s="171" t="s">
+      <c r="H3" s="163"/>
+      <c r="I3" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="3:14" ht="34">
       <c r="D4" s="1"/>
@@ -67699,8 +68002,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -68066,36 +68369,36 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="N11" s="147"/>
-      <c r="O11" s="59" t="s">
+      <c r="N11" s="226"/>
+      <c r="O11" s="227" t="s">
         <v>157</v>
       </c>
-      <c r="P11" s="149" t="s">
+      <c r="P11" s="228" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="N12" s="77" t="s">
+      <c r="N12" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="O12" s="152">
+      <c r="O12" s="229">
         <f>-(O5-O7)/O5</f>
         <v>-0.31893054134579057</v>
       </c>
-      <c r="P12" s="150">
+      <c r="P12" s="230">
         <f>-(P5-P7)/P5</f>
         <v>-0.18405780242499284</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="N13" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="O13" s="153">
+      <c r="N13" s="231" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="229">
         <f>-(O6-O8)/O6</f>
         <v>-0.82687893503666876</v>
       </c>
-      <c r="P13" s="151">
+      <c r="P13" s="230">
         <f>-(P6-P8)/P6</f>
         <v>-0.87328096871420302</v>
       </c>
@@ -68394,7 +68697,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="51">
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="155" t="s">
         <v>132</v>
       </c>
       <c r="D15" s="128" t="s">
@@ -68406,15 +68709,15 @@
       <c r="F15" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="163" t="s">
+      <c r="G15" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="162"/>
+      <c r="H15" s="155"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="164"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="139" t="s">
         <v>118</v>
       </c>
@@ -68733,7 +69036,7 @@
       </c>
     </row>
     <row r="29" spans="3:18" ht="34">
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="158" t="s">
         <v>113</v>
       </c>
       <c r="D29" s="128" t="s">
@@ -68763,7 +69066,7 @@
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="166"/>
+      <c r="C30" s="159"/>
       <c r="D30" s="139" t="s">
         <v>118</v>
       </c>
@@ -69181,7 +69484,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="87"/>
@@ -69205,7 +69508,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="88"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -69219,7 +69522,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="88"/>
       <c r="I29" s="88"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -69259,7 +69562,7 @@
         <f>C10/C28</f>
         <v>405.54467201362598</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="88"/>
@@ -69291,7 +69594,7 @@
         <f>C14/C28</f>
         <v>4335.16585193833</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="88"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -69321,7 +69624,7 @@
         <f>C6/C28</f>
         <v>2764.1957525707503</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="88"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -69351,7 +69654,7 @@
         <f>C18/C28</f>
         <v>768.872957065631</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="88"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -69851,7 +70154,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="25"/>
@@ -69875,7 +70178,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -69889,7 +70192,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -69929,7 +70232,7 @@
         <f>C10/C28</f>
         <v>390.39384942954598</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="18"/>
@@ -69961,7 +70264,7 @@
         <f>C14/C28</f>
         <v>4173.2075444375705</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="18"/>
       <c r="J32" s="16">
         <f>(G32-F32)*1000000/C11</f>
@@ -69991,7 +70294,7 @@
         <f>C6/C28</f>
         <v>2660.9276237425697</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="18"/>
       <c r="J33" s="16">
         <f>(G33-F33)*1000000/C3</f>
@@ -70022,7 +70325,7 @@
         <f>C18/C28</f>
         <v>601.86322198059702</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="18"/>
       <c r="J34" s="27">
         <f>(G34-F34)*1000000/C15</f>
@@ -70528,7 +70831,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="8"/>
@@ -70552,7 +70855,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -70566,7 +70869,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -70606,7 +70909,7 @@
         <f>C10/C28</f>
         <v>372.013920699192</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="12"/>
@@ -70638,7 +70941,7 @@
         <f>C14/C28</f>
         <v>3976.7309417558999</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="12"/>
       <c r="J32" s="95">
         <f>(G32-F32)*1000000/C11</f>
@@ -70668,7 +70971,7 @@
         <f>C6/C28</f>
         <v>2535.64988139774</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="12"/>
       <c r="J33" s="95">
         <f>(G33-F33)*1000000/C3</f>
@@ -70698,7 +71001,7 @@
         <f>C18/C28</f>
         <v>474.45201054303197</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="12"/>
       <c r="J34" s="94">
         <f>(G34-F34)*1000000/C15</f>
@@ -71191,7 +71494,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="25"/>
@@ -71215,7 +71518,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -71229,7 +71532,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -71269,7 +71572,7 @@
         <f>C10/C28</f>
         <v>297.07428018686801</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="18"/>
@@ -71301,7 +71604,7 @@
         <f>C14/C28</f>
         <v>3175.64590002061</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="18"/>
       <c r="J32" s="95">
         <f>(G32-F32)*1000000/C11</f>
@@ -71331,7 +71634,7 @@
         <f>C6/C28</f>
         <v>2024.8606877304699</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="18"/>
       <c r="J33" s="95">
         <f>(G33-F33)*1000000/C3</f>
@@ -71361,7 +71664,7 @@
         <f>C18/C28</f>
         <v>240.08756788642401</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="18"/>
       <c r="J34" s="94">
         <f>(G34-F34)*1000000/C15</f>
@@ -71553,12 +71856,13 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
@@ -71832,6 +72136,10 @@
       <c r="C24">
         <v>309710682.57224798</v>
       </c>
+      <c r="J24">
+        <f>((G28-F28)*C25)/C28</f>
+        <v>982.68537991038488</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -71839,6 +72147,10 @@
       </c>
       <c r="C25">
         <v>70365476.0079166</v>
+      </c>
+      <c r="J25">
+        <f>((G28-F28)*C25+(G28-F28)*(C26-C25)/2)/C28</f>
+        <v>1006.530391447818</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -71863,7 +72175,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="160" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="64"/>
@@ -71887,7 +72199,7 @@
         <v>33</v>
       </c>
       <c r="I28" s="63"/>
-      <c r="J28" s="167"/>
+      <c r="J28" s="160"/>
       <c r="M28" t="s">
         <v>38</v>
       </c>
@@ -71901,7 +72213,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
-      <c r="J29" s="167"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="9" t="s">
@@ -71941,7 +72253,7 @@
         <f>C10/C28</f>
         <v>402.551815166327</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="161" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="63"/>
@@ -71973,7 +72285,7 @@
         <f>C14/C28</f>
         <v>4303.1729996103095</v>
       </c>
-      <c r="H32" s="168"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="63"/>
       <c r="J32" s="114">
         <f>(G32-F32)*1000000/C11</f>
@@ -72003,7 +72315,7 @@
         <f>C6/C28</f>
         <v>2743.7964161811901</v>
       </c>
-      <c r="H33" s="168"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="63"/>
       <c r="J33" s="114">
         <f>(G33-F33)*1000000/C3</f>
@@ -72033,7 +72345,7 @@
         <f>C18/C28</f>
         <v>734.82502518821707</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="63"/>
       <c r="J34" s="112">
         <f>(G34-F34)*1000000/C15</f>
